--- a/DateBase/flawers/flower.xlsx
+++ b/DateBase/flawers/flower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15900" windowHeight="11535"/>
+    <workbookView windowWidth="17377" windowHeight="10552"/>
   </bookViews>
   <sheets>
     <sheet name="洋桔梗Lisianthus" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1831" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1049">
   <si>
     <t>id</t>
   </si>
@@ -473,7 +473,7 @@
     <t>Hydrangea Pointed Pink</t>
   </si>
   <si>
-    <t>单瓣秋绿</t>
+    <t>绣球苹果绿</t>
   </si>
   <si>
     <t>Rosa rugosa Thunb.</t>
@@ -1194,6 +1194,12 @@
   </si>
   <si>
     <t>Gemini</t>
+  </si>
+  <si>
+    <t>蓝调</t>
+  </si>
+  <si>
+    <t>bluetone</t>
   </si>
   <si>
     <t xml:space="preserve"> gypsophila</t>
@@ -1775,7 +1781,7 @@
     <t>Philodendron Xanadu</t>
   </si>
   <si>
-    <t>绿枫叶小</t>
+    <t>绿枫叶山货</t>
   </si>
   <si>
     <t>maple leaf small</t>
@@ -1793,7 +1799,7 @@
     <t>Trachelium caeruleum L.</t>
   </si>
   <si>
-    <t>夕雾草 疗喉草</t>
+    <t>夕雾草</t>
   </si>
   <si>
     <t>Thaumatophyllum xanadu</t>
@@ -1927,7 +1933,7 @@
     <t>scabiosa dark purple</t>
   </si>
   <si>
-    <t>菟葵 
+    <t>单瓣菟葵粉 
 green</t>
   </si>
   <si>
@@ -1991,7 +1997,7 @@
     <t>rice flower white</t>
   </si>
   <si>
-    <t>红绿灵</t>
+    <t>红绿灵草</t>
   </si>
   <si>
     <t>小香球</t>
@@ -2000,7 +2006,7 @@
     <t>虎血草</t>
   </si>
   <si>
-    <t>龙船</t>
+    <t>龙船花红</t>
   </si>
   <si>
     <t>大飞燕白色</t>
@@ -2255,7 +2261,7 @@
     <t>Camptotheca acuminate Decne</t>
   </si>
   <si>
-    <t>冬青</t>
+    <t>冬青红</t>
   </si>
   <si>
     <t>ilex</t>
@@ -2344,7 +2350,7 @@
     <t>Lysimachia</t>
   </si>
   <si>
-    <t>国产五针松</t>
+    <t>五针松</t>
   </si>
   <si>
     <t>玉兰枝</t>
@@ -2393,7 +2399,7 @@
     <t>Astilbe</t>
   </si>
   <si>
-    <t>海芋</t>
+    <t>海芋白</t>
   </si>
   <si>
     <t>Calla Lily</t>
@@ -2441,19 +2447,19 @@
     <t>sunflower mini</t>
   </si>
   <si>
-    <t>绿铃草</t>
+    <t>绿灵草</t>
   </si>
   <si>
     <t>lepidium</t>
   </si>
   <si>
-    <t>蝴蝶洋牡丹</t>
+    <t>蝴蝶洋牡丹 红</t>
   </si>
   <si>
     <t>butterfly  Ranunculus</t>
   </si>
   <si>
-    <t>菟葵</t>
+    <t>重瓣菟葵粉</t>
   </si>
   <si>
     <t>重瓣洋甘菊</t>
@@ -2507,7 +2513,7 @@
     <t>罗波尼</t>
   </si>
   <si>
-    <t>粉钻</t>
+    <t>细米花</t>
   </si>
   <si>
     <t>咖喱花</t>
@@ -2686,7 +2692,7 @@
     <t xml:space="preserve">phytolacca acinosa </t>
   </si>
   <si>
-    <t>山归来 菝葜</t>
+    <t>山归来绿</t>
   </si>
   <si>
     <t>Smilax china</t>
@@ -2743,11 +2749,10 @@
     <t>大珊瑚果</t>
   </si>
   <si>
-    <t>雪果</t>
-  </si>
-  <si>
-    <t>snow berry
-white/pink</t>
+    <t>雪果白</t>
+  </si>
+  <si>
+    <t>snow berry white</t>
   </si>
   <si>
     <t>洋蓟 朝鲜蓟</t>
@@ -2784,7 +2789,7 @@
 red</t>
   </si>
   <si>
-    <t>柔丽思</t>
+    <t>柔丽思红</t>
   </si>
   <si>
     <t>空气草</t>
@@ -2799,7 +2804,7 @@
     <t>绿宝石</t>
   </si>
   <si>
-    <t>台湾粉菠萝（进口）</t>
+    <t>粉菠萝</t>
   </si>
   <si>
     <t>白星花</t>
@@ -3034,6 +3039,9 @@
     <t>梦幻芭蕉</t>
   </si>
   <si>
+    <t>黄金叶</t>
+  </si>
+  <si>
     <t>康乃馨复古红</t>
   </si>
   <si>
@@ -3172,7 +3180,7 @@
     <t>干花小盼草红</t>
   </si>
   <si>
-    <t>重瓣银莲</t>
+    <t>重瓣银莲混色</t>
   </si>
   <si>
     <t>向日葵柠檬黄</t>
@@ -3205,7 +3213,16 @@
     <t>Sarah</t>
   </si>
   <si>
-    <t>惯众蕨</t>
+    <t>海棠果红</t>
+  </si>
+  <si>
+    <t>洋牡丹河内</t>
+  </si>
+  <si>
+    <t>洋牡丹樱花粉</t>
+  </si>
+  <si>
+    <t>洋牡丹婚礼白</t>
   </si>
   <si>
     <t>大丽花 奶油桃子</t>
@@ -3277,10 +3294,166 @@
     <t>大丽花 黑卡玛</t>
   </si>
   <si>
-    <t>大丽花 圣诞老人</t>
+    <t>大丽花圣诞老人</t>
   </si>
   <si>
     <t>大丽花 黄桃子</t>
+  </si>
+  <si>
+    <t>洋牡丹玫红</t>
+  </si>
+  <si>
+    <t>洋牡丹大香槟</t>
+  </si>
+  <si>
+    <t>百合皇后</t>
+  </si>
+  <si>
+    <t>锦鲤白</t>
+  </si>
+  <si>
+    <t>锦鲤黄</t>
+  </si>
+  <si>
+    <t>锦鲤橙</t>
+  </si>
+  <si>
+    <t>锦鲤粉</t>
+  </si>
+  <si>
+    <t>锦鲤红</t>
+  </si>
+  <si>
+    <t>百合小粉仙</t>
+  </si>
+  <si>
+    <t>百合黑</t>
+  </si>
+  <si>
+    <t>山归来橙</t>
+  </si>
+  <si>
+    <t>高粱</t>
+  </si>
+  <si>
+    <t>朱顶红</t>
+  </si>
+  <si>
+    <t>银莲紫</t>
+  </si>
+  <si>
+    <t>银铃</t>
+  </si>
+  <si>
+    <t>迎客豆</t>
+  </si>
+  <si>
+    <t>常青藤</t>
+  </si>
+  <si>
+    <t>百合虎皮</t>
+  </si>
+  <si>
+    <t>百合笑脸</t>
+  </si>
+  <si>
+    <t>百合西施</t>
+  </si>
+  <si>
+    <t>舞竹</t>
+  </si>
+  <si>
+    <t>火焰兰果</t>
+  </si>
+  <si>
+    <t>米酒果</t>
+  </si>
+  <si>
+    <t>小西瓜山货</t>
+  </si>
+  <si>
+    <t>重瓣腊梅粉</t>
+  </si>
+  <si>
+    <t>琅琊花白</t>
+  </si>
+  <si>
+    <t>尤加利三角果</t>
+  </si>
+  <si>
+    <t>中华桔梗</t>
+  </si>
+  <si>
+    <t>小西瓜挂</t>
+  </si>
+  <si>
+    <t>永生吊米白</t>
+  </si>
+  <si>
+    <t>金边百合叶</t>
+  </si>
+  <si>
+    <t>雪梅白</t>
+  </si>
+  <si>
+    <t>雪梅粉</t>
+  </si>
+  <si>
+    <t>重瓣白百合</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>雪果粉</t>
+  </si>
+  <si>
+    <t>snowberry pink</t>
+  </si>
+  <si>
+    <t>东红</t>
+  </si>
+  <si>
+    <t>细尤加利叶带大果</t>
+  </si>
+  <si>
+    <t>山葡萄</t>
+  </si>
+  <si>
+    <t>银莲玫红</t>
+  </si>
+  <si>
+    <t>银莲白</t>
+  </si>
+  <si>
+    <t>银莲红</t>
+  </si>
+  <si>
+    <t>紫珠</t>
+  </si>
+  <si>
+    <t>银扇干花</t>
+  </si>
+  <si>
+    <t>冬青橙</t>
+  </si>
+  <si>
+    <t>莲花果</t>
+  </si>
+  <si>
+    <t>琅琊花粉</t>
+  </si>
+  <si>
+    <t>米柱红</t>
+  </si>
+  <si>
+    <t>鸢尾叶</t>
+  </si>
+  <si>
+    <t>绿剑叶</t>
+  </si>
+  <si>
+    <t>金边朱蕉</t>
   </si>
 </sst>
 </file>
@@ -4316,7 +4489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4539,10 +4712,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5716,14 +5892,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H679"/>
+  <dimension ref="A1:H809"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B646" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B674" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F666" sqref="F666"/>
+      <selection pane="bottomRight" activeCell="E683" sqref="E683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3362831858407" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="7"/>
@@ -10829,12 +11005,22 @@
       <c r="A274" s="21">
         <v>273</v>
       </c>
-      <c r="B274" s="22"/>
+      <c r="B274" s="9" t="s">
+        <v>149</v>
+      </c>
       <c r="C274" s="23"/>
-      <c r="D274" s="63"/>
-      <c r="E274" s="25"/>
-      <c r="F274" s="25"/>
-      <c r="G274" s="46"/>
+      <c r="D274" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="E274" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F274" s="48">
+        <v>20</v>
+      </c>
+      <c r="G274" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="275" customHeight="1" spans="1:7">
       <c r="A275" s="21">
@@ -11127,20 +11313,20 @@
         <v>300</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C301" s="23"/>
       <c r="D301" s="67" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E301" s="67" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F301" s="25">
         <v>1</v>
       </c>
       <c r="G301" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="1:7">
@@ -11148,20 +11334,20 @@
         <v>301</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C302" s="23"/>
       <c r="D302" s="67" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E302" s="67" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F302" s="25">
         <v>0.5</v>
       </c>
       <c r="G302" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="303" customHeight="1" spans="1:7">
@@ -11171,16 +11357,16 @@
       <c r="B303" s="22"/>
       <c r="C303" s="23"/>
       <c r="D303" s="67" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E303" s="67" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F303" s="25">
         <v>0.5</v>
       </c>
       <c r="G303" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="1:7">
@@ -11190,16 +11376,16 @@
       <c r="B304" s="22"/>
       <c r="C304" s="23"/>
       <c r="D304" s="67" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E304" s="67" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F304" s="25">
         <v>0.5</v>
       </c>
       <c r="G304" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="1:7">
@@ -11209,16 +11395,16 @@
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
       <c r="D305" s="67" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E305" s="67" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F305" s="25">
         <v>0.5</v>
       </c>
       <c r="G305" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="306" customHeight="1" spans="1:7">
@@ -11228,16 +11414,16 @@
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
       <c r="D306" s="67" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E306" s="67" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F306" s="25">
         <v>0.5</v>
       </c>
       <c r="G306" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="1:7">
@@ -11247,16 +11433,16 @@
       <c r="B307" s="22"/>
       <c r="C307" s="23"/>
       <c r="D307" s="67" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E307" s="67" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F307" s="25">
         <v>0.5</v>
       </c>
       <c r="G307" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="1:7">
@@ -11266,16 +11452,16 @@
       <c r="B308" s="22"/>
       <c r="C308" s="23"/>
       <c r="D308" s="67" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E308" s="67" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F308" s="25">
         <v>0.5</v>
       </c>
       <c r="G308" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="309" customHeight="1" spans="1:7">
@@ -11285,16 +11471,16 @@
       <c r="B309" s="22"/>
       <c r="C309" s="23"/>
       <c r="D309" s="67" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E309" s="67" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F309" s="25">
         <v>0.5</v>
       </c>
       <c r="G309" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="1:7">
@@ -11304,16 +11490,16 @@
       <c r="B310" s="22"/>
       <c r="C310" s="23"/>
       <c r="D310" s="67" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E310" s="67" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F310" s="25">
         <v>0.5</v>
       </c>
       <c r="G310" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="1:7">
@@ -11323,16 +11509,16 @@
       <c r="B311" s="22"/>
       <c r="C311" s="23"/>
       <c r="D311" s="67" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E311" s="67" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F311" s="25">
         <v>0.5</v>
       </c>
       <c r="G311" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="312" customHeight="1" spans="1:7">
@@ -11342,16 +11528,16 @@
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
       <c r="D312" s="67" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E312" s="67" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F312" s="25">
         <v>0.5</v>
       </c>
       <c r="G312" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="1:7">
@@ -11361,16 +11547,16 @@
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
       <c r="D313" s="67" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E313" s="67" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F313" s="25">
         <v>0.5</v>
       </c>
       <c r="G313" s="25" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="1:7">
@@ -11391,16 +11577,16 @@
       <c r="B315" s="22"/>
       <c r="C315" s="23"/>
       <c r="D315" s="67" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E315" s="25" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F315" s="25">
         <v>1</v>
       </c>
       <c r="G315" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="1:7">
@@ -11410,16 +11596,16 @@
       <c r="B316" s="22"/>
       <c r="C316" s="23"/>
       <c r="D316" s="67" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F316" s="25">
         <v>1</v>
       </c>
       <c r="G316" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="1:7">
@@ -11429,16 +11615,16 @@
       <c r="B317" s="22"/>
       <c r="C317" s="23"/>
       <c r="D317" s="67" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E317" s="25" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F317" s="25">
         <v>1</v>
       </c>
       <c r="G317" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="318" customHeight="1" spans="1:7">
@@ -11448,16 +11634,16 @@
       <c r="B318" s="22"/>
       <c r="C318" s="23"/>
       <c r="D318" s="67" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F318" s="25">
         <v>1</v>
       </c>
       <c r="G318" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="1:7">
@@ -11467,16 +11653,16 @@
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
       <c r="D319" s="67" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E319" s="25" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F319" s="25">
         <v>1</v>
       </c>
       <c r="G319" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="1:7">
@@ -11486,16 +11672,16 @@
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
       <c r="D320" s="67" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E320" s="25" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F320" s="25">
         <v>1</v>
       </c>
       <c r="G320" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="321" customHeight="1" spans="1:7">
@@ -11505,16 +11691,16 @@
       <c r="B321" s="22"/>
       <c r="C321" s="23"/>
       <c r="D321" s="67" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E321" s="68" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F321" s="25">
         <v>1</v>
       </c>
       <c r="G321" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="1:7">
@@ -11524,16 +11710,16 @@
       <c r="B322" s="22"/>
       <c r="C322" s="23"/>
       <c r="D322" s="67" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E322" s="25" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F322" s="25">
         <v>1</v>
       </c>
       <c r="G322" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="1:7">
@@ -11543,16 +11729,16 @@
       <c r="B323" s="22"/>
       <c r="C323" s="23"/>
       <c r="D323" s="67" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E323" s="25" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F323" s="25">
         <v>1</v>
       </c>
       <c r="G323" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="324" customHeight="1" spans="1:7">
@@ -11562,16 +11748,16 @@
       <c r="B324" s="22"/>
       <c r="C324" s="23"/>
       <c r="D324" s="67" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E324" s="25" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F324" s="25">
         <v>1</v>
       </c>
       <c r="G324" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="1:7">
@@ -11581,16 +11767,16 @@
       <c r="B325" s="22"/>
       <c r="C325" s="23"/>
       <c r="D325" s="67" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E325" s="25" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F325" s="25">
         <v>1</v>
       </c>
       <c r="G325" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="1:7">
@@ -11600,16 +11786,16 @@
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
       <c r="D326" s="67" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E326" s="25" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F326" s="25">
         <v>1</v>
       </c>
       <c r="G326" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="327" customHeight="1" spans="1:7">
@@ -11619,14 +11805,14 @@
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
       <c r="D327" s="67" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E327" s="25"/>
       <c r="F327" s="25">
         <v>1</v>
       </c>
       <c r="G327" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="1:7">
@@ -11636,16 +11822,16 @@
       <c r="B328" s="22"/>
       <c r="C328" s="23"/>
       <c r="D328" s="67" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E328" s="25" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F328" s="25">
         <v>1</v>
       </c>
       <c r="G328" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="1:7">
@@ -11655,14 +11841,14 @@
       <c r="B329" s="22"/>
       <c r="C329" s="23"/>
       <c r="D329" s="67" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E329" s="25"/>
       <c r="F329" s="25">
         <v>1</v>
       </c>
       <c r="G329" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="330" customHeight="1" spans="1:7">
@@ -11672,14 +11858,14 @@
       <c r="B330" s="22"/>
       <c r="C330" s="23"/>
       <c r="D330" s="67" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E330" s="25"/>
       <c r="F330" s="25">
         <v>1</v>
       </c>
       <c r="G330" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="1:7">
@@ -11689,16 +11875,16 @@
       <c r="B331" s="22"/>
       <c r="C331" s="23"/>
       <c r="D331" s="67" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E331" s="25" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F331" s="25">
         <v>1</v>
       </c>
       <c r="G331" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="1:7">
@@ -11708,16 +11894,16 @@
       <c r="B332" s="22"/>
       <c r="C332" s="23"/>
       <c r="D332" s="67" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E332" s="25" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F332" s="25">
         <v>1</v>
       </c>
       <c r="G332" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="333" customHeight="1" spans="1:7">
@@ -11727,16 +11913,16 @@
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
       <c r="D333" s="67" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E333" s="25" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F333" s="25">
         <v>1</v>
       </c>
       <c r="G333" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="1:7">
@@ -11746,16 +11932,16 @@
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
       <c r="D334" s="67" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E334" s="25" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F334" s="25">
         <v>1</v>
       </c>
       <c r="G334" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="1:7">
@@ -11765,16 +11951,16 @@
       <c r="B335" s="22"/>
       <c r="C335" s="23"/>
       <c r="D335" s="67" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E335" s="25" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F335" s="25">
         <v>1</v>
       </c>
       <c r="G335" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="336" customHeight="1" spans="1:7">
@@ -11784,14 +11970,14 @@
       <c r="B336" s="22"/>
       <c r="C336" s="23"/>
       <c r="D336" s="67" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E336" s="25"/>
       <c r="F336" s="25">
         <v>1</v>
       </c>
       <c r="G336" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="1:7">
@@ -11801,16 +11987,16 @@
       <c r="B337" s="22"/>
       <c r="C337" s="23"/>
       <c r="D337" s="67" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E337" s="25" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F337" s="25">
         <v>1</v>
       </c>
       <c r="G337" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="1:7">
@@ -11820,16 +12006,16 @@
       <c r="B338" s="22"/>
       <c r="C338" s="23"/>
       <c r="D338" s="67" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E338" s="25" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F338" s="25">
         <v>1</v>
       </c>
       <c r="G338" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="339" customHeight="1" spans="1:7">
@@ -11837,18 +12023,18 @@
         <v>338</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C339" s="23"/>
       <c r="D339" s="67" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E339" s="25"/>
       <c r="F339" s="25">
         <v>1</v>
       </c>
       <c r="G339" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="1:7">
@@ -11858,16 +12044,16 @@
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
       <c r="D340" s="67" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E340" s="25" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F340" s="25">
         <v>1</v>
       </c>
       <c r="G340" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="1:7">
@@ -11877,14 +12063,14 @@
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
       <c r="D341" s="67" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E341" s="25"/>
       <c r="F341" s="25">
         <v>1</v>
       </c>
       <c r="G341" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="342" customHeight="1" spans="1:7">
@@ -11892,18 +12078,18 @@
         <v>341</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="67" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E342" s="25"/>
       <c r="F342" s="25">
         <v>1</v>
       </c>
       <c r="G342" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="1:7">
@@ -11911,18 +12097,18 @@
         <v>342</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="67" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E343" s="25"/>
       <c r="F343" s="25">
         <v>1</v>
       </c>
       <c r="G343" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="1:7">
@@ -11930,18 +12116,18 @@
         <v>343</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C344" s="23"/>
       <c r="D344" s="67" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E344" s="25"/>
       <c r="F344" s="25">
         <v>1</v>
       </c>
       <c r="G344" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="345" customHeight="1" spans="1:7">
@@ -11949,20 +12135,20 @@
         <v>344</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C345" s="23"/>
       <c r="D345" s="67" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E345" s="25" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F345" s="25">
         <v>1</v>
       </c>
       <c r="G345" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="1:7">
@@ -11972,16 +12158,16 @@
       <c r="B346" s="22"/>
       <c r="C346" s="23"/>
       <c r="D346" s="67" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E346" s="25" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F346" s="25">
         <v>1</v>
       </c>
       <c r="G346" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="1:7">
@@ -11989,20 +12175,20 @@
         <v>346</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C347" s="23"/>
       <c r="D347" s="67" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E347" s="25" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F347" s="25">
         <v>1</v>
       </c>
       <c r="G347" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="348" customHeight="1" spans="1:7">
@@ -12012,14 +12198,14 @@
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
       <c r="D348" s="67" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E348" s="25"/>
       <c r="F348" s="25">
         <v>1</v>
       </c>
       <c r="G348" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="1:7">
@@ -12029,14 +12215,14 @@
       <c r="B349" s="22"/>
       <c r="C349" s="23"/>
       <c r="D349" s="67" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E349" s="25"/>
       <c r="F349" s="25">
         <v>1</v>
       </c>
       <c r="G349" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="1:7">
@@ -12044,20 +12230,20 @@
         <v>349</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C350" s="23"/>
       <c r="D350" s="67" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E350" s="68" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F350" s="25">
         <v>1</v>
       </c>
       <c r="G350" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="351" customHeight="1" spans="1:7">
@@ -12065,20 +12251,20 @@
         <v>350</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C351" s="23"/>
       <c r="D351" s="67" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E351" s="68" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F351" s="25">
         <v>1</v>
       </c>
       <c r="G351" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="1:7">
@@ -12086,20 +12272,20 @@
         <v>351</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C352" s="23"/>
       <c r="D352" s="67" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E352" s="68" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F352" s="25">
         <v>1</v>
       </c>
       <c r="G352" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="1:7">
@@ -12107,20 +12293,20 @@
         <v>352</v>
       </c>
       <c r="B353" s="22" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C353" s="23"/>
       <c r="D353" s="67" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E353" s="25" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F353" s="25">
         <v>1</v>
       </c>
       <c r="G353" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="354" customHeight="1" spans="1:7">
@@ -12128,20 +12314,20 @@
         <v>353</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C354" s="23"/>
       <c r="D354" s="67" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E354" s="25" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F354" s="25">
         <v>1</v>
       </c>
       <c r="G354" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="1:7">
@@ -12151,14 +12337,14 @@
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
       <c r="D355" s="67" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E355" s="25"/>
       <c r="F355" s="25">
         <v>1</v>
       </c>
       <c r="G355" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="1:7">
@@ -12168,16 +12354,16 @@
       <c r="B356" s="22"/>
       <c r="C356" s="23"/>
       <c r="D356" s="67" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E356" s="25" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F356" s="25">
         <v>1</v>
       </c>
       <c r="G356" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="357" customHeight="1" spans="1:7">
@@ -12187,16 +12373,16 @@
       <c r="B357" s="22"/>
       <c r="C357" s="23"/>
       <c r="D357" s="67" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E357" s="25" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F357" s="25">
         <v>1</v>
       </c>
       <c r="G357" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="1:7">
@@ -12206,14 +12392,14 @@
       <c r="B358" s="22"/>
       <c r="C358" s="23"/>
       <c r="D358" s="67" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E358" s="25"/>
       <c r="F358" s="25">
         <v>1</v>
       </c>
       <c r="G358" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="1:7">
@@ -12223,14 +12409,14 @@
       <c r="B359" s="22"/>
       <c r="C359" s="23"/>
       <c r="D359" s="67" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E359" s="25"/>
       <c r="F359" s="25">
         <v>1</v>
       </c>
       <c r="G359" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="360" customHeight="1" spans="1:7">
@@ -12240,14 +12426,14 @@
       <c r="B360" s="22"/>
       <c r="C360" s="23"/>
       <c r="D360" s="69" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E360" s="25"/>
       <c r="F360" s="25">
         <v>1</v>
       </c>
       <c r="G360" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="1:7">
@@ -12255,18 +12441,18 @@
         <v>360</v>
       </c>
       <c r="B361" s="22" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C361" s="23"/>
       <c r="D361" s="67" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E361" s="25"/>
       <c r="F361" s="25">
         <v>1</v>
       </c>
       <c r="G361" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="1:7">
@@ -12274,20 +12460,20 @@
         <v>361</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C362" s="23"/>
       <c r="D362" s="67" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E362" s="25" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F362" s="25">
         <v>1</v>
       </c>
       <c r="G362" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="363" customHeight="1" spans="1:7">
@@ -12297,16 +12483,16 @@
       <c r="B363" s="22"/>
       <c r="C363" s="23"/>
       <c r="D363" s="67" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E363" s="25" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F363" s="25">
         <v>1</v>
       </c>
       <c r="G363" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="1:7">
@@ -12314,20 +12500,20 @@
         <v>363</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C364" s="23"/>
       <c r="D364" s="67" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E364" s="25" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F364" s="25">
         <v>1</v>
       </c>
       <c r="G364" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="1:7">
@@ -12335,20 +12521,20 @@
         <v>364</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C365" s="23"/>
       <c r="D365" s="67" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E365" s="25" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F365" s="25">
         <v>1</v>
       </c>
       <c r="G365" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="366" customHeight="1" spans="1:7">
@@ -12358,16 +12544,16 @@
       <c r="B366" s="22"/>
       <c r="C366" s="23"/>
       <c r="D366" s="67" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E366" s="25" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F366" s="25">
         <v>1</v>
       </c>
       <c r="G366" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="1:7">
@@ -12377,16 +12563,16 @@
       <c r="B367" s="22"/>
       <c r="C367" s="23"/>
       <c r="D367" s="67" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E367" s="25" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F367" s="25">
         <v>1</v>
       </c>
       <c r="G367" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="1:7">
@@ -12396,16 +12582,16 @@
       <c r="B368" s="22"/>
       <c r="C368" s="23"/>
       <c r="D368" s="67" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E368" s="25" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F368" s="25">
         <v>1</v>
       </c>
       <c r="G368" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="369" customHeight="1" spans="1:7">
@@ -12415,14 +12601,14 @@
       <c r="B369" s="22"/>
       <c r="C369" s="23"/>
       <c r="D369" s="69" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E369" s="25"/>
       <c r="F369" s="25">
         <v>1</v>
       </c>
       <c r="G369" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="1:7">
@@ -12432,14 +12618,14 @@
       <c r="B370" s="22"/>
       <c r="C370" s="23"/>
       <c r="D370" s="69" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E370" s="25"/>
       <c r="F370" s="25">
         <v>1</v>
       </c>
       <c r="G370" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="1:7">
@@ -12449,14 +12635,14 @@
       <c r="B371" s="22"/>
       <c r="C371" s="23"/>
       <c r="D371" s="67" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E371" s="25"/>
       <c r="F371" s="25">
         <v>1</v>
       </c>
       <c r="G371" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="372" customHeight="1" spans="1:7">
@@ -12466,16 +12652,16 @@
       <c r="B372" s="22"/>
       <c r="C372" s="23"/>
       <c r="D372" s="67" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E372" s="25" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F372" s="25">
         <v>1</v>
       </c>
       <c r="G372" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="1:7">
@@ -12485,14 +12671,14 @@
       <c r="B373" s="22"/>
       <c r="C373" s="23"/>
       <c r="D373" s="69" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E373" s="25"/>
       <c r="F373" s="25">
         <v>1</v>
       </c>
       <c r="G373" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="1:7">
@@ -12502,16 +12688,16 @@
       <c r="B374" s="22"/>
       <c r="C374" s="23"/>
       <c r="D374" s="70" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E374" s="25" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F374" s="25">
         <v>1</v>
       </c>
       <c r="G374" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="375" customHeight="1" spans="1:7">
@@ -12521,16 +12707,16 @@
       <c r="B375" s="22"/>
       <c r="C375" s="23"/>
       <c r="D375" s="67" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E375" s="25" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F375" s="25">
         <v>1</v>
       </c>
       <c r="G375" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="1:7">
@@ -12538,20 +12724,20 @@
         <v>375</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C376" s="23"/>
       <c r="D376" s="67" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E376" s="25" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F376" s="25">
         <v>1</v>
       </c>
       <c r="G376" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="1:7">
@@ -12561,14 +12747,14 @@
       <c r="B377" s="22"/>
       <c r="C377" s="23"/>
       <c r="D377" s="67" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E377" s="25"/>
       <c r="F377" s="25">
         <v>1</v>
       </c>
       <c r="G377" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="378" customHeight="1" spans="1:7">
@@ -12578,14 +12764,14 @@
       <c r="B378" s="22"/>
       <c r="C378" s="23"/>
       <c r="D378" s="67" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E378" s="25"/>
       <c r="F378" s="25">
         <v>1</v>
       </c>
       <c r="G378" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="1:7">
@@ -12595,14 +12781,14 @@
       <c r="B379" s="22"/>
       <c r="C379" s="23"/>
       <c r="D379" s="67" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E379" s="25"/>
       <c r="F379" s="25">
         <v>1</v>
       </c>
       <c r="G379" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="1:7">
@@ -12612,14 +12798,14 @@
       <c r="B380" s="22"/>
       <c r="C380" s="23"/>
       <c r="D380" s="67" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E380" s="25"/>
       <c r="F380" s="25">
         <v>1</v>
       </c>
       <c r="G380" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="381" customHeight="1" spans="1:7">
@@ -12629,14 +12815,14 @@
       <c r="B381" s="22"/>
       <c r="C381" s="23"/>
       <c r="D381" s="67" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E381" s="25"/>
       <c r="F381" s="25">
         <v>1</v>
       </c>
       <c r="G381" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="1:7">
@@ -12646,16 +12832,16 @@
       <c r="B382" s="22"/>
       <c r="C382" s="23"/>
       <c r="D382" s="67" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E382" s="25" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F382" s="25">
         <v>1</v>
       </c>
       <c r="G382" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="1:7">
@@ -12665,16 +12851,16 @@
       <c r="B383" s="22"/>
       <c r="C383" s="23"/>
       <c r="D383" s="67" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E383" s="25" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F383" s="25">
         <v>1</v>
       </c>
       <c r="G383" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="1:7">
@@ -12684,16 +12870,16 @@
       <c r="B384" s="22"/>
       <c r="C384" s="23"/>
       <c r="D384" s="67" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E384" s="25" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F384" s="25">
         <v>1</v>
       </c>
       <c r="G384" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="385" customHeight="1" spans="1:7">
@@ -12703,16 +12889,16 @@
       <c r="B385" s="22"/>
       <c r="C385" s="23"/>
       <c r="D385" s="67" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E385" s="25" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F385" s="25">
         <v>1</v>
       </c>
       <c r="G385" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="1:7">
@@ -12722,16 +12908,16 @@
       <c r="B386" s="22"/>
       <c r="C386" s="23"/>
       <c r="D386" s="67" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E386" s="71" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F386" s="25">
         <v>1</v>
       </c>
       <c r="G386" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="1:7">
@@ -12741,14 +12927,14 @@
       <c r="B387" s="22"/>
       <c r="C387" s="23"/>
       <c r="D387" s="67" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E387" s="25"/>
       <c r="F387" s="25">
         <v>1</v>
       </c>
       <c r="G387" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="1:7">
@@ -12758,16 +12944,16 @@
       <c r="B388" s="22"/>
       <c r="C388" s="23"/>
       <c r="D388" s="67" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E388" s="25" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F388" s="25">
         <v>1</v>
       </c>
       <c r="G388" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="389" customHeight="1" spans="1:7">
@@ -12777,16 +12963,16 @@
       <c r="B389" s="22"/>
       <c r="C389" s="23"/>
       <c r="D389" s="67" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E389" s="25" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F389" s="25">
         <v>1</v>
       </c>
       <c r="G389" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="1:7">
@@ -12796,16 +12982,16 @@
       <c r="B390" s="22"/>
       <c r="C390" s="23"/>
       <c r="D390" s="67" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E390" s="25" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F390" s="25">
         <v>1</v>
       </c>
       <c r="G390" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="1:7">
@@ -12815,14 +13001,14 @@
       <c r="B391" s="22"/>
       <c r="C391" s="23"/>
       <c r="D391" s="69" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E391" s="25"/>
       <c r="F391" s="25">
         <v>1</v>
       </c>
       <c r="G391" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="392" customHeight="1" spans="1:7">
@@ -12830,20 +13016,20 @@
         <v>391</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C392" s="23"/>
       <c r="D392" s="67" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E392" s="25" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F392" s="25">
         <v>1</v>
       </c>
       <c r="G392" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="1:7">
@@ -12853,16 +13039,16 @@
       <c r="B393" s="22"/>
       <c r="C393" s="23"/>
       <c r="D393" s="67" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E393" s="25" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F393" s="25">
         <v>1</v>
       </c>
       <c r="G393" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="1:7">
@@ -12872,16 +13058,16 @@
       <c r="B394" s="22"/>
       <c r="C394" s="23"/>
       <c r="D394" s="67" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E394" s="25" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F394" s="25">
         <v>1</v>
       </c>
       <c r="G394" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="395" customHeight="1" spans="1:7">
@@ -12891,16 +13077,16 @@
       <c r="B395" s="22"/>
       <c r="C395" s="23"/>
       <c r="D395" s="67" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E395" s="25" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F395" s="25">
         <v>1</v>
       </c>
       <c r="G395" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="1:7">
@@ -12910,16 +13096,16 @@
       <c r="B396" s="22"/>
       <c r="C396" s="23"/>
       <c r="D396" s="67" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E396" s="25" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F396" s="25">
         <v>1</v>
       </c>
       <c r="G396" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:7">
@@ -12929,16 +13115,16 @@
       <c r="B397" s="22"/>
       <c r="C397" s="23"/>
       <c r="D397" s="67" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E397" s="25" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F397" s="25">
         <v>1</v>
       </c>
       <c r="G397" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="398" customHeight="1" spans="1:7">
@@ -12948,14 +13134,14 @@
       <c r="B398" s="22"/>
       <c r="C398" s="23"/>
       <c r="D398" s="69" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E398" s="25"/>
       <c r="F398" s="25">
         <v>1</v>
       </c>
       <c r="G398" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="1:7">
@@ -12965,14 +13151,14 @@
       <c r="B399" s="22"/>
       <c r="C399" s="23"/>
       <c r="D399" s="69" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E399" s="25"/>
       <c r="F399" s="25">
         <v>1</v>
       </c>
       <c r="G399" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="1:7">
@@ -12982,14 +13168,14 @@
       <c r="B400" s="22"/>
       <c r="C400" s="23"/>
       <c r="D400" s="69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E400" s="25"/>
       <c r="F400" s="25">
         <v>1</v>
       </c>
       <c r="G400" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="401" customHeight="1" spans="1:7">
@@ -12999,14 +13185,14 @@
       <c r="B401" s="22"/>
       <c r="C401" s="23"/>
       <c r="D401" s="69" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E401" s="25"/>
       <c r="F401" s="25">
         <v>1</v>
       </c>
       <c r="G401" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="1:7">
@@ -13016,16 +13202,16 @@
       <c r="B402" s="22"/>
       <c r="C402" s="23"/>
       <c r="D402" s="67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E402" s="25" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F402" s="25">
         <v>1</v>
       </c>
       <c r="G402" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:7">
@@ -13035,16 +13221,16 @@
       <c r="B403" s="22"/>
       <c r="C403" s="23"/>
       <c r="D403" s="67" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E403" s="25" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F403" s="25">
         <v>1</v>
       </c>
       <c r="G403" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:7">
@@ -13054,16 +13240,16 @@
       <c r="B404" s="22"/>
       <c r="C404" s="23"/>
       <c r="D404" s="67" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E404" s="25" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F404" s="25">
         <v>1</v>
       </c>
       <c r="G404" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="1:7">
@@ -13073,16 +13259,16 @@
       <c r="B405" s="22"/>
       <c r="C405" s="23"/>
       <c r="D405" s="67" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="E405" s="25" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="F405" s="25">
         <v>1</v>
       </c>
       <c r="G405" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="1:7">
@@ -13092,16 +13278,16 @@
       <c r="B406" s="22"/>
       <c r="C406" s="23"/>
       <c r="D406" s="67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E406" s="25" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F406" s="25">
         <v>1</v>
       </c>
       <c r="G406" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="407" customHeight="1" spans="1:7">
@@ -13111,16 +13297,16 @@
       <c r="B407" s="22"/>
       <c r="C407" s="23"/>
       <c r="D407" s="67" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F407" s="25">
         <v>1</v>
       </c>
       <c r="G407" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:7">
@@ -13130,16 +13316,16 @@
       <c r="B408" s="22"/>
       <c r="C408" s="23"/>
       <c r="D408" s="67" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E408" s="25" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F408" s="25">
         <v>1</v>
       </c>
       <c r="G408" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="1:7">
@@ -13149,16 +13335,16 @@
       <c r="B409" s="22"/>
       <c r="C409" s="23"/>
       <c r="D409" s="67" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F409" s="25">
         <v>1</v>
       </c>
       <c r="G409" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="410" customHeight="1" spans="1:7">
@@ -13168,16 +13354,16 @@
       <c r="B410" s="22"/>
       <c r="C410" s="23"/>
       <c r="D410" s="67" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E410" s="25" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F410" s="25">
         <v>1</v>
       </c>
       <c r="G410" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="1:7">
@@ -13187,16 +13373,16 @@
       <c r="B411" s="22"/>
       <c r="C411" s="23"/>
       <c r="D411" s="67" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F411" s="25">
         <v>1</v>
       </c>
       <c r="G411" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="1:7">
@@ -13206,16 +13392,16 @@
       <c r="B412" s="22"/>
       <c r="C412" s="23"/>
       <c r="D412" s="67" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E412" s="25" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F412" s="25">
         <v>1</v>
       </c>
       <c r="G412" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="413" customHeight="1" spans="1:7">
@@ -13225,16 +13411,16 @@
       <c r="B413" s="22"/>
       <c r="C413" s="23"/>
       <c r="D413" s="67" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E413" s="25" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F413" s="25">
         <v>1</v>
       </c>
       <c r="G413" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="1:7">
@@ -13244,16 +13430,16 @@
       <c r="B414" s="22"/>
       <c r="C414" s="23"/>
       <c r="D414" s="67" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E414" s="25" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F414" s="25">
         <v>1</v>
       </c>
       <c r="G414" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="1:7">
@@ -13263,16 +13449,16 @@
       <c r="B415" s="22"/>
       <c r="C415" s="23"/>
       <c r="D415" s="67" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E415" s="25" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="F415" s="25">
         <v>1</v>
       </c>
       <c r="G415" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="416" customHeight="1" spans="1:7">
@@ -13282,16 +13468,16 @@
       <c r="B416" s="22"/>
       <c r="C416" s="23"/>
       <c r="D416" s="67" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E416" s="25" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F416" s="25">
         <v>1</v>
       </c>
       <c r="G416" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="1:7">
@@ -13299,20 +13485,20 @@
         <v>416</v>
       </c>
       <c r="B417" s="22" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C417" s="23"/>
       <c r="D417" s="67" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E417" s="25" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F417" s="25">
         <v>1</v>
       </c>
       <c r="G417" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="1:7">
@@ -13322,16 +13508,16 @@
       <c r="B418" s="22"/>
       <c r="C418" s="23"/>
       <c r="D418" s="67" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E418" s="25" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F418" s="25">
         <v>1</v>
       </c>
       <c r="G418" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="419" customHeight="1" spans="1:7">
@@ -13341,16 +13527,16 @@
       <c r="B419" s="22"/>
       <c r="C419" s="23"/>
       <c r="D419" s="67" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E419" s="25" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F419" s="25">
         <v>1</v>
       </c>
       <c r="G419" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="1:7">
@@ -13360,16 +13546,16 @@
       <c r="B420" s="22"/>
       <c r="C420" s="23"/>
       <c r="D420" s="67" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E420" s="25" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="F420" s="25">
         <v>1</v>
       </c>
       <c r="G420" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="1:7">
@@ -13379,16 +13565,16 @@
       <c r="B421" s="22"/>
       <c r="C421" s="23"/>
       <c r="D421" s="67" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E421" s="25" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F421" s="25">
         <v>1</v>
       </c>
       <c r="G421" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="422" customHeight="1" spans="1:7">
@@ -13398,16 +13584,16 @@
       <c r="B422" s="22"/>
       <c r="C422" s="23"/>
       <c r="D422" s="67" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E422" s="25" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F422" s="25">
         <v>1</v>
       </c>
       <c r="G422" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="423" customHeight="1" spans="1:7">
@@ -13420,13 +13606,13 @@
         <v>91</v>
       </c>
       <c r="E423" s="25" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F423" s="25">
         <v>1</v>
       </c>
       <c r="G423" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="1:7">
@@ -13436,16 +13622,16 @@
       <c r="B424" s="22"/>
       <c r="C424" s="23"/>
       <c r="D424" s="67" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E424" s="25" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F424" s="25">
         <v>1</v>
       </c>
       <c r="G424" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="425" customHeight="1" spans="1:7">
@@ -13455,16 +13641,16 @@
       <c r="B425" s="22"/>
       <c r="C425" s="23"/>
       <c r="D425" s="67" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E425" s="25" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F425" s="25">
         <v>1</v>
       </c>
       <c r="G425" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="426" customHeight="1" spans="1:7">
@@ -13474,16 +13660,16 @@
       <c r="B426" s="22"/>
       <c r="C426" s="23"/>
       <c r="D426" s="67" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E426" s="25" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F426" s="25">
         <v>1</v>
       </c>
       <c r="G426" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="427" customHeight="1" spans="1:7">
@@ -13493,16 +13679,16 @@
       <c r="B427" s="22"/>
       <c r="C427" s="23"/>
       <c r="D427" s="67" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E427" s="25" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F427" s="25">
         <v>1</v>
       </c>
       <c r="G427" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="428" customHeight="1" spans="1:7">
@@ -13512,16 +13698,16 @@
       <c r="B428" s="22"/>
       <c r="C428" s="23"/>
       <c r="D428" s="67" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E428" s="25" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F428" s="25">
         <v>1</v>
       </c>
       <c r="G428" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="429" customHeight="1" spans="1:7">
@@ -13531,16 +13717,16 @@
       <c r="B429" s="22"/>
       <c r="C429" s="23"/>
       <c r="D429" s="67" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E429" s="25" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F429" s="25">
         <v>1</v>
       </c>
       <c r="G429" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="430" customHeight="1" spans="1:7">
@@ -13550,16 +13736,16 @@
       <c r="B430" s="22"/>
       <c r="C430" s="23"/>
       <c r="D430" s="67" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E430" s="25" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F430" s="25">
         <v>1</v>
       </c>
       <c r="G430" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="431" customHeight="1" spans="1:7">
@@ -13569,14 +13755,14 @@
       <c r="B431" s="22"/>
       <c r="C431" s="23"/>
       <c r="D431" s="67" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E431" s="25"/>
       <c r="F431" s="25">
         <v>1</v>
       </c>
       <c r="G431" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="432" customHeight="1" spans="1:7">
@@ -13586,14 +13772,14 @@
       <c r="B432" s="22"/>
       <c r="C432" s="23"/>
       <c r="D432" s="69" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E432" s="25"/>
       <c r="F432" s="25">
         <v>1</v>
       </c>
       <c r="G432" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="433" customHeight="1" spans="1:7">
@@ -13603,16 +13789,16 @@
       <c r="B433" s="22"/>
       <c r="C433" s="23"/>
       <c r="D433" s="67" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E433" s="25" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F433" s="25">
         <v>1</v>
       </c>
       <c r="G433" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="434" customHeight="1" spans="1:7">
@@ -13622,16 +13808,16 @@
       <c r="B434" s="22"/>
       <c r="C434" s="23"/>
       <c r="D434" s="67" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E434" s="25" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="F434" s="25">
         <v>1</v>
       </c>
       <c r="G434" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="435" customHeight="1" spans="1:7">
@@ -13641,16 +13827,16 @@
       <c r="B435" s="22"/>
       <c r="C435" s="23"/>
       <c r="D435" s="67" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E435" s="25" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F435" s="25">
         <v>1</v>
       </c>
       <c r="G435" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="436" customHeight="1" spans="1:7">
@@ -13660,16 +13846,16 @@
       <c r="B436" s="22"/>
       <c r="C436" s="23"/>
       <c r="D436" s="67" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E436" s="25" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="F436" s="25">
         <v>1</v>
       </c>
       <c r="G436" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="437" customHeight="1" spans="1:7">
@@ -13679,16 +13865,16 @@
       <c r="B437" s="22"/>
       <c r="C437" s="23"/>
       <c r="D437" s="67" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E437" s="25" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F437" s="25">
         <v>1</v>
       </c>
       <c r="G437" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="438" customHeight="1" spans="1:7">
@@ -13698,16 +13884,16 @@
       <c r="B438" s="22"/>
       <c r="C438" s="23"/>
       <c r="D438" s="67" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E438" s="25" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F438" s="25">
         <v>1</v>
       </c>
       <c r="G438" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="439" customHeight="1" spans="1:7">
@@ -13717,14 +13903,14 @@
       <c r="B439" s="22"/>
       <c r="C439" s="23"/>
       <c r="D439" s="69" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E439" s="25"/>
       <c r="F439" s="25">
         <v>1</v>
       </c>
       <c r="G439" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="440" customHeight="1" spans="1:7">
@@ -13734,14 +13920,14 @@
       <c r="B440" s="22"/>
       <c r="C440" s="23"/>
       <c r="D440" s="67" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="E440" s="25"/>
       <c r="F440" s="25">
         <v>1</v>
       </c>
       <c r="G440" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="441" customHeight="1" spans="1:7">
@@ -13751,14 +13937,14 @@
       <c r="B441" s="22"/>
       <c r="C441" s="23"/>
       <c r="D441" s="69" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E441" s="25"/>
       <c r="F441" s="25">
         <v>1</v>
       </c>
       <c r="G441" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="442" customHeight="1" spans="1:7">
@@ -13768,16 +13954,16 @@
       <c r="B442" s="22"/>
       <c r="C442" s="23"/>
       <c r="D442" s="67" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E442" s="25" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F442" s="25">
         <v>1</v>
       </c>
       <c r="G442" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="443" customHeight="1" spans="1:7">
@@ -13787,14 +13973,14 @@
       <c r="B443" s="22"/>
       <c r="C443" s="23"/>
       <c r="D443" s="67" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E443" s="25"/>
       <c r="F443" s="25">
         <v>1</v>
       </c>
       <c r="G443" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="444" customHeight="1" spans="1:7">
@@ -13804,16 +13990,16 @@
       <c r="B444" s="22"/>
       <c r="C444" s="23"/>
       <c r="D444" s="67" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="E444" s="25" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F444" s="25">
         <v>1</v>
       </c>
       <c r="G444" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="445" customHeight="1" spans="1:7">
@@ -13823,16 +14009,16 @@
       <c r="B445" s="22"/>
       <c r="C445" s="23"/>
       <c r="D445" s="67" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="E445" s="25" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F445" s="25">
         <v>1</v>
       </c>
       <c r="G445" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="446" customHeight="1" spans="1:7">
@@ -13842,16 +14028,16 @@
       <c r="B446" s="22"/>
       <c r="C446" s="23"/>
       <c r="D446" s="67" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="E446" s="25" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F446" s="25">
         <v>1</v>
       </c>
       <c r="G446" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="447" customHeight="1" spans="1:7">
@@ -13861,14 +14047,14 @@
       <c r="B447" s="22"/>
       <c r="C447" s="23"/>
       <c r="D447" s="67" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E447" s="25"/>
       <c r="F447" s="25">
         <v>1</v>
       </c>
       <c r="G447" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="448" customHeight="1" spans="1:7">
@@ -13878,16 +14064,16 @@
       <c r="B448" s="22"/>
       <c r="C448" s="23"/>
       <c r="D448" s="67" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E448" s="25" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F448" s="25">
         <v>1</v>
       </c>
       <c r="G448" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:7">
@@ -13897,16 +14083,16 @@
       <c r="B449" s="22"/>
       <c r="C449" s="23"/>
       <c r="D449" s="67" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E449" s="25" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F449" s="25">
         <v>1</v>
       </c>
       <c r="G449" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="450" customHeight="1" spans="1:7">
@@ -13916,14 +14102,14 @@
       <c r="B450" s="22"/>
       <c r="C450" s="23"/>
       <c r="D450" s="67" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E450" s="25"/>
       <c r="F450" s="25">
         <v>1</v>
       </c>
       <c r="G450" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="451" customHeight="1" spans="1:7">
@@ -13933,14 +14119,14 @@
       <c r="B451" s="22"/>
       <c r="C451" s="23"/>
       <c r="D451" s="67" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E451" s="25"/>
       <c r="F451" s="25">
         <v>1</v>
       </c>
       <c r="G451" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="452" customHeight="1" spans="1:7">
@@ -13950,14 +14136,14 @@
       <c r="B452" s="22"/>
       <c r="C452" s="23"/>
       <c r="D452" s="69" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E452" s="25"/>
       <c r="F452" s="25">
         <v>1</v>
       </c>
       <c r="G452" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="453" customHeight="1" spans="1:7">
@@ -13967,16 +14153,16 @@
       <c r="B453" s="22"/>
       <c r="C453" s="23"/>
       <c r="D453" s="67" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E453" s="25" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="F453" s="25">
         <v>1</v>
       </c>
       <c r="G453" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="454" customHeight="1" spans="1:7">
@@ -13986,14 +14172,14 @@
       <c r="B454" s="22"/>
       <c r="C454" s="23"/>
       <c r="D454" s="69" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E454" s="25"/>
       <c r="F454" s="25">
         <v>1</v>
       </c>
       <c r="G454" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="455" customHeight="1" spans="1:7">
@@ -14003,16 +14189,16 @@
       <c r="B455" s="22"/>
       <c r="C455" s="23"/>
       <c r="D455" s="67" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E455" s="25" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F455" s="25">
         <v>1</v>
       </c>
       <c r="G455" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="456" customHeight="1" spans="1:7">
@@ -14022,16 +14208,16 @@
       <c r="B456" s="22"/>
       <c r="C456" s="23"/>
       <c r="D456" s="67" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E456" s="25" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="F456" s="25">
         <v>1</v>
       </c>
       <c r="G456" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="457" customHeight="1" spans="1:7">
@@ -14041,16 +14227,16 @@
       <c r="B457" s="22"/>
       <c r="C457" s="23"/>
       <c r="D457" s="67" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E457" s="25" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F457" s="25">
         <v>1</v>
       </c>
       <c r="G457" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="458" customHeight="1" spans="1:7">
@@ -14060,16 +14246,16 @@
       <c r="B458" s="22"/>
       <c r="C458" s="23"/>
       <c r="D458" s="67" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E458" s="25" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="F458" s="25">
         <v>1</v>
       </c>
       <c r="G458" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="459" customHeight="1" spans="1:7">
@@ -14079,16 +14265,16 @@
       <c r="B459" s="22"/>
       <c r="C459" s="23"/>
       <c r="D459" s="67" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E459" s="25" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F459" s="25">
         <v>1</v>
       </c>
       <c r="G459" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="460" customHeight="1" spans="1:7">
@@ -14098,16 +14284,16 @@
       <c r="B460" s="22"/>
       <c r="C460" s="23"/>
       <c r="D460" s="67" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E460" s="25" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F460" s="25">
         <v>1</v>
       </c>
       <c r="G460" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="461" customHeight="1" spans="1:7">
@@ -14117,16 +14303,16 @@
       <c r="B461" s="22"/>
       <c r="C461" s="23"/>
       <c r="D461" s="67" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E461" s="25" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="F461" s="25">
         <v>1</v>
       </c>
       <c r="G461" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="462" customHeight="1" spans="1:7">
@@ -14136,16 +14322,16 @@
       <c r="B462" s="22"/>
       <c r="C462" s="23"/>
       <c r="D462" s="67" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E462" s="25" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="F462" s="25">
         <v>1</v>
       </c>
       <c r="G462" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="463" customHeight="1" spans="1:7">
@@ -14155,14 +14341,14 @@
       <c r="B463" s="22"/>
       <c r="C463" s="23"/>
       <c r="D463" s="69" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="E463" s="25"/>
       <c r="F463" s="25">
         <v>1</v>
       </c>
       <c r="G463" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="464" customHeight="1" spans="1:7">
@@ -14172,16 +14358,16 @@
       <c r="B464" s="22"/>
       <c r="C464" s="23"/>
       <c r="D464" s="67" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E464" s="25" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="F464" s="25">
         <v>1</v>
       </c>
       <c r="G464" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="465" customHeight="1" spans="1:7">
@@ -14191,16 +14377,16 @@
       <c r="B465" s="22"/>
       <c r="C465" s="23"/>
       <c r="D465" s="67" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E465" s="25" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F465" s="25">
         <v>1</v>
       </c>
       <c r="G465" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="466" customHeight="1" spans="1:7">
@@ -14208,20 +14394,20 @@
         <v>465</v>
       </c>
       <c r="B466" s="22" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C466" s="23"/>
       <c r="D466" s="67" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E466" s="25" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F466" s="25">
         <v>1</v>
       </c>
       <c r="G466" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="467" customHeight="1" spans="1:7">
@@ -14231,16 +14417,16 @@
       <c r="B467" s="22"/>
       <c r="C467" s="23"/>
       <c r="D467" s="67" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="E467" s="25" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="F467" s="25">
         <v>1</v>
       </c>
       <c r="G467" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="468" customHeight="1" spans="1:7">
@@ -14250,16 +14436,16 @@
       <c r="B468" s="22"/>
       <c r="C468" s="23"/>
       <c r="D468" s="67" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E468" s="25" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F468" s="25">
         <v>1</v>
       </c>
       <c r="G468" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="469" customHeight="1" spans="1:7">
@@ -14269,16 +14455,16 @@
       <c r="B469" s="22"/>
       <c r="C469" s="23"/>
       <c r="D469" s="67" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E469" s="25" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="F469" s="25">
         <v>1</v>
       </c>
       <c r="G469" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="470" customHeight="1" spans="1:7">
@@ -14288,16 +14474,16 @@
       <c r="B470" s="22"/>
       <c r="C470" s="23"/>
       <c r="D470" s="67" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E470" s="25" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="F470" s="25">
         <v>1</v>
       </c>
       <c r="G470" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="471" customHeight="1" spans="1:7">
@@ -14307,16 +14493,16 @@
       <c r="B471" s="22"/>
       <c r="C471" s="23"/>
       <c r="D471" s="67" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E471" s="25" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F471" s="25">
         <v>1</v>
       </c>
       <c r="G471" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="472" customHeight="1" spans="1:7">
@@ -14326,16 +14512,16 @@
       <c r="B472" s="22"/>
       <c r="C472" s="23"/>
       <c r="D472" s="67" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E472" s="25" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F472" s="25">
         <v>1</v>
       </c>
       <c r="G472" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="473" customHeight="1" spans="1:7">
@@ -14345,16 +14531,16 @@
       <c r="B473" s="22"/>
       <c r="C473" s="23"/>
       <c r="D473" s="67" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E473" s="25" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F473" s="25">
         <v>1</v>
       </c>
       <c r="G473" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="474" customHeight="1" spans="1:7">
@@ -14364,14 +14550,14 @@
       <c r="B474" s="22"/>
       <c r="C474" s="23"/>
       <c r="D474" s="67" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E474" s="25"/>
       <c r="F474" s="25">
         <v>1</v>
       </c>
       <c r="G474" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="475" customHeight="1" spans="1:7">
@@ -14381,16 +14567,16 @@
       <c r="B475" s="22"/>
       <c r="C475" s="23"/>
       <c r="D475" s="67" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E475" s="25" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F475" s="25">
         <v>1</v>
       </c>
       <c r="G475" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="476" customHeight="1" spans="1:7">
@@ -14400,14 +14586,14 @@
       <c r="B476" s="22"/>
       <c r="C476" s="23"/>
       <c r="D476" s="67" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E476" s="25"/>
       <c r="F476" s="25">
         <v>1</v>
       </c>
       <c r="G476" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="477" customHeight="1" spans="1:7">
@@ -14417,16 +14603,16 @@
       <c r="B477" s="22"/>
       <c r="C477" s="23"/>
       <c r="D477" s="67" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E477" s="25" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="F477" s="25">
         <v>1</v>
       </c>
       <c r="G477" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="478" customHeight="1" spans="1:7">
@@ -14436,16 +14622,16 @@
       <c r="B478" s="22"/>
       <c r="C478" s="23"/>
       <c r="D478" s="67" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E478" s="25" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F478" s="25">
         <v>1</v>
       </c>
       <c r="G478" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="479" customHeight="1" spans="1:7">
@@ -14455,16 +14641,16 @@
       <c r="B479" s="22"/>
       <c r="C479" s="23"/>
       <c r="D479" s="67" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="E479" s="25" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="F479" s="25">
         <v>1</v>
       </c>
       <c r="G479" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="480" customHeight="1" spans="1:7">
@@ -14474,16 +14660,16 @@
       <c r="B480" s="22"/>
       <c r="C480" s="23"/>
       <c r="D480" s="67" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E480" s="25" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F480" s="25">
         <v>1</v>
       </c>
       <c r="G480" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="481" customHeight="1" spans="1:7">
@@ -14493,16 +14679,16 @@
       <c r="B481" s="22"/>
       <c r="C481" s="23"/>
       <c r="D481" s="67" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E481" s="25" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F481" s="25">
         <v>1</v>
       </c>
       <c r="G481" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="482" customHeight="1" spans="1:7">
@@ -14512,14 +14698,14 @@
       <c r="B482" s="22"/>
       <c r="C482" s="23"/>
       <c r="D482" s="67" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E482" s="25"/>
       <c r="F482" s="25">
         <v>1</v>
       </c>
       <c r="G482" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="483" customHeight="1" spans="1:7">
@@ -14529,14 +14715,14 @@
       <c r="B483" s="22"/>
       <c r="C483" s="23"/>
       <c r="D483" s="67" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E483" s="25"/>
       <c r="F483" s="25">
         <v>1</v>
       </c>
       <c r="G483" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="484" customHeight="1" spans="1:7">
@@ -14546,16 +14732,16 @@
       <c r="B484" s="22"/>
       <c r="C484" s="23"/>
       <c r="D484" s="67" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="E484" s="25" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F484" s="25">
         <v>1</v>
       </c>
       <c r="G484" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="485" customHeight="1" spans="1:7">
@@ -14565,16 +14751,16 @@
       <c r="B485" s="22"/>
       <c r="C485" s="23"/>
       <c r="D485" s="67" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E485" s="25" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F485" s="25">
         <v>1</v>
       </c>
       <c r="G485" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="486" customHeight="1" spans="1:7">
@@ -14584,16 +14770,16 @@
       <c r="B486" s="22"/>
       <c r="C486" s="23"/>
       <c r="D486" s="67" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E486" s="25" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="F486" s="25">
         <v>1</v>
       </c>
       <c r="G486" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:7">
@@ -14603,16 +14789,16 @@
       <c r="B487" s="22"/>
       <c r="C487" s="23"/>
       <c r="D487" s="67" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E487" s="25" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="F487" s="25">
         <v>1</v>
       </c>
       <c r="G487" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="488" customHeight="1" spans="1:7">
@@ -14622,16 +14808,16 @@
       <c r="B488" s="22"/>
       <c r="C488" s="23"/>
       <c r="D488" s="67" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E488" s="25" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F488" s="25">
         <v>1</v>
       </c>
       <c r="G488" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="489" customHeight="1" spans="1:7">
@@ -14641,16 +14827,16 @@
       <c r="B489" s="22"/>
       <c r="C489" s="23"/>
       <c r="D489" s="67" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E489" s="25" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="F489" s="25">
         <v>1</v>
       </c>
       <c r="G489" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="490" customHeight="1" spans="1:7">
@@ -14660,16 +14846,16 @@
       <c r="B490" s="22"/>
       <c r="C490" s="23"/>
       <c r="D490" s="67" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E490" s="25" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F490" s="25">
         <v>1</v>
       </c>
       <c r="G490" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="491" customHeight="1" spans="1:7">
@@ -14679,16 +14865,16 @@
       <c r="B491" s="22"/>
       <c r="C491" s="23"/>
       <c r="D491" s="67" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="E491" s="25" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="F491" s="25">
         <v>1</v>
       </c>
       <c r="G491" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="492" customHeight="1" spans="1:7">
@@ -14698,14 +14884,14 @@
       <c r="B492" s="22"/>
       <c r="C492" s="23"/>
       <c r="D492" s="69" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E492" s="25"/>
       <c r="F492" s="25">
         <v>1</v>
       </c>
       <c r="G492" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="493" customHeight="1" spans="1:7">
@@ -14715,14 +14901,14 @@
       <c r="B493" s="22"/>
       <c r="C493" s="23"/>
       <c r="D493" s="69" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E493" s="25"/>
       <c r="F493" s="25">
         <v>1</v>
       </c>
       <c r="G493" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="494" customHeight="1" spans="1:7">
@@ -14732,14 +14918,14 @@
       <c r="B494" s="22"/>
       <c r="C494" s="23"/>
       <c r="D494" s="69" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="E494" s="25"/>
       <c r="F494" s="25">
         <v>1</v>
       </c>
       <c r="G494" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="495" customHeight="1" spans="1:7">
@@ -14749,14 +14935,14 @@
       <c r="B495" s="22"/>
       <c r="C495" s="23"/>
       <c r="D495" s="69" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E495" s="25"/>
       <c r="F495" s="25">
         <v>1</v>
       </c>
       <c r="G495" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="496" customHeight="1" spans="1:7">
@@ -14766,16 +14952,16 @@
       <c r="B496" s="22"/>
       <c r="C496" s="23"/>
       <c r="D496" s="67" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E496" s="25" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="F496" s="25">
         <v>1</v>
       </c>
       <c r="G496" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="497" customHeight="1" spans="1:7">
@@ -14785,16 +14971,16 @@
       <c r="B497" s="22"/>
       <c r="C497" s="23"/>
       <c r="D497" s="67" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E497" s="25" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="F497" s="25">
         <v>1</v>
       </c>
       <c r="G497" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="498" customHeight="1" spans="1:7">
@@ -14804,16 +14990,16 @@
       <c r="B498" s="22"/>
       <c r="C498" s="23"/>
       <c r="D498" s="69" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="E498" s="25" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="F498" s="25">
         <v>1</v>
       </c>
       <c r="G498" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="499" customHeight="1" spans="1:7">
@@ -14823,16 +15009,16 @@
       <c r="B499" s="22"/>
       <c r="C499" s="23"/>
       <c r="D499" s="67" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E499" s="25" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="F499" s="25">
         <v>1</v>
       </c>
       <c r="G499" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="500" customHeight="1" spans="1:7">
@@ -14842,16 +15028,16 @@
       <c r="B500" s="22"/>
       <c r="C500" s="23"/>
       <c r="D500" s="67" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E500" s="25" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="F500" s="25">
         <v>1</v>
       </c>
       <c r="G500" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="501" customHeight="1" spans="1:7">
@@ -14861,16 +15047,16 @@
       <c r="B501" s="22"/>
       <c r="C501" s="23"/>
       <c r="D501" s="67" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E501" s="25" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="F501" s="25">
         <v>1</v>
       </c>
       <c r="G501" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="502" customHeight="1" spans="1:7">
@@ -14880,16 +15066,16 @@
       <c r="B502" s="22"/>
       <c r="C502" s="23"/>
       <c r="D502" s="67" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E502" s="25" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="F502" s="25">
         <v>1</v>
       </c>
       <c r="G502" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="503" customHeight="1" spans="1:7">
@@ -14899,16 +15085,16 @@
       <c r="B503" s="22"/>
       <c r="C503" s="23"/>
       <c r="D503" s="67" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E503" s="25" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="F503" s="25">
         <v>1</v>
       </c>
       <c r="G503" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="504" customHeight="1" spans="1:7">
@@ -14918,16 +15104,16 @@
       <c r="B504" s="22"/>
       <c r="C504" s="23"/>
       <c r="D504" s="67" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E504" s="25" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="F504" s="25">
         <v>1</v>
       </c>
       <c r="G504" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="505" customHeight="1" spans="1:7">
@@ -14937,16 +15123,16 @@
       <c r="B505" s="22"/>
       <c r="C505" s="23"/>
       <c r="D505" s="67" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="E505" s="25" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="F505" s="25">
         <v>1</v>
       </c>
       <c r="G505" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="506" customHeight="1" spans="1:7">
@@ -14956,16 +15142,16 @@
       <c r="B506" s="22"/>
       <c r="C506" s="23"/>
       <c r="D506" s="67" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="E506" s="25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="F506" s="25">
         <v>1</v>
       </c>
       <c r="G506" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="507" customHeight="1" spans="1:7">
@@ -14975,16 +15161,16 @@
       <c r="B507" s="22"/>
       <c r="C507" s="23"/>
       <c r="D507" s="67" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="E507" s="25" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="F507" s="25">
         <v>1</v>
       </c>
       <c r="G507" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="508" customHeight="1" spans="1:7">
@@ -14994,16 +15180,16 @@
       <c r="B508" s="22"/>
       <c r="C508" s="23"/>
       <c r="D508" s="67" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E508" s="25" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F508" s="25">
         <v>1</v>
       </c>
       <c r="G508" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="509" customHeight="1" spans="1:7">
@@ -15013,16 +15199,16 @@
       <c r="B509" s="22"/>
       <c r="C509" s="23"/>
       <c r="D509" s="67" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E509" s="25" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F509" s="25">
         <v>1</v>
       </c>
       <c r="G509" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="510" customHeight="1" spans="1:7">
@@ -15030,20 +15216,20 @@
         <v>509</v>
       </c>
       <c r="B510" s="22" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C510" s="23"/>
       <c r="D510" s="67" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E510" s="25" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F510" s="25">
         <v>1</v>
       </c>
       <c r="G510" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="511" customHeight="1" spans="1:7">
@@ -15051,20 +15237,20 @@
         <v>510</v>
       </c>
       <c r="B511" s="22" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="C511" s="23"/>
       <c r="D511" s="67" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E511" s="25" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="F511" s="25">
         <v>1</v>
       </c>
       <c r="G511" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="512" customHeight="1" spans="1:7">
@@ -15074,16 +15260,16 @@
       <c r="B512" s="22"/>
       <c r="C512" s="23"/>
       <c r="D512" s="67" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E512" s="25" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="F512" s="25">
         <v>1</v>
       </c>
       <c r="G512" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="513" customHeight="1" spans="1:7">
@@ -15093,16 +15279,16 @@
       <c r="B513" s="22"/>
       <c r="C513" s="23"/>
       <c r="D513" s="67" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E513" s="25" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F513" s="25">
         <v>1</v>
       </c>
       <c r="G513" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="514" customHeight="1" spans="1:7">
@@ -15112,16 +15298,16 @@
       <c r="B514" s="22"/>
       <c r="C514" s="23"/>
       <c r="D514" s="67" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E514" s="25" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="F514" s="25">
         <v>1</v>
       </c>
       <c r="G514" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="515" customHeight="1" spans="1:7">
@@ -15131,16 +15317,16 @@
       <c r="B515" s="22"/>
       <c r="C515" s="23"/>
       <c r="D515" s="67" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E515" s="25" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F515" s="25">
         <v>1</v>
       </c>
       <c r="G515" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="516" customHeight="1" spans="1:7">
@@ -15150,16 +15336,16 @@
       <c r="B516" s="22"/>
       <c r="C516" s="23"/>
       <c r="D516" s="67" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E516" s="25" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="F516" s="25">
         <v>1</v>
       </c>
       <c r="G516" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="517" customHeight="1" spans="1:7">
@@ -15169,16 +15355,16 @@
       <c r="B517" s="22"/>
       <c r="C517" s="23"/>
       <c r="D517" s="67" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="E517" s="25" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="F517" s="25">
         <v>1</v>
       </c>
       <c r="G517" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="518" customHeight="1" spans="1:7">
@@ -15188,16 +15374,16 @@
       <c r="B518" s="22"/>
       <c r="C518" s="23"/>
       <c r="D518" s="67" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E518" s="25" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F518" s="25">
         <v>1</v>
       </c>
       <c r="G518" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="519" customHeight="1" spans="1:7">
@@ -15207,16 +15393,16 @@
       <c r="B519" s="22"/>
       <c r="C519" s="23"/>
       <c r="D519" s="67" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="E519" s="25" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="F519" s="25">
         <v>1</v>
       </c>
       <c r="G519" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="520" customHeight="1" spans="1:7">
@@ -15226,16 +15412,16 @@
       <c r="B520" s="22"/>
       <c r="C520" s="23"/>
       <c r="D520" s="67" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E520" s="25" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="F520" s="25">
         <v>1</v>
       </c>
       <c r="G520" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="521" customHeight="1" spans="1:7">
@@ -15245,16 +15431,16 @@
       <c r="B521" s="22"/>
       <c r="C521" s="23"/>
       <c r="D521" s="67" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E521" s="25" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F521" s="25">
         <v>1</v>
       </c>
       <c r="G521" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="522" customHeight="1" spans="1:7">
@@ -15264,16 +15450,16 @@
       <c r="B522" s="22"/>
       <c r="C522" s="23"/>
       <c r="D522" s="67" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E522" s="25" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="F522" s="25">
         <v>1</v>
       </c>
       <c r="G522" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="523" customHeight="1" spans="1:7">
@@ -15283,16 +15469,16 @@
       <c r="B523" s="22"/>
       <c r="C523" s="23"/>
       <c r="D523" s="67" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E523" s="25" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F523" s="25">
         <v>1</v>
       </c>
       <c r="G523" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="524" customHeight="1" spans="1:7">
@@ -15302,14 +15488,14 @@
       <c r="B524" s="22"/>
       <c r="C524" s="23"/>
       <c r="D524" s="69" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E524" s="25"/>
       <c r="F524" s="25">
         <v>1</v>
       </c>
       <c r="G524" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="525" customHeight="1" spans="1:7">
@@ -15319,14 +15505,14 @@
       <c r="B525" s="22"/>
       <c r="C525" s="23"/>
       <c r="D525" s="69" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E525" s="25"/>
       <c r="F525" s="25">
         <v>1</v>
       </c>
       <c r="G525" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="526" customHeight="1" spans="1:7">
@@ -15336,14 +15522,14 @@
       <c r="B526" s="22"/>
       <c r="C526" s="23"/>
       <c r="D526" s="69" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E526" s="25"/>
       <c r="F526" s="25">
         <v>1</v>
       </c>
       <c r="G526" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="527" customHeight="1" spans="1:7">
@@ -15353,16 +15539,16 @@
       <c r="B527" s="22"/>
       <c r="C527" s="23"/>
       <c r="D527" s="67" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E527" s="25" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F527" s="25">
         <v>1</v>
       </c>
       <c r="G527" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="528" customHeight="1" spans="1:7">
@@ -15372,16 +15558,16 @@
       <c r="B528" s="22"/>
       <c r="C528" s="23"/>
       <c r="D528" s="67" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E528" s="25" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="F528" s="25">
         <v>1</v>
       </c>
       <c r="G528" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="529" customHeight="1" spans="1:7">
@@ -15391,16 +15577,16 @@
       <c r="B529" s="22"/>
       <c r="C529" s="23"/>
       <c r="D529" s="69" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="E529" s="25" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="F529" s="25">
         <v>1</v>
       </c>
       <c r="G529" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="530" customHeight="1" spans="1:7">
@@ -15410,14 +15596,14 @@
       <c r="B530" s="22"/>
       <c r="C530" s="23"/>
       <c r="D530" s="69" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E530" s="25"/>
       <c r="F530" s="25">
         <v>1</v>
       </c>
       <c r="G530" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="531" customHeight="1" spans="1:7">
@@ -15427,14 +15613,14 @@
       <c r="B531" s="22"/>
       <c r="C531" s="23"/>
       <c r="D531" s="69" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E531" s="25"/>
       <c r="F531" s="25">
         <v>1</v>
       </c>
       <c r="G531" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="532" customHeight="1" spans="1:7">
@@ -15444,16 +15630,16 @@
       <c r="B532" s="22"/>
       <c r="C532" s="23"/>
       <c r="D532" s="67" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E532" s="25" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="F532" s="25">
         <v>1</v>
       </c>
       <c r="G532" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="533" customHeight="1" spans="1:7">
@@ -15463,14 +15649,14 @@
       <c r="B533" s="22"/>
       <c r="C533" s="23"/>
       <c r="D533" s="69" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="E533" s="25"/>
       <c r="F533" s="25">
         <v>1</v>
       </c>
       <c r="G533" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="534" customHeight="1" spans="1:7">
@@ -15480,16 +15666,16 @@
       <c r="B534" s="22"/>
       <c r="C534" s="23"/>
       <c r="D534" s="67" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E534" s="25" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F534" s="25">
         <v>1</v>
       </c>
       <c r="G534" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="535" customHeight="1" spans="1:7">
@@ -15499,14 +15685,14 @@
       <c r="B535" s="22"/>
       <c r="C535" s="23"/>
       <c r="D535" s="67" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E535" s="25"/>
       <c r="F535" s="25">
         <v>1</v>
       </c>
       <c r="G535" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="536" customHeight="1" spans="1:7">
@@ -15516,16 +15702,16 @@
       <c r="B536" s="22"/>
       <c r="C536" s="23"/>
       <c r="D536" s="67" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E536" s="25" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="F536" s="25">
         <v>1</v>
       </c>
       <c r="G536" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="537" customHeight="1" spans="1:7">
@@ -15535,16 +15721,16 @@
       <c r="B537" s="22"/>
       <c r="C537" s="23"/>
       <c r="D537" s="67" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E537" s="25" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F537" s="25">
         <v>1</v>
       </c>
       <c r="G537" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="538" customHeight="1" spans="1:7">
@@ -15554,14 +15740,14 @@
       <c r="B538" s="22"/>
       <c r="C538" s="23"/>
       <c r="D538" s="69" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E538" s="25"/>
       <c r="F538" s="25">
         <v>1</v>
       </c>
       <c r="G538" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="539" customHeight="1" spans="1:7">
@@ -15571,14 +15757,14 @@
       <c r="B539" s="22"/>
       <c r="C539" s="23"/>
       <c r="D539" s="69" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E539" s="25"/>
       <c r="F539" s="25">
         <v>1</v>
       </c>
       <c r="G539" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="540" customHeight="1" spans="1:7">
@@ -15588,14 +15774,14 @@
       <c r="B540" s="22"/>
       <c r="C540" s="23"/>
       <c r="D540" s="69" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E540" s="25"/>
       <c r="F540" s="25">
         <v>1</v>
       </c>
       <c r="G540" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="541" customHeight="1" spans="1:7">
@@ -15605,16 +15791,16 @@
       <c r="B541" s="22"/>
       <c r="C541" s="23"/>
       <c r="D541" s="67" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="E541" s="25" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="F541" s="25">
         <v>1</v>
       </c>
       <c r="G541" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="542" customHeight="1" spans="1:7">
@@ -15624,16 +15810,16 @@
       <c r="B542" s="22"/>
       <c r="C542" s="23"/>
       <c r="D542" s="67" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E542" s="25" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F542" s="25">
         <v>1</v>
       </c>
       <c r="G542" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="543" customHeight="1" spans="1:7">
@@ -15643,16 +15829,16 @@
       <c r="B543" s="22"/>
       <c r="C543" s="23"/>
       <c r="D543" s="67" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="E543" s="25" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F543" s="25">
         <v>1</v>
       </c>
       <c r="G543" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="544" customHeight="1" spans="1:7">
@@ -15662,14 +15848,14 @@
       <c r="B544" s="22"/>
       <c r="C544" s="23"/>
       <c r="D544" s="67" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E544" s="25"/>
       <c r="F544" s="25">
         <v>1</v>
       </c>
       <c r="G544" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="545" customHeight="1" spans="1:7">
@@ -15679,14 +15865,14 @@
       <c r="B545" s="22"/>
       <c r="C545" s="23"/>
       <c r="D545" s="67" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E545" s="25"/>
       <c r="F545" s="25">
         <v>1</v>
       </c>
       <c r="G545" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="546" customHeight="1" spans="1:7">
@@ -15696,16 +15882,16 @@
       <c r="B546" s="22"/>
       <c r="C546" s="23"/>
       <c r="D546" s="67" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E546" s="25" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F546" s="25">
         <v>1</v>
       </c>
       <c r="G546" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="547" customHeight="1" spans="1:7">
@@ -15715,14 +15901,14 @@
       <c r="B547" s="22"/>
       <c r="C547" s="23"/>
       <c r="D547" s="69" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E547" s="25"/>
       <c r="F547" s="25">
         <v>1</v>
       </c>
       <c r="G547" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="548" customHeight="1" spans="1:7">
@@ -15732,14 +15918,14 @@
       <c r="B548" s="22"/>
       <c r="C548" s="23"/>
       <c r="D548" s="69" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E548" s="25"/>
       <c r="F548" s="25">
         <v>1</v>
       </c>
       <c r="G548" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="549" customHeight="1" spans="1:7">
@@ -15749,16 +15935,16 @@
       <c r="B549" s="22"/>
       <c r="C549" s="23"/>
       <c r="D549" s="67" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E549" s="25" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F549" s="25">
         <v>1</v>
       </c>
       <c r="G549" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="550" customHeight="1" spans="1:7">
@@ -15768,16 +15954,16 @@
       <c r="B550" s="22"/>
       <c r="C550" s="23"/>
       <c r="D550" s="67" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E550" s="72" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F550" s="25">
         <v>1</v>
       </c>
       <c r="G550" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="551" customHeight="1" spans="1:7">
@@ -15787,16 +15973,16 @@
       <c r="B551" s="22"/>
       <c r="C551" s="23"/>
       <c r="D551" s="67" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E551" s="25" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="F551" s="25">
         <v>1</v>
       </c>
       <c r="G551" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="552" customHeight="1" spans="1:7">
@@ -15806,16 +15992,16 @@
       <c r="B552" s="22"/>
       <c r="C552" s="23"/>
       <c r="D552" s="67" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E552" s="25" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="F552" s="25">
         <v>1</v>
       </c>
       <c r="G552" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="553" customHeight="1" spans="1:7">
@@ -15825,16 +16011,16 @@
       <c r="B553" s="22"/>
       <c r="C553" s="23"/>
       <c r="D553" s="67" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E553" s="25" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F553" s="25">
         <v>1</v>
       </c>
       <c r="G553" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="554" customHeight="1" spans="1:7">
@@ -15844,16 +16030,16 @@
       <c r="B554" s="22"/>
       <c r="C554" s="23"/>
       <c r="D554" s="67" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="E554" s="25" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="F554" s="25">
         <v>1</v>
       </c>
       <c r="G554" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="555" customHeight="1" spans="1:7">
@@ -15863,16 +16049,16 @@
       <c r="B555" s="22"/>
       <c r="C555" s="23"/>
       <c r="D555" s="67" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E555" s="25" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="F555" s="25">
         <v>1</v>
       </c>
       <c r="G555" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="556" customHeight="1" spans="1:7">
@@ -15882,16 +16068,16 @@
       <c r="B556" s="22"/>
       <c r="C556" s="23"/>
       <c r="D556" s="67" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="E556" s="25" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F556" s="25">
         <v>1</v>
       </c>
       <c r="G556" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="557" customHeight="1" spans="1:7">
@@ -15901,14 +16087,14 @@
       <c r="B557" s="22"/>
       <c r="C557" s="23"/>
       <c r="D557" s="69" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E557" s="25"/>
       <c r="F557" s="25">
         <v>1</v>
       </c>
       <c r="G557" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="558" customHeight="1" spans="1:7">
@@ -15918,16 +16104,16 @@
       <c r="B558" s="22"/>
       <c r="C558" s="23"/>
       <c r="D558" s="67" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E558" s="25" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F558" s="25">
         <v>1</v>
       </c>
       <c r="G558" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="559" customHeight="1" spans="1:7">
@@ -15937,16 +16123,16 @@
       <c r="B559" s="22"/>
       <c r="C559" s="23"/>
       <c r="D559" s="67" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E559" s="25" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="F559" s="25">
         <v>1</v>
       </c>
       <c r="G559" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="560" customHeight="1" spans="1:7">
@@ -15956,16 +16142,16 @@
       <c r="B560" s="22"/>
       <c r="C560" s="23"/>
       <c r="D560" s="67" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E560" s="25" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F560" s="25">
         <v>1</v>
       </c>
       <c r="G560" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="561" customHeight="1" spans="1:7">
@@ -15975,16 +16161,16 @@
       <c r="B561" s="22"/>
       <c r="C561" s="23"/>
       <c r="D561" s="67" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E561" s="25" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F561" s="25">
         <v>1</v>
       </c>
       <c r="G561" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="562" customHeight="1" spans="1:7">
@@ -15994,16 +16180,16 @@
       <c r="B562" s="22"/>
       <c r="C562" s="23"/>
       <c r="D562" s="67" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E562" s="25" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="F562" s="25">
         <v>1</v>
       </c>
       <c r="G562" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="563" customHeight="1" spans="1:7">
@@ -16013,16 +16199,16 @@
       <c r="B563" s="22"/>
       <c r="C563" s="23"/>
       <c r="D563" s="67" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E563" s="67" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="F563" s="25">
         <v>1</v>
       </c>
       <c r="G563" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="564" customHeight="1" spans="1:7">
@@ -16032,16 +16218,16 @@
       <c r="B564" s="22"/>
       <c r="C564" s="23"/>
       <c r="D564" s="67" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E564" s="67" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F564" s="25">
         <v>1</v>
       </c>
       <c r="G564" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="565" customHeight="1" spans="1:7">
@@ -16051,16 +16237,16 @@
       <c r="B565" s="22"/>
       <c r="C565" s="23"/>
       <c r="D565" s="67" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E565" s="67" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="F565" s="25">
         <v>1</v>
       </c>
       <c r="G565" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="566" customHeight="1" spans="1:7">
@@ -16070,16 +16256,16 @@
       <c r="B566" s="22"/>
       <c r="C566" s="23"/>
       <c r="D566" s="67" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E566" s="67" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F566" s="25">
         <v>1</v>
       </c>
       <c r="G566" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="567" customHeight="1" spans="1:7">
@@ -16089,16 +16275,16 @@
       <c r="B567" s="22"/>
       <c r="C567" s="23"/>
       <c r="D567" s="67" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E567" s="67" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="F567" s="25">
         <v>1</v>
       </c>
       <c r="G567" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="568" customHeight="1" spans="1:7">
@@ -16108,16 +16294,16 @@
       <c r="B568" s="22"/>
       <c r="C568" s="23"/>
       <c r="D568" s="67" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E568" s="67" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F568" s="25">
         <v>1</v>
       </c>
       <c r="G568" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="569" customHeight="1" spans="1:7">
@@ -16127,14 +16313,14 @@
       <c r="B569" s="22"/>
       <c r="C569" s="23"/>
       <c r="D569" s="67" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E569" s="67"/>
       <c r="F569" s="25">
         <v>1</v>
       </c>
       <c r="G569" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="570" customHeight="1" spans="1:7">
@@ -16144,14 +16330,14 @@
       <c r="B570" s="22"/>
       <c r="C570" s="23"/>
       <c r="D570" s="67" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="E570" s="67"/>
       <c r="F570" s="25">
         <v>1</v>
       </c>
       <c r="G570" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="571" customHeight="1" spans="1:7">
@@ -16161,14 +16347,14 @@
       <c r="B571" s="73"/>
       <c r="C571" s="67"/>
       <c r="D571" s="67" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E571" s="67"/>
       <c r="F571" s="25">
         <v>1</v>
       </c>
       <c r="G571" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="572" customHeight="1" spans="1:7">
@@ -16178,14 +16364,14 @@
       <c r="B572" s="73"/>
       <c r="C572" s="67"/>
       <c r="D572" s="67" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E572" s="67"/>
       <c r="F572" s="25">
         <v>1</v>
       </c>
       <c r="G572" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="573" customHeight="1" spans="1:7">
@@ -16195,14 +16381,14 @@
       <c r="B573" s="73"/>
       <c r="C573" s="67"/>
       <c r="D573" s="67" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E573" s="67"/>
       <c r="F573" s="25">
         <v>1</v>
       </c>
       <c r="G573" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="574" customHeight="1" spans="1:7">
@@ -16212,14 +16398,14 @@
       <c r="B574" s="73"/>
       <c r="C574" s="67"/>
       <c r="D574" s="67" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="E574" s="67"/>
       <c r="F574" s="25">
         <v>1</v>
       </c>
       <c r="G574" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="575" customHeight="1" spans="1:7">
@@ -16229,14 +16415,14 @@
       <c r="B575" s="73"/>
       <c r="C575" s="67"/>
       <c r="D575" s="67" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E575" s="67"/>
       <c r="F575" s="25">
         <v>1</v>
       </c>
       <c r="G575" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="576" customHeight="1" spans="1:7">
@@ -16246,14 +16432,14 @@
       <c r="B576" s="73"/>
       <c r="C576" s="67"/>
       <c r="D576" s="67" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E576" s="67"/>
       <c r="F576" s="25">
         <v>1</v>
       </c>
       <c r="G576" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="577" customHeight="1" spans="1:7">
@@ -16263,14 +16449,14 @@
       <c r="B577" s="73"/>
       <c r="C577" s="67"/>
       <c r="D577" s="67" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E577" s="67"/>
       <c r="F577" s="25">
         <v>1</v>
       </c>
       <c r="G577" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="578" customHeight="1" spans="1:7">
@@ -16280,16 +16466,16 @@
       <c r="B578" s="73"/>
       <c r="C578" s="67"/>
       <c r="D578" s="67" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="E578" s="67" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="F578" s="25">
         <v>1</v>
       </c>
       <c r="G578" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="579" customHeight="1" spans="1:7">
@@ -16299,16 +16485,16 @@
       <c r="B579" s="73"/>
       <c r="C579" s="67"/>
       <c r="D579" s="67" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E579" s="67" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="F579" s="25">
         <v>1</v>
       </c>
       <c r="G579" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="580" customHeight="1" spans="1:7">
@@ -16318,16 +16504,16 @@
       <c r="B580" s="73"/>
       <c r="C580" s="67"/>
       <c r="D580" s="67" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E580" s="67" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="F580" s="25">
         <v>1</v>
       </c>
       <c r="G580" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="581" customHeight="1" spans="1:7">
@@ -16337,16 +16523,16 @@
       <c r="B581" s="73"/>
       <c r="C581" s="67"/>
       <c r="D581" s="67" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E581" s="67" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F581" s="25">
         <v>1</v>
       </c>
       <c r="G581" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="582" customHeight="1" spans="1:7">
@@ -16356,16 +16542,16 @@
       <c r="B582" s="73"/>
       <c r="C582" s="67"/>
       <c r="D582" s="67" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="E582" s="67" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="F582" s="25">
         <v>1</v>
       </c>
       <c r="G582" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="583" customHeight="1" spans="1:7">
@@ -16375,16 +16561,16 @@
       <c r="B583" s="73"/>
       <c r="C583" s="67"/>
       <c r="D583" s="67" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="E583" s="67" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="F583" s="25">
         <v>1</v>
       </c>
       <c r="G583" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="584" customHeight="1" spans="1:7">
@@ -16394,16 +16580,16 @@
       <c r="B584" s="73"/>
       <c r="C584" s="67"/>
       <c r="D584" s="67" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E584" s="67" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="F584" s="25">
         <v>1</v>
       </c>
       <c r="G584" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="585" customHeight="1" spans="1:7">
@@ -16413,16 +16599,16 @@
       <c r="B585" s="73"/>
       <c r="C585" s="67"/>
       <c r="D585" s="67" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E585" s="67" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="F585" s="25">
         <v>1</v>
       </c>
       <c r="G585" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="586" customHeight="1" spans="1:7">
@@ -16432,14 +16618,14 @@
       <c r="B586" s="73"/>
       <c r="C586" s="67"/>
       <c r="D586" s="67" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E586" s="67"/>
       <c r="F586" s="25">
         <v>1</v>
       </c>
       <c r="G586" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="587" customHeight="1" spans="1:7">
@@ -16449,14 +16635,14 @@
       <c r="B587" s="73"/>
       <c r="C587" s="67"/>
       <c r="D587" s="67" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E587" s="67"/>
       <c r="F587" s="25">
         <v>1</v>
       </c>
       <c r="G587" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="588" customHeight="1" spans="1:7">
@@ -16466,14 +16652,14 @@
       <c r="B588" s="73"/>
       <c r="C588" s="67"/>
       <c r="D588" s="67" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E588" s="67"/>
       <c r="F588" s="25">
         <v>1</v>
       </c>
       <c r="G588" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:7">
@@ -16483,14 +16669,14 @@
       <c r="B589" s="73"/>
       <c r="C589" s="67"/>
       <c r="D589" s="67" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E589" s="67"/>
       <c r="F589" s="25">
         <v>1</v>
       </c>
       <c r="G589" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="590" customHeight="1" spans="1:7">
@@ -16500,14 +16686,14 @@
       <c r="B590" s="73"/>
       <c r="C590" s="67"/>
       <c r="D590" s="67" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E590" s="67"/>
       <c r="F590" s="25">
         <v>1</v>
       </c>
       <c r="G590" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="591" customHeight="1" spans="1:7">
@@ -16517,14 +16703,14 @@
       <c r="B591" s="73"/>
       <c r="C591" s="67"/>
       <c r="D591" s="67" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E591" s="67"/>
       <c r="F591" s="25">
         <v>1</v>
       </c>
       <c r="G591" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="592" customHeight="1" spans="1:7">
@@ -16534,14 +16720,14 @@
       <c r="B592" s="73"/>
       <c r="C592" s="67"/>
       <c r="D592" s="67" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E592" s="67"/>
       <c r="F592" s="25">
         <v>1</v>
       </c>
       <c r="G592" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="593" customHeight="1" spans="1:7">
@@ -16551,14 +16737,14 @@
       <c r="B593" s="73"/>
       <c r="C593" s="67"/>
       <c r="D593" s="67" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E593" s="67"/>
       <c r="F593" s="25">
         <v>1</v>
       </c>
       <c r="G593" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="594" customHeight="1" spans="1:7">
@@ -16568,14 +16754,14 @@
       <c r="B594" s="73"/>
       <c r="C594" s="67"/>
       <c r="D594" s="67" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E594" s="67"/>
       <c r="F594" s="25">
         <v>1</v>
       </c>
       <c r="G594" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="595" customHeight="1" spans="1:7">
@@ -16585,14 +16771,14 @@
       <c r="B595" s="73"/>
       <c r="C595" s="67"/>
       <c r="D595" s="67" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E595" s="67"/>
       <c r="F595" s="25">
         <v>1</v>
       </c>
       <c r="G595" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="596" customHeight="1" spans="1:7">
@@ -16602,14 +16788,14 @@
       <c r="B596" s="73"/>
       <c r="C596" s="67"/>
       <c r="D596" s="67" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="E596" s="67"/>
       <c r="F596" s="25">
         <v>1</v>
       </c>
       <c r="G596" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="597" customHeight="1" spans="1:7">
@@ -16619,14 +16805,14 @@
       <c r="B597" s="73"/>
       <c r="C597" s="67"/>
       <c r="D597" s="67" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E597" s="67"/>
       <c r="F597" s="25">
         <v>1</v>
       </c>
       <c r="G597" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="598" customHeight="1" spans="1:7">
@@ -16636,14 +16822,14 @@
       <c r="B598" s="73"/>
       <c r="C598" s="67"/>
       <c r="D598" s="67" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E598" s="67"/>
       <c r="F598" s="25">
         <v>1</v>
       </c>
       <c r="G598" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="599" customHeight="1" spans="1:7">
@@ -16653,14 +16839,14 @@
       <c r="B599" s="73"/>
       <c r="C599" s="67"/>
       <c r="D599" s="67" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E599" s="67"/>
       <c r="F599" s="25">
         <v>1</v>
       </c>
       <c r="G599" s="25" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="600" customHeight="1" spans="1:7">
@@ -16669,10 +16855,16 @@
       </c>
       <c r="B600" s="73"/>
       <c r="C600" s="67"/>
-      <c r="D600" s="67"/>
+      <c r="D600" s="67" t="s">
+        <v>910</v>
+      </c>
       <c r="E600" s="67"/>
-      <c r="F600" s="67"/>
-      <c r="G600" s="67"/>
+      <c r="F600" s="25">
+        <v>1</v>
+      </c>
+      <c r="G600" s="25" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="601" customHeight="1" spans="1:7">
       <c r="A601" s="21">
@@ -16681,10 +16873,10 @@
       <c r="B601" s="73"/>
       <c r="C601" s="67"/>
       <c r="D601" s="67" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E601" s="67" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F601" s="67">
         <v>20</v>
@@ -16700,10 +16892,10 @@
       <c r="B602" s="73"/>
       <c r="C602" s="67"/>
       <c r="D602" s="67" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E602" s="67" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="F602" s="67">
         <v>20</v>
@@ -16719,10 +16911,10 @@
       <c r="B603" s="73"/>
       <c r="C603" s="67"/>
       <c r="D603" s="67" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E603" s="67" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="F603" s="67">
         <v>20</v>
@@ -16738,10 +16930,10 @@
       <c r="B604" s="73"/>
       <c r="C604" s="67"/>
       <c r="D604" s="67" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E604" s="67" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="F604" s="67">
         <v>20</v>
@@ -16757,10 +16949,10 @@
       <c r="B605" s="73"/>
       <c r="C605" s="67"/>
       <c r="D605" s="67" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="E605" s="67" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="F605" s="67">
         <v>20</v>
@@ -16776,10 +16968,10 @@
       <c r="B606" s="73"/>
       <c r="C606" s="67"/>
       <c r="D606" s="67" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="E606" s="67" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="F606" s="67">
         <v>20</v>
@@ -16795,10 +16987,10 @@
       <c r="B607" s="73"/>
       <c r="C607" s="67"/>
       <c r="D607" s="67" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="E607" s="67" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F607" s="67">
         <v>20</v>
@@ -16814,10 +17006,10 @@
       <c r="B608" s="73"/>
       <c r="C608" s="67"/>
       <c r="D608" s="67" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E608" s="67" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F608" s="67">
         <v>20</v>
@@ -16833,7 +17025,7 @@
       <c r="B609" s="73"/>
       <c r="C609" s="67"/>
       <c r="D609" s="67" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E609" s="67"/>
       <c r="F609" s="67">
@@ -16850,10 +17042,10 @@
       <c r="B610" s="73"/>
       <c r="C610" s="67"/>
       <c r="D610" s="67" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E610" s="67" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F610" s="67">
         <v>20</v>
@@ -16869,10 +17061,10 @@
       <c r="B611" s="73"/>
       <c r="C611" s="67"/>
       <c r="D611" s="67" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E611" s="67" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="F611" s="67">
         <v>20</v>
@@ -16888,10 +17080,10 @@
       <c r="B612" s="73"/>
       <c r="C612" s="67"/>
       <c r="D612" s="67" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E612" s="67" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="F612" s="67">
         <v>20</v>
@@ -16907,10 +17099,10 @@
       <c r="B613" s="73"/>
       <c r="C613" s="67"/>
       <c r="D613" s="67" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E613" s="67" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="F613" s="67">
         <v>20</v>
@@ -16926,7 +17118,7 @@
       <c r="B614" s="73"/>
       <c r="C614" s="67"/>
       <c r="D614" s="67" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E614" s="67"/>
       <c r="F614" s="67">
@@ -16943,10 +17135,10 @@
       <c r="B615" s="73"/>
       <c r="C615" s="67"/>
       <c r="D615" s="67" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E615" s="67" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="F615" s="67">
         <v>20</v>
@@ -16962,10 +17154,10 @@
       <c r="B616" s="73"/>
       <c r="C616" s="67"/>
       <c r="D616" s="67" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E616" s="67" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F616" s="67">
         <v>20</v>
@@ -16981,10 +17173,10 @@
       <c r="B617" s="73"/>
       <c r="C617" s="67"/>
       <c r="D617" s="67" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E617" s="67" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="F617" s="67">
         <v>20</v>
@@ -17000,10 +17192,10 @@
       <c r="B618" s="73"/>
       <c r="C618" s="67"/>
       <c r="D618" s="67" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E618" s="67" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="F618" s="67">
         <v>20</v>
@@ -17019,7 +17211,7 @@
       <c r="B619" s="73"/>
       <c r="C619" s="67"/>
       <c r="D619" s="67" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E619" s="67" t="s">
         <v>315</v>
@@ -17159,10 +17351,10 @@
       <c r="B631" s="73"/>
       <c r="C631" s="67"/>
       <c r="D631" s="67" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="E631" s="67" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="F631" s="67">
         <v>20</v>
@@ -17178,10 +17370,10 @@
       <c r="B632" s="73"/>
       <c r="C632" s="67"/>
       <c r="D632" s="67" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="E632" s="67" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F632" s="67">
         <v>20</v>
@@ -17197,10 +17389,10 @@
       <c r="B633" s="73"/>
       <c r="C633" s="67"/>
       <c r="D633" s="67" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E633" s="67" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="F633" s="67">
         <v>20</v>
@@ -17216,7 +17408,7 @@
       <c r="B634" s="73"/>
       <c r="C634" s="67"/>
       <c r="D634" s="67" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="E634" s="67"/>
       <c r="F634" s="67">
@@ -17233,7 +17425,7 @@
       <c r="B635" s="22"/>
       <c r="C635" s="23"/>
       <c r="D635" s="67" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E635" s="67"/>
       <c r="F635" s="67">
@@ -17250,7 +17442,7 @@
       <c r="B636" s="22"/>
       <c r="C636" s="23"/>
       <c r="D636" s="67" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E636" s="67"/>
       <c r="F636" s="67">
@@ -17267,7 +17459,7 @@
       <c r="B637" s="22"/>
       <c r="C637" s="23"/>
       <c r="D637" s="67" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E637" s="67"/>
       <c r="F637" s="67">
@@ -17284,14 +17476,14 @@
       <c r="B638" s="22"/>
       <c r="C638" s="23"/>
       <c r="D638" s="67" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E638" s="67"/>
       <c r="F638" s="67">
         <v>1</v>
       </c>
       <c r="G638" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="639" customHeight="1" spans="1:7">
@@ -17301,14 +17493,14 @@
       <c r="B639" s="22"/>
       <c r="C639" s="23"/>
       <c r="D639" s="67" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E639" s="67"/>
       <c r="F639" s="67">
         <v>1</v>
       </c>
       <c r="G639" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="640" customHeight="1" spans="1:7">
@@ -17318,7 +17510,7 @@
       <c r="B640" s="22"/>
       <c r="C640" s="23"/>
       <c r="D640" s="67" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="E640" s="67"/>
       <c r="F640" s="67">
@@ -17335,14 +17527,14 @@
       <c r="B641" s="22"/>
       <c r="C641" s="23"/>
       <c r="D641" s="67" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E641" s="67"/>
       <c r="F641" s="67">
         <v>1</v>
       </c>
       <c r="G641" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="642" customHeight="1" spans="1:7">
@@ -17352,16 +17544,16 @@
       <c r="B642" s="22"/>
       <c r="C642" s="23"/>
       <c r="D642" s="67" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E642" s="67" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="F642" s="67">
         <v>1</v>
       </c>
       <c r="G642" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="643" customHeight="1" spans="1:7">
@@ -17371,14 +17563,14 @@
       <c r="B643" s="22"/>
       <c r="C643" s="23"/>
       <c r="D643" s="67" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E643" s="67"/>
       <c r="F643" s="67">
         <v>1</v>
       </c>
       <c r="G643" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="644" customHeight="1" spans="1:7">
@@ -17388,14 +17580,14 @@
       <c r="B644" s="22"/>
       <c r="C644" s="23"/>
       <c r="D644" s="67" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E644" s="67"/>
       <c r="F644" s="67">
         <v>1</v>
       </c>
       <c r="G644" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="645" customHeight="1" spans="1:7">
@@ -17405,14 +17597,14 @@
       <c r="B645" s="22"/>
       <c r="C645" s="23"/>
       <c r="D645" s="67" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E645" s="67"/>
       <c r="F645" s="67">
         <v>1</v>
       </c>
       <c r="G645" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="646" customHeight="1" spans="1:7">
@@ -17422,14 +17614,14 @@
       <c r="B646" s="22"/>
       <c r="C646" s="23"/>
       <c r="D646" s="67" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E646" s="67"/>
       <c r="F646" s="67">
         <v>1</v>
       </c>
       <c r="G646" s="67" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="647" customHeight="1" spans="1:7">
@@ -17439,10 +17631,10 @@
       <c r="B647" s="22"/>
       <c r="C647" s="23"/>
       <c r="D647" s="67" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E647" s="67" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F647" s="67">
         <v>5</v>
@@ -17457,10 +17649,16 @@
       </c>
       <c r="B648" s="22"/>
       <c r="C648" s="23"/>
-      <c r="D648" s="67"/>
+      <c r="D648" s="67" t="s">
+        <v>968</v>
+      </c>
       <c r="E648" s="67"/>
-      <c r="F648" s="67"/>
-      <c r="G648" s="67"/>
+      <c r="F648" s="67">
+        <v>1</v>
+      </c>
+      <c r="G648" s="67" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="649" customHeight="1" spans="1:7">
       <c r="A649" s="21">
@@ -17468,10 +17666,16 @@
       </c>
       <c r="B649" s="22"/>
       <c r="C649" s="23"/>
-      <c r="D649" s="67"/>
+      <c r="D649" s="67" t="s">
+        <v>969</v>
+      </c>
       <c r="E649" s="67"/>
-      <c r="F649" s="67"/>
-      <c r="G649" s="67"/>
+      <c r="F649" s="67">
+        <v>1</v>
+      </c>
+      <c r="G649" s="67" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="650" customHeight="1" spans="1:7">
       <c r="A650" s="21">
@@ -17479,10 +17683,16 @@
       </c>
       <c r="B650" s="22"/>
       <c r="C650" s="23"/>
-      <c r="D650" s="67"/>
+      <c r="D650" s="67" t="s">
+        <v>970</v>
+      </c>
       <c r="E650" s="67"/>
-      <c r="F650" s="67"/>
-      <c r="G650" s="67"/>
+      <c r="F650" s="67">
+        <v>1</v>
+      </c>
+      <c r="G650" s="67" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="651" customHeight="1" spans="1:7">
       <c r="A651" s="21">
@@ -17491,11 +17701,15 @@
       <c r="B651" s="22"/>
       <c r="C651" s="23"/>
       <c r="D651" s="67" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="E651" s="67"/>
-      <c r="F651" s="67"/>
-      <c r="G651" s="67"/>
+      <c r="F651" s="67">
+        <v>1</v>
+      </c>
+      <c r="G651" s="67" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="652" customHeight="1" spans="1:7">
       <c r="A652" s="21">
@@ -17504,7 +17718,7 @@
       <c r="B652" s="22"/>
       <c r="C652" s="23"/>
       <c r="D652" s="28" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="E652" s="25"/>
       <c r="F652" s="25">
@@ -17521,7 +17735,7 @@
       <c r="B653" s="22"/>
       <c r="C653" s="23"/>
       <c r="D653" s="28" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="E653" s="25"/>
       <c r="F653" s="25">
@@ -17538,7 +17752,7 @@
       <c r="B654" s="22"/>
       <c r="C654" s="23"/>
       <c r="D654" s="28" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="E654" s="25"/>
       <c r="F654" s="25">
@@ -17555,7 +17769,7 @@
       <c r="B655" s="22"/>
       <c r="C655" s="23"/>
       <c r="D655" s="28" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="E655" s="25"/>
       <c r="F655" s="25">
@@ -17572,7 +17786,7 @@
       <c r="B656" s="22"/>
       <c r="C656" s="23"/>
       <c r="D656" s="28" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="E656" s="25"/>
       <c r="F656" s="25">
@@ -17589,7 +17803,7 @@
       <c r="B657" s="22"/>
       <c r="C657" s="23"/>
       <c r="D657" s="28" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="E657" s="25"/>
       <c r="F657" s="25">
@@ -17606,7 +17820,7 @@
       <c r="B658" s="22"/>
       <c r="C658" s="23"/>
       <c r="D658" s="28" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="E658" s="25"/>
       <c r="F658" s="25">
@@ -17623,7 +17837,7 @@
       <c r="B659" s="22"/>
       <c r="C659" s="23"/>
       <c r="D659" s="28" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="E659" s="25"/>
       <c r="F659" s="25">
@@ -17640,7 +17854,7 @@
       <c r="B660" s="22"/>
       <c r="C660" s="23"/>
       <c r="D660" s="28" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="E660" s="25"/>
       <c r="F660" s="25">
@@ -17657,7 +17871,7 @@
       <c r="B661" s="22"/>
       <c r="C661" s="23"/>
       <c r="D661" s="28" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="E661" s="25"/>
       <c r="F661" s="25">
@@ -17674,7 +17888,7 @@
       <c r="B662" s="22"/>
       <c r="C662" s="23"/>
       <c r="D662" s="28" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="E662" s="25"/>
       <c r="F662" s="25">
@@ -17691,7 +17905,7 @@
       <c r="B663" s="22"/>
       <c r="C663" s="23"/>
       <c r="D663" s="28" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="E663" s="25"/>
       <c r="F663" s="25">
@@ -17708,7 +17922,7 @@
       <c r="B664" s="22"/>
       <c r="C664" s="23"/>
       <c r="D664" s="28" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E664" s="25"/>
       <c r="F664" s="25">
@@ -17725,7 +17939,7 @@
       <c r="B665" s="22"/>
       <c r="C665" s="23"/>
       <c r="D665" s="28" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="E665" s="25"/>
       <c r="F665" s="25">
@@ -17742,7 +17956,7 @@
       <c r="B666" s="22"/>
       <c r="C666" s="23"/>
       <c r="D666" s="28" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E666" s="25"/>
       <c r="F666" s="25">
@@ -17759,7 +17973,7 @@
       <c r="B667" s="22"/>
       <c r="C667" s="23"/>
       <c r="D667" s="28" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="E667" s="25"/>
       <c r="F667" s="25">
@@ -17776,7 +17990,7 @@
       <c r="B668" s="22"/>
       <c r="C668" s="23"/>
       <c r="D668" s="28" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="E668" s="25"/>
       <c r="F668" s="25">
@@ -17793,7 +18007,7 @@
       <c r="B669" s="22"/>
       <c r="C669" s="23"/>
       <c r="D669" s="28" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="E669" s="25"/>
       <c r="F669" s="25">
@@ -17810,7 +18024,7 @@
       <c r="B670" s="22"/>
       <c r="C670" s="23"/>
       <c r="D670" s="28" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E670" s="25"/>
       <c r="F670" s="25">
@@ -17827,7 +18041,7 @@
       <c r="B671" s="22"/>
       <c r="C671" s="23"/>
       <c r="D671" s="28" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="E671" s="25"/>
       <c r="F671" s="25">
@@ -17844,7 +18058,7 @@
       <c r="B672" s="22"/>
       <c r="C672" s="23"/>
       <c r="D672" s="28" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="E672" s="25"/>
       <c r="F672" s="25">
@@ -17861,7 +18075,7 @@
       <c r="B673" s="22"/>
       <c r="C673" s="23"/>
       <c r="D673" s="28" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E673" s="25"/>
       <c r="F673" s="25">
@@ -17878,7 +18092,7 @@
       <c r="B674" s="22"/>
       <c r="C674" s="23"/>
       <c r="D674" s="28" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="E674" s="25"/>
       <c r="F674" s="25">
@@ -17895,7 +18109,7 @@
       <c r="B675" s="22"/>
       <c r="C675" s="23"/>
       <c r="D675" s="24" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E675" s="25"/>
       <c r="F675" s="25">
@@ -17912,7 +18126,7 @@
       <c r="B676" s="22"/>
       <c r="C676" s="23"/>
       <c r="D676" s="28" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="E676" s="25"/>
       <c r="F676" s="25">
@@ -17926,32 +18140,1626 @@
       <c r="A677" s="21">
         <v>676</v>
       </c>
-      <c r="B677" s="22"/>
-      <c r="C677" s="23"/>
-      <c r="D677" s="24"/>
-      <c r="E677" s="25"/>
-      <c r="F677" s="25"/>
-      <c r="G677" s="25"/>
+      <c r="B677" s="28"/>
+      <c r="C677" s="28"/>
+      <c r="D677" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="E677" s="67"/>
+      <c r="F677" s="25">
+        <v>1</v>
+      </c>
+      <c r="G677" s="25" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="678" customHeight="1" spans="1:7">
       <c r="A678" s="21">
         <v>677</v>
       </c>
-      <c r="B678" s="22"/>
-      <c r="C678" s="23"/>
-      <c r="D678" s="24"/>
-      <c r="E678" s="25"/>
-      <c r="F678" s="25"/>
-      <c r="G678" s="25"/>
+      <c r="B678" s="28"/>
+      <c r="C678" s="28"/>
+      <c r="D678" s="74" t="s">
+        <v>998</v>
+      </c>
+      <c r="E678" s="67"/>
+      <c r="F678" s="67">
+        <v>1</v>
+      </c>
+      <c r="G678" s="67" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="679" customHeight="1" spans="1:7">
-      <c r="A679" s="74"/>
-      <c r="B679" s="75"/>
-      <c r="C679" s="74"/>
-      <c r="D679" s="76"/>
-      <c r="E679" s="77"/>
-      <c r="F679" s="77"/>
-      <c r="G679" s="77"/>
+      <c r="A679" s="21">
+        <v>678</v>
+      </c>
+      <c r="B679" s="28"/>
+      <c r="C679" s="28"/>
+      <c r="D679" s="28" t="s">
+        <v>999</v>
+      </c>
+      <c r="E679" s="28"/>
+      <c r="F679" s="67">
+        <v>1</v>
+      </c>
+      <c r="G679" s="67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="680" customHeight="1" spans="1:7">
+      <c r="A680" s="21">
+        <v>679</v>
+      </c>
+      <c r="B680" s="28"/>
+      <c r="C680" s="28"/>
+      <c r="D680" s="28" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E680" s="28"/>
+      <c r="F680" s="67">
+        <v>1</v>
+      </c>
+      <c r="G680" s="67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="681" customHeight="1" spans="1:7">
+      <c r="A681" s="21">
+        <v>680</v>
+      </c>
+      <c r="B681" s="28"/>
+      <c r="C681" s="28"/>
+      <c r="D681" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E681" s="28"/>
+      <c r="F681" s="67">
+        <v>1</v>
+      </c>
+      <c r="G681" s="67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="682" customHeight="1" spans="1:7">
+      <c r="A682" s="21">
+        <v>681</v>
+      </c>
+      <c r="B682" s="28"/>
+      <c r="C682" s="28"/>
+      <c r="D682" s="28" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E682" s="28"/>
+      <c r="F682" s="67">
+        <v>1</v>
+      </c>
+      <c r="G682" s="67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="683" customHeight="1" spans="1:7">
+      <c r="A683" s="21">
+        <v>682</v>
+      </c>
+      <c r="B683" s="28"/>
+      <c r="C683" s="28"/>
+      <c r="D683" s="28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E683" s="28"/>
+      <c r="F683" s="67">
+        <v>1</v>
+      </c>
+      <c r="G683" s="67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="684" customHeight="1" spans="1:7">
+      <c r="A684" s="21">
+        <v>683</v>
+      </c>
+      <c r="B684" s="28"/>
+      <c r="C684" s="28"/>
+      <c r="D684" s="28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E684" s="28"/>
+      <c r="F684" s="67">
+        <v>1</v>
+      </c>
+      <c r="G684" s="67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="685" customHeight="1" spans="1:7">
+      <c r="A685" s="21">
+        <v>684</v>
+      </c>
+      <c r="B685" s="28"/>
+      <c r="C685" s="28"/>
+      <c r="D685" s="28"/>
+      <c r="E685" s="28"/>
+      <c r="F685" s="25"/>
+      <c r="G685" s="25"/>
+    </row>
+    <row r="686" customHeight="1" spans="1:7">
+      <c r="A686" s="21">
+        <v>685</v>
+      </c>
+      <c r="B686" s="28"/>
+      <c r="C686" s="28"/>
+      <c r="D686" s="28"/>
+      <c r="E686" s="28"/>
+      <c r="F686" s="25"/>
+      <c r="G686" s="25"/>
+    </row>
+    <row r="687" customHeight="1" spans="1:7">
+      <c r="A687" s="21">
+        <v>686</v>
+      </c>
+      <c r="B687" s="28"/>
+      <c r="C687" s="28"/>
+      <c r="D687" s="28" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E687" s="28"/>
+      <c r="F687" s="25">
+        <v>1</v>
+      </c>
+      <c r="G687" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="688" customHeight="1" spans="1:7">
+      <c r="A688" s="21">
+        <v>687</v>
+      </c>
+      <c r="B688" s="28"/>
+      <c r="C688" s="28"/>
+      <c r="D688" s="28" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E688" s="28"/>
+      <c r="F688" s="25">
+        <v>1</v>
+      </c>
+      <c r="G688" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="689" customHeight="1" spans="1:7">
+      <c r="A689" s="21">
+        <v>688</v>
+      </c>
+      <c r="B689" s="28"/>
+      <c r="C689" s="28"/>
+      <c r="D689" s="28" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E689" s="28"/>
+      <c r="F689" s="25">
+        <v>1</v>
+      </c>
+      <c r="G689" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="690" customHeight="1" spans="1:7">
+      <c r="A690" s="21">
+        <v>689</v>
+      </c>
+      <c r="B690" s="28"/>
+      <c r="C690" s="28"/>
+      <c r="D690" s="28" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E690" s="28"/>
+      <c r="F690" s="25">
+        <v>1</v>
+      </c>
+      <c r="G690" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="691" customHeight="1" spans="1:7">
+      <c r="A691" s="21">
+        <v>690</v>
+      </c>
+      <c r="B691" s="28"/>
+      <c r="C691" s="28"/>
+      <c r="D691" s="28" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E691" s="28"/>
+      <c r="F691" s="25">
+        <v>1</v>
+      </c>
+      <c r="G691" s="25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="692" customHeight="1" spans="1:7">
+      <c r="A692" s="21">
+        <v>691</v>
+      </c>
+      <c r="B692" s="28"/>
+      <c r="C692" s="28"/>
+      <c r="D692" s="28" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E692" s="28"/>
+      <c r="F692" s="25">
+        <v>1</v>
+      </c>
+      <c r="G692" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="693" customHeight="1" spans="1:7">
+      <c r="A693" s="21">
+        <v>692</v>
+      </c>
+      <c r="B693" s="28"/>
+      <c r="C693" s="28"/>
+      <c r="D693" s="28" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E693" s="28"/>
+      <c r="F693" s="25">
+        <v>1</v>
+      </c>
+      <c r="G693" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="694" customHeight="1" spans="1:7">
+      <c r="A694" s="21">
+        <v>693</v>
+      </c>
+      <c r="B694" s="28"/>
+      <c r="C694" s="28"/>
+      <c r="D694" s="28" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E694" s="28"/>
+      <c r="F694" s="25">
+        <v>1</v>
+      </c>
+      <c r="G694" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="695" customHeight="1" spans="1:7">
+      <c r="A695" s="21">
+        <v>694</v>
+      </c>
+      <c r="B695" s="28"/>
+      <c r="C695" s="28"/>
+      <c r="D695" s="28" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E695" s="28"/>
+      <c r="F695" s="25">
+        <v>1</v>
+      </c>
+      <c r="G695" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="696" customHeight="1" spans="1:7">
+      <c r="A696" s="21">
+        <v>695</v>
+      </c>
+      <c r="B696" s="28"/>
+      <c r="C696" s="28"/>
+      <c r="D696" s="28" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E696" s="28"/>
+      <c r="F696" s="25">
+        <v>1</v>
+      </c>
+      <c r="G696" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="697" customHeight="1" spans="1:7">
+      <c r="A697" s="21">
+        <v>696</v>
+      </c>
+      <c r="B697" s="28"/>
+      <c r="C697" s="28"/>
+      <c r="D697" s="28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E697" s="28"/>
+      <c r="F697" s="25">
+        <v>1</v>
+      </c>
+      <c r="G697" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="698" customHeight="1" spans="1:7">
+      <c r="A698" s="21">
+        <v>697</v>
+      </c>
+      <c r="B698" s="28"/>
+      <c r="C698" s="28"/>
+      <c r="D698" s="28" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E698" s="28"/>
+      <c r="F698" s="25">
+        <v>1</v>
+      </c>
+      <c r="G698" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="699" customHeight="1" spans="1:7">
+      <c r="A699" s="21">
+        <v>698</v>
+      </c>
+      <c r="B699" s="28"/>
+      <c r="C699" s="28"/>
+      <c r="D699" s="28" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E699" s="28"/>
+      <c r="F699" s="25">
+        <v>1</v>
+      </c>
+      <c r="G699" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="700" customHeight="1" spans="1:7">
+      <c r="A700" s="21">
+        <v>699</v>
+      </c>
+      <c r="B700" s="28"/>
+      <c r="C700" s="28"/>
+      <c r="D700" s="28" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E700" s="28"/>
+      <c r="F700" s="25">
+        <v>1</v>
+      </c>
+      <c r="G700" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="701" customHeight="1" spans="1:7">
+      <c r="A701" s="21">
+        <v>700</v>
+      </c>
+      <c r="B701" s="28"/>
+      <c r="C701" s="28"/>
+      <c r="D701" s="28" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E701" s="28"/>
+      <c r="F701" s="25">
+        <v>1</v>
+      </c>
+      <c r="G701" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="702" customHeight="1" spans="1:7">
+      <c r="A702" s="21">
+        <v>701</v>
+      </c>
+      <c r="B702" s="28"/>
+      <c r="C702" s="28"/>
+      <c r="D702" s="28" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E702" s="28"/>
+      <c r="F702" s="25">
+        <v>1</v>
+      </c>
+      <c r="G702" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="703" customHeight="1" spans="1:7">
+      <c r="A703" s="21">
+        <v>702</v>
+      </c>
+      <c r="B703" s="28"/>
+      <c r="C703" s="28"/>
+      <c r="D703" s="28" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E703" s="28"/>
+      <c r="F703" s="25">
+        <v>1</v>
+      </c>
+      <c r="G703" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="704" customHeight="1" spans="1:7">
+      <c r="A704" s="21">
+        <v>703</v>
+      </c>
+      <c r="B704" s="28"/>
+      <c r="C704" s="28"/>
+      <c r="D704" s="28" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E704" s="28"/>
+      <c r="F704" s="25">
+        <v>1</v>
+      </c>
+      <c r="G704" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="705" customHeight="1" spans="1:7">
+      <c r="A705" s="21">
+        <v>704</v>
+      </c>
+      <c r="B705" s="28"/>
+      <c r="C705" s="28"/>
+      <c r="D705" s="28" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E705" s="28"/>
+      <c r="F705" s="25">
+        <v>1</v>
+      </c>
+      <c r="G705" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="706" customHeight="1" spans="1:7">
+      <c r="A706" s="21">
+        <v>705</v>
+      </c>
+      <c r="B706" s="28"/>
+      <c r="C706" s="28"/>
+      <c r="D706" s="28" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E706" s="28"/>
+      <c r="F706" s="25">
+        <v>1</v>
+      </c>
+      <c r="G706" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="707" customHeight="1" spans="1:7">
+      <c r="A707" s="21">
+        <v>706</v>
+      </c>
+      <c r="B707" s="28"/>
+      <c r="C707" s="28"/>
+      <c r="D707" s="28" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E707" s="28"/>
+      <c r="F707" s="25">
+        <v>1</v>
+      </c>
+      <c r="G707" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="708" customHeight="1" spans="1:7">
+      <c r="A708" s="21">
+        <v>707</v>
+      </c>
+      <c r="B708" s="28"/>
+      <c r="C708" s="28"/>
+      <c r="D708" s="28" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E708" s="28"/>
+      <c r="F708" s="25">
+        <v>1</v>
+      </c>
+      <c r="G708" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="709" customHeight="1" spans="1:7">
+      <c r="A709" s="21">
+        <v>708</v>
+      </c>
+      <c r="B709" s="28"/>
+      <c r="C709" s="28"/>
+      <c r="D709" s="28" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E709" s="28"/>
+      <c r="F709" s="25">
+        <v>1</v>
+      </c>
+      <c r="G709" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="710" customHeight="1" spans="1:7">
+      <c r="A710" s="21">
+        <v>709</v>
+      </c>
+      <c r="B710" s="28"/>
+      <c r="C710" s="28"/>
+      <c r="D710" s="28" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E710" s="28"/>
+      <c r="F710" s="25">
+        <v>1</v>
+      </c>
+      <c r="G710" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="711" customHeight="1" spans="1:7">
+      <c r="A711" s="21">
+        <v>710</v>
+      </c>
+      <c r="B711" s="28"/>
+      <c r="C711" s="28"/>
+      <c r="D711" s="28" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E711" s="28"/>
+      <c r="F711" s="25">
+        <v>1</v>
+      </c>
+      <c r="G711" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="712" customHeight="1" spans="1:7">
+      <c r="A712" s="21">
+        <v>711</v>
+      </c>
+      <c r="B712" s="28"/>
+      <c r="C712" s="28"/>
+      <c r="D712" s="28" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E712" s="28"/>
+      <c r="F712" s="25">
+        <v>1</v>
+      </c>
+      <c r="G712" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="713" customHeight="1" spans="1:7">
+      <c r="A713" s="21">
+        <v>712</v>
+      </c>
+      <c r="B713" s="28"/>
+      <c r="C713" s="28"/>
+      <c r="D713" s="28" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E713" s="28"/>
+      <c r="F713" s="25">
+        <v>1</v>
+      </c>
+      <c r="G713" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="714" customHeight="1" spans="1:7">
+      <c r="A714" s="21">
+        <v>713</v>
+      </c>
+      <c r="B714" s="28"/>
+      <c r="C714" s="28"/>
+      <c r="D714" s="28" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E714" s="25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F714" s="25">
+        <v>1</v>
+      </c>
+      <c r="G714" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="715" customHeight="1" spans="1:7">
+      <c r="A715" s="21">
+        <v>714</v>
+      </c>
+      <c r="B715" s="28"/>
+      <c r="C715" s="28"/>
+      <c r="D715" s="28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E715" s="28"/>
+      <c r="F715" s="25">
+        <v>1</v>
+      </c>
+      <c r="G715" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="716" customHeight="1" spans="1:7">
+      <c r="A716" s="21">
+        <v>715</v>
+      </c>
+      <c r="B716" s="28"/>
+      <c r="C716" s="28"/>
+      <c r="D716" s="28" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E716" s="28"/>
+      <c r="F716" s="25">
+        <v>1</v>
+      </c>
+      <c r="G716" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="717" customHeight="1" spans="1:7">
+      <c r="A717" s="21">
+        <v>716</v>
+      </c>
+      <c r="B717" s="28"/>
+      <c r="C717" s="28"/>
+      <c r="D717" s="28" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E717" s="28"/>
+      <c r="F717" s="25">
+        <v>1</v>
+      </c>
+      <c r="G717" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="718" customHeight="1" spans="1:7">
+      <c r="A718" s="21">
+        <v>717</v>
+      </c>
+      <c r="B718" s="28"/>
+      <c r="C718" s="28"/>
+      <c r="D718" s="28" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E718" s="28"/>
+      <c r="F718" s="25">
+        <v>1</v>
+      </c>
+      <c r="G718" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="719" customHeight="1" spans="1:7">
+      <c r="A719" s="21">
+        <v>718</v>
+      </c>
+      <c r="B719" s="28"/>
+      <c r="C719" s="28"/>
+      <c r="D719" s="28" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E719" s="28"/>
+      <c r="F719" s="25">
+        <v>1</v>
+      </c>
+      <c r="G719" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="720" customHeight="1" spans="1:7">
+      <c r="A720" s="21">
+        <v>719</v>
+      </c>
+      <c r="B720" s="28"/>
+      <c r="C720" s="28"/>
+      <c r="D720" s="28" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E720" s="28"/>
+      <c r="F720" s="25">
+        <v>1</v>
+      </c>
+      <c r="G720" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="721" customHeight="1" spans="1:7">
+      <c r="A721" s="21">
+        <v>720</v>
+      </c>
+      <c r="B721" s="28"/>
+      <c r="C721" s="28"/>
+      <c r="D721" s="28" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E721" s="28"/>
+      <c r="F721" s="25">
+        <v>1</v>
+      </c>
+      <c r="G721" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="722" customHeight="1" spans="1:7">
+      <c r="A722" s="21">
+        <v>721</v>
+      </c>
+      <c r="B722" s="28"/>
+      <c r="C722" s="28"/>
+      <c r="D722" s="28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E722" s="28"/>
+      <c r="F722" s="25">
+        <v>1</v>
+      </c>
+      <c r="G722" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="723" customHeight="1" spans="1:7">
+      <c r="A723" s="21">
+        <v>722</v>
+      </c>
+      <c r="B723" s="28"/>
+      <c r="C723" s="28"/>
+      <c r="D723" s="74" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E723" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="F723" s="25">
+        <v>1</v>
+      </c>
+      <c r="G723" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="724" customHeight="1" spans="1:7">
+      <c r="A724" s="21">
+        <v>723</v>
+      </c>
+      <c r="B724" s="28"/>
+      <c r="C724" s="28"/>
+      <c r="D724" s="28" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E724" s="28"/>
+      <c r="F724" s="25">
+        <v>1</v>
+      </c>
+      <c r="G724" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="725" customHeight="1" spans="1:7">
+      <c r="A725" s="21">
+        <v>724</v>
+      </c>
+      <c r="B725" s="28"/>
+      <c r="C725" s="28"/>
+      <c r="D725" s="28" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E725" s="28"/>
+      <c r="F725" s="25">
+        <v>1</v>
+      </c>
+      <c r="G725" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="726" customHeight="1" spans="1:7">
+      <c r="A726" s="21">
+        <v>725</v>
+      </c>
+      <c r="B726" s="28"/>
+      <c r="C726" s="28"/>
+      <c r="D726" s="28" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E726" s="28"/>
+      <c r="F726" s="25">
+        <v>1</v>
+      </c>
+      <c r="G726" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="727" customHeight="1" spans="1:7">
+      <c r="A727" s="21">
+        <v>726</v>
+      </c>
+      <c r="B727" s="28"/>
+      <c r="C727" s="28"/>
+      <c r="D727" s="28" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E727" s="28"/>
+      <c r="F727" s="25">
+        <v>1</v>
+      </c>
+      <c r="G727" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="728" customHeight="1" spans="1:7">
+      <c r="A728" s="21">
+        <v>727</v>
+      </c>
+      <c r="B728" s="28"/>
+      <c r="C728" s="28"/>
+      <c r="D728" s="28" t="s">
+        <v>1047</v>
+      </c>
+      <c r="E728" s="28"/>
+      <c r="F728" s="25">
+        <v>1</v>
+      </c>
+      <c r="G728" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="729" customHeight="1" spans="1:7">
+      <c r="A729" s="21">
+        <v>728</v>
+      </c>
+      <c r="B729" s="28"/>
+      <c r="C729" s="28"/>
+      <c r="D729" s="28" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E729" s="28"/>
+      <c r="F729" s="25">
+        <v>1</v>
+      </c>
+      <c r="G729" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="730" customHeight="1" spans="1:7">
+      <c r="A730" s="21">
+        <v>729</v>
+      </c>
+      <c r="B730" s="28"/>
+      <c r="C730" s="28"/>
+      <c r="D730" s="28"/>
+      <c r="E730" s="28"/>
+      <c r="F730" s="25"/>
+      <c r="G730" s="25"/>
+    </row>
+    <row r="731" customHeight="1" spans="1:7">
+      <c r="A731" s="21">
+        <v>730</v>
+      </c>
+      <c r="B731" s="28"/>
+      <c r="C731" s="28"/>
+      <c r="D731" s="28"/>
+      <c r="E731" s="28"/>
+      <c r="F731" s="25"/>
+      <c r="G731" s="25"/>
+    </row>
+    <row r="732" customHeight="1" spans="1:7">
+      <c r="A732" s="21">
+        <v>731</v>
+      </c>
+      <c r="B732" s="28"/>
+      <c r="C732" s="28"/>
+      <c r="D732" s="28"/>
+      <c r="E732" s="28"/>
+      <c r="F732" s="25"/>
+      <c r="G732" s="25"/>
+    </row>
+    <row r="733" customHeight="1" spans="1:7">
+      <c r="A733" s="21">
+        <v>732</v>
+      </c>
+      <c r="B733" s="28"/>
+      <c r="C733" s="28"/>
+      <c r="D733" s="28"/>
+      <c r="E733" s="28"/>
+      <c r="F733" s="25"/>
+      <c r="G733" s="25"/>
+    </row>
+    <row r="734" customHeight="1" spans="1:7">
+      <c r="A734" s="21">
+        <v>733</v>
+      </c>
+      <c r="B734" s="75"/>
+      <c r="C734" s="76"/>
+      <c r="D734" s="77"/>
+      <c r="E734" s="78"/>
+      <c r="F734" s="25"/>
+      <c r="G734" s="25"/>
+    </row>
+    <row r="735" customHeight="1" spans="1:7">
+      <c r="A735" s="21">
+        <v>734</v>
+      </c>
+      <c r="B735" s="75"/>
+      <c r="C735" s="76"/>
+      <c r="D735" s="77"/>
+      <c r="E735" s="78"/>
+      <c r="F735" s="25"/>
+      <c r="G735" s="25"/>
+    </row>
+    <row r="736" customHeight="1" spans="1:7">
+      <c r="A736" s="76"/>
+      <c r="B736" s="75"/>
+      <c r="C736" s="76"/>
+      <c r="D736" s="77"/>
+      <c r="E736" s="78"/>
+      <c r="F736" s="25"/>
+      <c r="G736" s="25"/>
+    </row>
+    <row r="737" customHeight="1" spans="1:7">
+      <c r="A737" s="76"/>
+      <c r="B737" s="75"/>
+      <c r="C737" s="76"/>
+      <c r="D737" s="77"/>
+      <c r="E737" s="78"/>
+      <c r="F737" s="25"/>
+      <c r="G737" s="25"/>
+    </row>
+    <row r="738" customHeight="1" spans="1:7">
+      <c r="A738" s="76"/>
+      <c r="B738" s="75"/>
+      <c r="C738" s="76"/>
+      <c r="D738" s="77"/>
+      <c r="E738" s="78"/>
+      <c r="F738" s="25"/>
+      <c r="G738" s="25"/>
+    </row>
+    <row r="739" customHeight="1" spans="1:7">
+      <c r="A739" s="76"/>
+      <c r="B739" s="75"/>
+      <c r="C739" s="76"/>
+      <c r="D739" s="77"/>
+      <c r="E739" s="78"/>
+      <c r="F739" s="25"/>
+      <c r="G739" s="25"/>
+    </row>
+    <row r="740" customHeight="1" spans="1:7">
+      <c r="A740" s="76"/>
+      <c r="B740" s="75"/>
+      <c r="C740" s="76"/>
+      <c r="D740" s="77"/>
+      <c r="E740" s="78"/>
+      <c r="F740" s="25"/>
+      <c r="G740" s="25"/>
+    </row>
+    <row r="741" customHeight="1" spans="1:7">
+      <c r="A741" s="76"/>
+      <c r="B741" s="75"/>
+      <c r="C741" s="76"/>
+      <c r="D741" s="77"/>
+      <c r="E741" s="78"/>
+      <c r="F741" s="25"/>
+      <c r="G741" s="25"/>
+    </row>
+    <row r="742" customHeight="1" spans="1:7">
+      <c r="A742" s="76"/>
+      <c r="B742" s="75"/>
+      <c r="C742" s="76"/>
+      <c r="D742" s="77"/>
+      <c r="E742" s="78"/>
+      <c r="F742" s="25"/>
+      <c r="G742" s="25"/>
+    </row>
+    <row r="743" customHeight="1" spans="1:7">
+      <c r="A743" s="76"/>
+      <c r="B743" s="75"/>
+      <c r="C743" s="76"/>
+      <c r="D743" s="77"/>
+      <c r="E743" s="78"/>
+      <c r="F743" s="25"/>
+      <c r="G743" s="25"/>
+    </row>
+    <row r="744" customHeight="1" spans="1:7">
+      <c r="A744" s="76"/>
+      <c r="B744" s="75"/>
+      <c r="C744" s="76"/>
+      <c r="D744" s="77"/>
+      <c r="E744" s="78"/>
+      <c r="F744" s="25"/>
+      <c r="G744" s="25"/>
+    </row>
+    <row r="745" customHeight="1" spans="1:7">
+      <c r="A745" s="76"/>
+      <c r="B745" s="75"/>
+      <c r="C745" s="76"/>
+      <c r="D745" s="77"/>
+      <c r="E745" s="78"/>
+      <c r="F745" s="25"/>
+      <c r="G745" s="25"/>
+    </row>
+    <row r="746" customHeight="1" spans="1:7">
+      <c r="A746" s="76"/>
+      <c r="B746" s="75"/>
+      <c r="C746" s="76"/>
+      <c r="D746" s="77"/>
+      <c r="E746" s="78"/>
+      <c r="F746" s="25"/>
+      <c r="G746" s="25"/>
+    </row>
+    <row r="747" customHeight="1" spans="1:7">
+      <c r="A747" s="76"/>
+      <c r="B747" s="75"/>
+      <c r="C747" s="76"/>
+      <c r="D747" s="77"/>
+      <c r="E747" s="78"/>
+      <c r="F747" s="25"/>
+      <c r="G747" s="25"/>
+    </row>
+    <row r="748" customHeight="1" spans="1:7">
+      <c r="A748" s="76"/>
+      <c r="B748" s="75"/>
+      <c r="C748" s="76"/>
+      <c r="D748" s="77"/>
+      <c r="E748" s="78"/>
+      <c r="F748" s="25"/>
+      <c r="G748" s="25"/>
+    </row>
+    <row r="749" customHeight="1" spans="1:7">
+      <c r="A749" s="76"/>
+      <c r="B749" s="75"/>
+      <c r="C749" s="76"/>
+      <c r="D749" s="77"/>
+      <c r="E749" s="78"/>
+      <c r="F749" s="25"/>
+      <c r="G749" s="25"/>
+    </row>
+    <row r="750" customHeight="1" spans="1:7">
+      <c r="A750" s="76"/>
+      <c r="B750" s="75"/>
+      <c r="C750" s="76"/>
+      <c r="D750" s="77"/>
+      <c r="E750" s="78"/>
+      <c r="F750" s="25"/>
+      <c r="G750" s="25"/>
+    </row>
+    <row r="751" customHeight="1" spans="1:7">
+      <c r="A751" s="76"/>
+      <c r="B751" s="75"/>
+      <c r="C751" s="76"/>
+      <c r="D751" s="77"/>
+      <c r="E751" s="78"/>
+      <c r="F751" s="25"/>
+      <c r="G751" s="25"/>
+    </row>
+    <row r="752" customHeight="1" spans="1:7">
+      <c r="A752" s="76"/>
+      <c r="B752" s="75"/>
+      <c r="C752" s="76"/>
+      <c r="D752" s="77"/>
+      <c r="E752" s="78"/>
+      <c r="F752" s="25"/>
+      <c r="G752" s="25"/>
+    </row>
+    <row r="753" customHeight="1" spans="1:7">
+      <c r="A753" s="76"/>
+      <c r="B753" s="75"/>
+      <c r="C753" s="76"/>
+      <c r="D753" s="77"/>
+      <c r="E753" s="78"/>
+      <c r="F753" s="25"/>
+      <c r="G753" s="25"/>
+    </row>
+    <row r="754" customHeight="1" spans="1:7">
+      <c r="A754" s="76"/>
+      <c r="B754" s="75"/>
+      <c r="C754" s="76"/>
+      <c r="D754" s="77"/>
+      <c r="E754" s="78"/>
+      <c r="F754" s="25"/>
+      <c r="G754" s="25"/>
+    </row>
+    <row r="755" customHeight="1" spans="1:7">
+      <c r="A755" s="76"/>
+      <c r="B755" s="75"/>
+      <c r="C755" s="76"/>
+      <c r="D755" s="77"/>
+      <c r="E755" s="78"/>
+      <c r="F755" s="25"/>
+      <c r="G755" s="25"/>
+    </row>
+    <row r="756" customHeight="1" spans="1:7">
+      <c r="A756" s="76"/>
+      <c r="B756" s="75"/>
+      <c r="C756" s="76"/>
+      <c r="D756" s="77"/>
+      <c r="E756" s="78"/>
+      <c r="F756" s="25"/>
+      <c r="G756" s="25"/>
+    </row>
+    <row r="757" customHeight="1" spans="1:7">
+      <c r="A757" s="76"/>
+      <c r="B757" s="75"/>
+      <c r="C757" s="76"/>
+      <c r="D757" s="77"/>
+      <c r="E757" s="78"/>
+      <c r="F757" s="25"/>
+      <c r="G757" s="25"/>
+    </row>
+    <row r="758" customHeight="1" spans="1:7">
+      <c r="A758" s="76"/>
+      <c r="B758" s="75"/>
+      <c r="C758" s="76"/>
+      <c r="D758" s="77"/>
+      <c r="E758" s="78"/>
+      <c r="F758" s="25"/>
+      <c r="G758" s="25"/>
+    </row>
+    <row r="759" customHeight="1" spans="1:7">
+      <c r="A759" s="76"/>
+      <c r="B759" s="75"/>
+      <c r="C759" s="76"/>
+      <c r="D759" s="77"/>
+      <c r="E759" s="78"/>
+      <c r="F759" s="25"/>
+      <c r="G759" s="25"/>
+    </row>
+    <row r="760" customHeight="1" spans="1:7">
+      <c r="A760" s="76"/>
+      <c r="B760" s="75"/>
+      <c r="C760" s="76"/>
+      <c r="D760" s="77"/>
+      <c r="E760" s="78"/>
+      <c r="F760" s="25"/>
+      <c r="G760" s="25"/>
+    </row>
+    <row r="761" customHeight="1" spans="1:7">
+      <c r="A761" s="76"/>
+      <c r="B761" s="75"/>
+      <c r="C761" s="76"/>
+      <c r="D761" s="77"/>
+      <c r="E761" s="78"/>
+      <c r="F761" s="25"/>
+      <c r="G761" s="25"/>
+    </row>
+    <row r="762" customHeight="1" spans="1:7">
+      <c r="A762" s="76"/>
+      <c r="B762" s="75"/>
+      <c r="C762" s="76"/>
+      <c r="D762" s="77"/>
+      <c r="E762" s="78"/>
+      <c r="F762" s="25"/>
+      <c r="G762" s="25"/>
+    </row>
+    <row r="763" customHeight="1" spans="1:7">
+      <c r="A763" s="76"/>
+      <c r="B763" s="75"/>
+      <c r="C763" s="76"/>
+      <c r="D763" s="77"/>
+      <c r="E763" s="78"/>
+      <c r="F763" s="25"/>
+      <c r="G763" s="25"/>
+    </row>
+    <row r="764" customHeight="1" spans="1:7">
+      <c r="A764" s="76"/>
+      <c r="B764" s="75"/>
+      <c r="C764" s="76"/>
+      <c r="D764" s="77"/>
+      <c r="E764" s="78"/>
+      <c r="F764" s="25"/>
+      <c r="G764" s="25"/>
+    </row>
+    <row r="765" customHeight="1" spans="1:7">
+      <c r="A765" s="76"/>
+      <c r="B765" s="75"/>
+      <c r="C765" s="76"/>
+      <c r="D765" s="77"/>
+      <c r="E765" s="78"/>
+      <c r="F765" s="25"/>
+      <c r="G765" s="25"/>
+    </row>
+    <row r="766" customHeight="1" spans="1:7">
+      <c r="A766" s="76"/>
+      <c r="B766" s="75"/>
+      <c r="C766" s="76"/>
+      <c r="D766" s="77"/>
+      <c r="E766" s="78"/>
+      <c r="F766" s="25"/>
+      <c r="G766" s="25"/>
+    </row>
+    <row r="767" customHeight="1" spans="1:7">
+      <c r="A767" s="76"/>
+      <c r="B767" s="75"/>
+      <c r="C767" s="76"/>
+      <c r="D767" s="77"/>
+      <c r="E767" s="78"/>
+      <c r="F767" s="25"/>
+      <c r="G767" s="25"/>
+    </row>
+    <row r="768" customHeight="1" spans="1:7">
+      <c r="A768" s="76"/>
+      <c r="B768" s="75"/>
+      <c r="C768" s="76"/>
+      <c r="D768" s="77"/>
+      <c r="E768" s="78"/>
+      <c r="F768" s="25"/>
+      <c r="G768" s="25"/>
+    </row>
+    <row r="769" customHeight="1" spans="1:7">
+      <c r="A769" s="76"/>
+      <c r="B769" s="75"/>
+      <c r="C769" s="76"/>
+      <c r="D769" s="77"/>
+      <c r="E769" s="78"/>
+      <c r="F769" s="25"/>
+      <c r="G769" s="25"/>
+    </row>
+    <row r="770" customHeight="1" spans="1:7">
+      <c r="A770" s="76"/>
+      <c r="B770" s="75"/>
+      <c r="C770" s="76"/>
+      <c r="D770" s="77"/>
+      <c r="E770" s="78"/>
+      <c r="F770" s="25"/>
+      <c r="G770" s="25"/>
+    </row>
+    <row r="771" customHeight="1" spans="1:7">
+      <c r="A771" s="76"/>
+      <c r="B771" s="75"/>
+      <c r="C771" s="76"/>
+      <c r="D771" s="77"/>
+      <c r="E771" s="78"/>
+      <c r="F771" s="25"/>
+      <c r="G771" s="25"/>
+    </row>
+    <row r="772" customHeight="1" spans="1:7">
+      <c r="A772" s="76"/>
+      <c r="B772" s="75"/>
+      <c r="C772" s="76"/>
+      <c r="D772" s="77"/>
+      <c r="E772" s="78"/>
+      <c r="F772" s="25"/>
+      <c r="G772" s="25"/>
+    </row>
+    <row r="773" customHeight="1" spans="1:7">
+      <c r="A773" s="76"/>
+      <c r="B773" s="75"/>
+      <c r="C773" s="76"/>
+      <c r="D773" s="77"/>
+      <c r="E773" s="78"/>
+      <c r="F773" s="25"/>
+      <c r="G773" s="25"/>
+    </row>
+    <row r="774" customHeight="1" spans="1:7">
+      <c r="A774" s="76"/>
+      <c r="B774" s="75"/>
+      <c r="C774" s="76"/>
+      <c r="D774" s="77"/>
+      <c r="E774" s="78"/>
+      <c r="F774" s="25"/>
+      <c r="G774" s="25"/>
+    </row>
+    <row r="775" customHeight="1" spans="1:7">
+      <c r="A775" s="76"/>
+      <c r="B775" s="75"/>
+      <c r="C775" s="76"/>
+      <c r="D775" s="77"/>
+      <c r="E775" s="78"/>
+      <c r="F775" s="25"/>
+      <c r="G775" s="25"/>
+    </row>
+    <row r="776" customHeight="1" spans="1:7">
+      <c r="A776" s="76"/>
+      <c r="B776" s="75"/>
+      <c r="C776" s="76"/>
+      <c r="D776" s="77"/>
+      <c r="E776" s="78"/>
+      <c r="F776" s="25"/>
+      <c r="G776" s="25"/>
+    </row>
+    <row r="777" customHeight="1" spans="1:7">
+      <c r="A777" s="76"/>
+      <c r="B777" s="75"/>
+      <c r="C777" s="76"/>
+      <c r="D777" s="77"/>
+      <c r="E777" s="78"/>
+      <c r="F777" s="25"/>
+      <c r="G777" s="25"/>
+    </row>
+    <row r="778" customHeight="1" spans="1:7">
+      <c r="A778" s="76"/>
+      <c r="B778" s="75"/>
+      <c r="C778" s="76"/>
+      <c r="D778" s="77"/>
+      <c r="E778" s="78"/>
+      <c r="F778" s="25"/>
+      <c r="G778" s="25"/>
+    </row>
+    <row r="779" customHeight="1" spans="1:7">
+      <c r="A779" s="76"/>
+      <c r="B779" s="75"/>
+      <c r="C779" s="76"/>
+      <c r="D779" s="77"/>
+      <c r="E779" s="78"/>
+      <c r="F779" s="25"/>
+      <c r="G779" s="25"/>
+    </row>
+    <row r="780" customHeight="1" spans="1:7">
+      <c r="A780" s="76"/>
+      <c r="B780" s="75"/>
+      <c r="C780" s="76"/>
+      <c r="D780" s="77"/>
+      <c r="E780" s="78"/>
+      <c r="F780" s="25"/>
+      <c r="G780" s="25"/>
+    </row>
+    <row r="781" customHeight="1" spans="1:7">
+      <c r="A781" s="76"/>
+      <c r="B781" s="75"/>
+      <c r="C781" s="76"/>
+      <c r="D781" s="77"/>
+      <c r="E781" s="78"/>
+      <c r="F781" s="25"/>
+      <c r="G781" s="25"/>
+    </row>
+    <row r="782" customHeight="1" spans="1:7">
+      <c r="A782" s="76"/>
+      <c r="B782" s="75"/>
+      <c r="C782" s="76"/>
+      <c r="D782" s="77"/>
+      <c r="E782" s="78"/>
+      <c r="F782" s="25"/>
+      <c r="G782" s="25"/>
+    </row>
+    <row r="783" customHeight="1" spans="1:7">
+      <c r="A783" s="76"/>
+      <c r="B783" s="75"/>
+      <c r="C783" s="76"/>
+      <c r="D783" s="77"/>
+      <c r="E783" s="78"/>
+      <c r="F783" s="25"/>
+      <c r="G783" s="25"/>
+    </row>
+    <row r="784" customHeight="1" spans="1:7">
+      <c r="A784" s="76"/>
+      <c r="B784" s="75"/>
+      <c r="C784" s="76"/>
+      <c r="D784" s="77"/>
+      <c r="E784" s="78"/>
+      <c r="F784" s="25"/>
+      <c r="G784" s="25"/>
+    </row>
+    <row r="785" customHeight="1" spans="1:7">
+      <c r="A785" s="76"/>
+      <c r="B785" s="75"/>
+      <c r="C785" s="76"/>
+      <c r="D785" s="77"/>
+      <c r="E785" s="78"/>
+      <c r="F785" s="25"/>
+      <c r="G785" s="25"/>
+    </row>
+    <row r="786" customHeight="1" spans="1:7">
+      <c r="A786" s="76"/>
+      <c r="B786" s="75"/>
+      <c r="C786" s="76"/>
+      <c r="D786" s="77"/>
+      <c r="E786" s="78"/>
+      <c r="F786" s="25"/>
+      <c r="G786" s="25"/>
+    </row>
+    <row r="787" customHeight="1" spans="1:7">
+      <c r="A787" s="76"/>
+      <c r="B787" s="75"/>
+      <c r="C787" s="76"/>
+      <c r="D787" s="77"/>
+      <c r="E787" s="78"/>
+      <c r="F787" s="25"/>
+      <c r="G787" s="25"/>
+    </row>
+    <row r="788" customHeight="1" spans="1:7">
+      <c r="A788" s="76"/>
+      <c r="B788" s="75"/>
+      <c r="C788" s="76"/>
+      <c r="D788" s="77"/>
+      <c r="E788" s="78"/>
+      <c r="F788" s="25"/>
+      <c r="G788" s="25"/>
+    </row>
+    <row r="789" customHeight="1" spans="1:7">
+      <c r="A789" s="76"/>
+      <c r="B789" s="75"/>
+      <c r="C789" s="76"/>
+      <c r="D789" s="77"/>
+      <c r="E789" s="78"/>
+      <c r="F789" s="25"/>
+      <c r="G789" s="25"/>
+    </row>
+    <row r="790" customHeight="1" spans="1:7">
+      <c r="A790" s="76"/>
+      <c r="B790" s="75"/>
+      <c r="C790" s="76"/>
+      <c r="D790" s="77"/>
+      <c r="E790" s="78"/>
+      <c r="F790" s="25"/>
+      <c r="G790" s="25"/>
+    </row>
+    <row r="791" customHeight="1" spans="1:7">
+      <c r="A791" s="76"/>
+      <c r="B791" s="75"/>
+      <c r="C791" s="76"/>
+      <c r="D791" s="77"/>
+      <c r="E791" s="78"/>
+      <c r="F791" s="25"/>
+      <c r="G791" s="25"/>
+    </row>
+    <row r="792" customHeight="1" spans="1:7">
+      <c r="A792" s="76"/>
+      <c r="B792" s="75"/>
+      <c r="C792" s="76"/>
+      <c r="D792" s="77"/>
+      <c r="E792" s="78"/>
+      <c r="F792" s="25"/>
+      <c r="G792" s="25"/>
+    </row>
+    <row r="793" customHeight="1" spans="1:7">
+      <c r="A793" s="76"/>
+      <c r="B793" s="75"/>
+      <c r="C793" s="76"/>
+      <c r="D793" s="77"/>
+      <c r="E793" s="78"/>
+      <c r="F793" s="25"/>
+      <c r="G793" s="25"/>
+    </row>
+    <row r="794" customHeight="1" spans="1:7">
+      <c r="A794" s="76"/>
+      <c r="B794" s="75"/>
+      <c r="C794" s="76"/>
+      <c r="D794" s="77"/>
+      <c r="E794" s="78"/>
+      <c r="F794" s="25"/>
+      <c r="G794" s="25"/>
+    </row>
+    <row r="795" customHeight="1" spans="1:7">
+      <c r="A795" s="76"/>
+      <c r="B795" s="75"/>
+      <c r="C795" s="76"/>
+      <c r="D795" s="77"/>
+      <c r="E795" s="78"/>
+      <c r="F795" s="25"/>
+      <c r="G795" s="25"/>
+    </row>
+    <row r="796" customHeight="1" spans="1:7">
+      <c r="A796" s="76"/>
+      <c r="B796" s="75"/>
+      <c r="C796" s="76"/>
+      <c r="D796" s="77"/>
+      <c r="E796" s="78"/>
+      <c r="F796" s="25"/>
+      <c r="G796" s="25"/>
+    </row>
+    <row r="797" customHeight="1" spans="1:7">
+      <c r="A797" s="76"/>
+      <c r="B797" s="75"/>
+      <c r="C797" s="76"/>
+      <c r="D797" s="77"/>
+      <c r="E797" s="78"/>
+      <c r="F797" s="25"/>
+      <c r="G797" s="25"/>
+    </row>
+    <row r="798" customHeight="1" spans="1:7">
+      <c r="A798" s="76"/>
+      <c r="B798" s="75"/>
+      <c r="C798" s="76"/>
+      <c r="D798" s="77"/>
+      <c r="E798" s="78"/>
+      <c r="F798" s="25"/>
+      <c r="G798" s="25"/>
+    </row>
+    <row r="799" customHeight="1" spans="1:7">
+      <c r="A799" s="76"/>
+      <c r="B799" s="75"/>
+      <c r="C799" s="76"/>
+      <c r="D799" s="77"/>
+      <c r="E799" s="78"/>
+      <c r="F799" s="25"/>
+      <c r="G799" s="25"/>
+    </row>
+    <row r="800" customHeight="1" spans="1:7">
+      <c r="A800" s="76"/>
+      <c r="B800" s="75"/>
+      <c r="C800" s="76"/>
+      <c r="D800" s="77"/>
+      <c r="E800" s="78"/>
+      <c r="F800" s="25"/>
+      <c r="G800" s="25"/>
+    </row>
+    <row r="801" customHeight="1" spans="1:7">
+      <c r="A801" s="76"/>
+      <c r="B801" s="75"/>
+      <c r="C801" s="76"/>
+      <c r="D801" s="77"/>
+      <c r="E801" s="78"/>
+      <c r="F801" s="25"/>
+      <c r="G801" s="25"/>
+    </row>
+    <row r="802" customHeight="1" spans="1:7">
+      <c r="A802" s="76"/>
+      <c r="B802" s="75"/>
+      <c r="C802" s="76"/>
+      <c r="D802" s="77"/>
+      <c r="E802" s="78"/>
+      <c r="F802" s="25"/>
+      <c r="G802" s="25"/>
+    </row>
+    <row r="803" customHeight="1" spans="1:7">
+      <c r="A803" s="76"/>
+      <c r="B803" s="75"/>
+      <c r="C803" s="76"/>
+      <c r="D803" s="77"/>
+      <c r="E803" s="78"/>
+      <c r="F803" s="25"/>
+      <c r="G803" s="25"/>
+    </row>
+    <row r="804" customHeight="1" spans="1:7">
+      <c r="A804" s="76"/>
+      <c r="B804" s="75"/>
+      <c r="C804" s="76"/>
+      <c r="D804" s="77"/>
+      <c r="E804" s="78"/>
+      <c r="F804" s="25"/>
+      <c r="G804" s="25"/>
+    </row>
+    <row r="805" customHeight="1" spans="1:7">
+      <c r="A805" s="76"/>
+      <c r="B805" s="75"/>
+      <c r="C805" s="76"/>
+      <c r="D805" s="77"/>
+      <c r="E805" s="78"/>
+      <c r="F805" s="25"/>
+      <c r="G805" s="25"/>
+    </row>
+    <row r="806" customHeight="1" spans="1:7">
+      <c r="A806" s="76"/>
+      <c r="B806" s="75"/>
+      <c r="C806" s="76"/>
+      <c r="D806" s="77"/>
+      <c r="E806" s="78"/>
+      <c r="F806" s="25"/>
+      <c r="G806" s="25"/>
+    </row>
+    <row r="807" customHeight="1" spans="1:7">
+      <c r="A807" s="76"/>
+      <c r="B807" s="75"/>
+      <c r="C807" s="76"/>
+      <c r="D807" s="77"/>
+      <c r="E807" s="78"/>
+      <c r="F807" s="25"/>
+      <c r="G807" s="25"/>
+    </row>
+    <row r="808" customHeight="1" spans="1:7">
+      <c r="A808" s="76"/>
+      <c r="B808" s="75"/>
+      <c r="C808" s="76"/>
+      <c r="D808" s="77"/>
+      <c r="E808" s="78"/>
+      <c r="F808" s="25"/>
+      <c r="G808" s="25"/>
+    </row>
+    <row r="809" customHeight="1" spans="1:7">
+      <c r="A809" s="76"/>
+      <c r="B809" s="75"/>
+      <c r="C809" s="76"/>
+      <c r="D809" s="77"/>
+      <c r="E809" s="78"/>
+      <c r="F809" s="78"/>
+      <c r="G809" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/DateBase/flawers/flower.xlsx
+++ b/DateBase/flawers/flower.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1091">
   <si>
     <t>id</t>
   </si>
@@ -3556,6 +3556,30 @@
   </si>
   <si>
     <t>豌豆花粉</t>
+  </si>
+  <si>
+    <t>雪花松</t>
+  </si>
+  <si>
+    <t>芍药老忠诚</t>
+  </si>
+  <si>
+    <t>Old Faith</t>
+  </si>
+  <si>
+    <t>芍药凯瑟琳</t>
+  </si>
+  <si>
+    <t>Catherine</t>
+  </si>
+  <si>
+    <t>芍药红富士</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>芍药蓝富士</t>
   </si>
 </sst>
 </file>
@@ -6000,11 +6024,11 @@
   <dimension ref="A1:H809"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B717" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B740" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E735" sqref="E735"/>
+      <selection pane="bottomRight" activeCell="G767" sqref="G767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3362831858407" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="7"/>
@@ -19653,10 +19677,16 @@
       </c>
       <c r="B757" s="75"/>
       <c r="C757" s="76"/>
-      <c r="D757" s="74"/>
+      <c r="D757" s="74" t="s">
+        <v>1083</v>
+      </c>
       <c r="E757" s="74"/>
-      <c r="F757" s="25"/>
-      <c r="G757" s="25"/>
+      <c r="F757" s="25">
+        <v>1</v>
+      </c>
+      <c r="G757" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="758" customHeight="1" spans="1:7">
       <c r="A758" s="21">
@@ -19664,10 +19694,18 @@
       </c>
       <c r="B758" s="75"/>
       <c r="C758" s="76"/>
-      <c r="D758" s="74"/>
-      <c r="E758" s="74"/>
-      <c r="F758" s="25"/>
-      <c r="G758" s="25"/>
+      <c r="D758" s="74" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E758" s="74" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F758" s="25">
+        <v>10</v>
+      </c>
+      <c r="G758" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="759" customHeight="1" spans="1:7">
       <c r="A759" s="21">
@@ -19675,10 +19713,18 @@
       </c>
       <c r="B759" s="75"/>
       <c r="C759" s="76"/>
-      <c r="D759" s="74"/>
-      <c r="E759" s="74"/>
-      <c r="F759" s="25"/>
-      <c r="G759" s="25"/>
+      <c r="D759" s="74" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E759" s="74" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F759" s="25">
+        <v>10</v>
+      </c>
+      <c r="G759" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="760" customHeight="1" spans="1:7">
       <c r="A760" s="21">
@@ -19686,10 +19732,18 @@
       </c>
       <c r="B760" s="75"/>
       <c r="C760" s="76"/>
-      <c r="D760" s="74"/>
-      <c r="E760" s="74"/>
-      <c r="F760" s="25"/>
-      <c r="G760" s="25"/>
+      <c r="D760" s="74" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E760" s="74" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F760" s="25">
+        <v>10</v>
+      </c>
+      <c r="G760" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="761" customHeight="1" spans="1:7">
       <c r="A761" s="21">
@@ -19697,10 +19751,16 @@
       </c>
       <c r="B761" s="75"/>
       <c r="C761" s="76"/>
-      <c r="D761" s="74"/>
+      <c r="D761" s="74" t="s">
+        <v>1090</v>
+      </c>
       <c r="E761" s="74"/>
-      <c r="F761" s="25"/>
-      <c r="G761" s="25"/>
+      <c r="F761" s="25">
+        <v>10</v>
+      </c>
+      <c r="G761" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="762" customHeight="1" spans="1:7">
       <c r="A762" s="76"/>

--- a/DateBase/flawers/flower.xlsx
+++ b/DateBase/flawers/flower.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2038" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1108">
   <si>
     <t>id</t>
   </si>
@@ -2408,10 +2408,10 @@
     <t>Alstroemeria</t>
   </si>
   <si>
-    <t>络新妇</t>
-  </si>
-  <si>
-    <t>Astilbe</t>
+    <t>络新妇粉</t>
+  </si>
+  <si>
+    <t>Astilbe pink</t>
   </si>
   <si>
     <t>海芋白</t>
@@ -3162,6 +3162,15 @@
     <t>康乃馨眼线</t>
   </si>
   <si>
+    <t>康乃馨樱桃紫</t>
+  </si>
+  <si>
+    <t>康乃馨梅根</t>
+  </si>
+  <si>
+    <t>康乃馨桃红</t>
+  </si>
+  <si>
     <t>吸色康乃馨天蓝</t>
   </si>
   <si>
@@ -3580,6 +3589,48 @@
   </si>
   <si>
     <t>芍药蓝富士</t>
+  </si>
+  <si>
+    <t>芍药奶油碗</t>
+  </si>
+  <si>
+    <t>芍药杨妃</t>
+  </si>
+  <si>
+    <t>芍药独家记忆</t>
+  </si>
+  <si>
+    <t>芍药莎拉多头</t>
+  </si>
+  <si>
+    <t>弯葱</t>
+  </si>
+  <si>
+    <t>美洲茶</t>
+  </si>
+  <si>
+    <t>格桑花粉</t>
+  </si>
+  <si>
+    <t>格桑花白</t>
+  </si>
+  <si>
+    <t>紫娇花</t>
+  </si>
+  <si>
+    <t>海芋黑</t>
+  </si>
+  <si>
+    <t>亚布流星</t>
+  </si>
+  <si>
+    <t>络新妇白</t>
+  </si>
+  <si>
+    <t>Astilbe white</t>
+  </si>
+  <si>
+    <t>小白菊</t>
   </si>
 </sst>
 </file>
@@ -4850,11 +4901,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6024,11 +6075,11 @@
   <dimension ref="A1:H809"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B740" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B774" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G767" sqref="G767"/>
+      <selection pane="bottomRight" activeCell="C795" sqref="C795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3362831858407" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="7"/>
@@ -17394,10 +17445,16 @@
       </c>
       <c r="B620" s="73"/>
       <c r="C620" s="67"/>
-      <c r="D620" s="67"/>
+      <c r="D620" s="67" t="s">
+        <v>951</v>
+      </c>
       <c r="E620" s="67"/>
-      <c r="F620" s="67"/>
-      <c r="G620" s="67"/>
+      <c r="F620" s="67">
+        <v>20</v>
+      </c>
+      <c r="G620" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="621" customHeight="1" spans="1:7">
       <c r="A621" s="21">
@@ -17405,10 +17462,16 @@
       </c>
       <c r="B621" s="73"/>
       <c r="C621" s="67"/>
-      <c r="D621" s="67"/>
+      <c r="D621" s="67" t="s">
+        <v>952</v>
+      </c>
       <c r="E621" s="67"/>
-      <c r="F621" s="67"/>
-      <c r="G621" s="67"/>
+      <c r="F621" s="67">
+        <v>20</v>
+      </c>
+      <c r="G621" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="622" customHeight="1" spans="1:7">
       <c r="A622" s="21">
@@ -17416,10 +17479,16 @@
       </c>
       <c r="B622" s="73"/>
       <c r="C622" s="67"/>
-      <c r="D622" s="67"/>
+      <c r="D622" s="67" t="s">
+        <v>953</v>
+      </c>
       <c r="E622" s="67"/>
-      <c r="F622" s="67"/>
-      <c r="G622" s="67"/>
+      <c r="F622" s="67">
+        <v>20</v>
+      </c>
+      <c r="G622" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="623" customHeight="1" spans="1:7">
       <c r="A623" s="21">
@@ -17516,10 +17585,10 @@
       <c r="B631" s="73"/>
       <c r="C631" s="67"/>
       <c r="D631" s="67" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E631" s="67" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="F631" s="67">
         <v>20</v>
@@ -17535,10 +17604,10 @@
       <c r="B632" s="73"/>
       <c r="C632" s="67"/>
       <c r="D632" s="67" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="E632" s="67" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="F632" s="67">
         <v>20</v>
@@ -17554,10 +17623,10 @@
       <c r="B633" s="73"/>
       <c r="C633" s="67"/>
       <c r="D633" s="67" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="E633" s="67" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="F633" s="67">
         <v>20</v>
@@ -17573,7 +17642,7 @@
       <c r="B634" s="73"/>
       <c r="C634" s="67"/>
       <c r="D634" s="67" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="E634" s="67"/>
       <c r="F634" s="67">
@@ -17590,7 +17659,7 @@
       <c r="B635" s="22"/>
       <c r="C635" s="23"/>
       <c r="D635" s="67" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E635" s="67"/>
       <c r="F635" s="67">
@@ -17607,7 +17676,7 @@
       <c r="B636" s="22"/>
       <c r="C636" s="23"/>
       <c r="D636" s="67" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E636" s="67"/>
       <c r="F636" s="67">
@@ -17624,7 +17693,7 @@
       <c r="B637" s="22"/>
       <c r="C637" s="23"/>
       <c r="D637" s="67" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E637" s="67"/>
       <c r="F637" s="67">
@@ -17641,7 +17710,7 @@
       <c r="B638" s="22"/>
       <c r="C638" s="23"/>
       <c r="D638" s="67" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E638" s="67"/>
       <c r="F638" s="67">
@@ -17658,7 +17727,7 @@
       <c r="B639" s="22"/>
       <c r="C639" s="23"/>
       <c r="D639" s="67" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E639" s="67"/>
       <c r="F639" s="67">
@@ -17675,7 +17744,7 @@
       <c r="B640" s="22"/>
       <c r="C640" s="23"/>
       <c r="D640" s="67" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E640" s="67"/>
       <c r="F640" s="67">
@@ -17692,7 +17761,7 @@
       <c r="B641" s="22"/>
       <c r="C641" s="23"/>
       <c r="D641" s="67" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E641" s="67"/>
       <c r="F641" s="67">
@@ -17709,10 +17778,10 @@
       <c r="B642" s="22"/>
       <c r="C642" s="23"/>
       <c r="D642" s="67" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E642" s="67" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="F642" s="67">
         <v>1</v>
@@ -17728,7 +17797,7 @@
       <c r="B643" s="22"/>
       <c r="C643" s="23"/>
       <c r="D643" s="67" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="E643" s="67"/>
       <c r="F643" s="67">
@@ -17745,7 +17814,7 @@
       <c r="B644" s="22"/>
       <c r="C644" s="23"/>
       <c r="D644" s="67" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="E644" s="67"/>
       <c r="F644" s="67">
@@ -17762,7 +17831,7 @@
       <c r="B645" s="22"/>
       <c r="C645" s="23"/>
       <c r="D645" s="67" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E645" s="67"/>
       <c r="F645" s="67">
@@ -17779,7 +17848,7 @@
       <c r="B646" s="22"/>
       <c r="C646" s="23"/>
       <c r="D646" s="67" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E646" s="67"/>
       <c r="F646" s="67">
@@ -17796,10 +17865,10 @@
       <c r="B647" s="22"/>
       <c r="C647" s="23"/>
       <c r="D647" s="67" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E647" s="67" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F647" s="67">
         <v>5</v>
@@ -17815,7 +17884,7 @@
       <c r="B648" s="22"/>
       <c r="C648" s="23"/>
       <c r="D648" s="67" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E648" s="67"/>
       <c r="F648" s="67">
@@ -17832,7 +17901,7 @@
       <c r="B649" s="22"/>
       <c r="C649" s="23"/>
       <c r="D649" s="67" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E649" s="67"/>
       <c r="F649" s="67">
@@ -17849,7 +17918,7 @@
       <c r="B650" s="22"/>
       <c r="C650" s="23"/>
       <c r="D650" s="67" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E650" s="67"/>
       <c r="F650" s="67">
@@ -17866,7 +17935,7 @@
       <c r="B651" s="22"/>
       <c r="C651" s="23"/>
       <c r="D651" s="67" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="E651" s="67"/>
       <c r="F651" s="67">
@@ -17883,7 +17952,7 @@
       <c r="B652" s="22"/>
       <c r="C652" s="23"/>
       <c r="D652" s="28" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E652" s="25"/>
       <c r="F652" s="25">
@@ -17900,7 +17969,7 @@
       <c r="B653" s="22"/>
       <c r="C653" s="23"/>
       <c r="D653" s="28" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E653" s="25"/>
       <c r="F653" s="25">
@@ -17917,7 +17986,7 @@
       <c r="B654" s="22"/>
       <c r="C654" s="23"/>
       <c r="D654" s="28" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E654" s="25"/>
       <c r="F654" s="25">
@@ -17934,7 +18003,7 @@
       <c r="B655" s="22"/>
       <c r="C655" s="23"/>
       <c r="D655" s="28" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E655" s="25"/>
       <c r="F655" s="25">
@@ -17951,7 +18020,7 @@
       <c r="B656" s="22"/>
       <c r="C656" s="23"/>
       <c r="D656" s="28" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E656" s="25"/>
       <c r="F656" s="25">
@@ -17968,7 +18037,7 @@
       <c r="B657" s="22"/>
       <c r="C657" s="23"/>
       <c r="D657" s="28" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E657" s="25"/>
       <c r="F657" s="25">
@@ -17985,7 +18054,7 @@
       <c r="B658" s="22"/>
       <c r="C658" s="23"/>
       <c r="D658" s="28" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="E658" s="25"/>
       <c r="F658" s="25">
@@ -18002,7 +18071,7 @@
       <c r="B659" s="22"/>
       <c r="C659" s="23"/>
       <c r="D659" s="28" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E659" s="25"/>
       <c r="F659" s="25">
@@ -18019,7 +18088,7 @@
       <c r="B660" s="22"/>
       <c r="C660" s="23"/>
       <c r="D660" s="28" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="E660" s="25"/>
       <c r="F660" s="25">
@@ -18036,7 +18105,7 @@
       <c r="B661" s="22"/>
       <c r="C661" s="23"/>
       <c r="D661" s="28" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E661" s="25"/>
       <c r="F661" s="25">
@@ -18053,7 +18122,7 @@
       <c r="B662" s="22"/>
       <c r="C662" s="23"/>
       <c r="D662" s="28" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="E662" s="25"/>
       <c r="F662" s="25">
@@ -18070,7 +18139,7 @@
       <c r="B663" s="22"/>
       <c r="C663" s="23"/>
       <c r="D663" s="28" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E663" s="25"/>
       <c r="F663" s="25">
@@ -18087,7 +18156,7 @@
       <c r="B664" s="22"/>
       <c r="C664" s="23"/>
       <c r="D664" s="28" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="E664" s="25"/>
       <c r="F664" s="25">
@@ -18104,7 +18173,7 @@
       <c r="B665" s="22"/>
       <c r="C665" s="23"/>
       <c r="D665" s="28" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E665" s="25"/>
       <c r="F665" s="25">
@@ -18121,7 +18190,7 @@
       <c r="B666" s="22"/>
       <c r="C666" s="23"/>
       <c r="D666" s="28" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E666" s="25"/>
       <c r="F666" s="25">
@@ -18138,7 +18207,7 @@
       <c r="B667" s="22"/>
       <c r="C667" s="23"/>
       <c r="D667" s="28" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E667" s="25"/>
       <c r="F667" s="25">
@@ -18155,7 +18224,7 @@
       <c r="B668" s="22"/>
       <c r="C668" s="23"/>
       <c r="D668" s="28" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="E668" s="25"/>
       <c r="F668" s="25">
@@ -18172,7 +18241,7 @@
       <c r="B669" s="22"/>
       <c r="C669" s="23"/>
       <c r="D669" s="28" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E669" s="25"/>
       <c r="F669" s="25">
@@ -18189,7 +18258,7 @@
       <c r="B670" s="22"/>
       <c r="C670" s="23"/>
       <c r="D670" s="28" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="E670" s="25"/>
       <c r="F670" s="25">
@@ -18206,7 +18275,7 @@
       <c r="B671" s="22"/>
       <c r="C671" s="23"/>
       <c r="D671" s="28" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E671" s="25"/>
       <c r="F671" s="25">
@@ -18223,7 +18292,7 @@
       <c r="B672" s="22"/>
       <c r="C672" s="23"/>
       <c r="D672" s="28" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="E672" s="25"/>
       <c r="F672" s="25">
@@ -18240,7 +18309,7 @@
       <c r="B673" s="22"/>
       <c r="C673" s="23"/>
       <c r="D673" s="28" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E673" s="25"/>
       <c r="F673" s="25">
@@ -18257,7 +18326,7 @@
       <c r="B674" s="22"/>
       <c r="C674" s="23"/>
       <c r="D674" s="28" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="E674" s="25"/>
       <c r="F674" s="25">
@@ -18274,7 +18343,7 @@
       <c r="B675" s="22"/>
       <c r="C675" s="23"/>
       <c r="D675" s="24" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E675" s="25"/>
       <c r="F675" s="25">
@@ -18291,7 +18360,7 @@
       <c r="B676" s="22"/>
       <c r="C676" s="23"/>
       <c r="D676" s="28" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E676" s="25"/>
       <c r="F676" s="25">
@@ -18308,7 +18377,7 @@
       <c r="B677" s="28"/>
       <c r="C677" s="28"/>
       <c r="D677" s="24" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E677" s="67"/>
       <c r="F677" s="25">
@@ -18325,7 +18394,7 @@
       <c r="B678" s="28"/>
       <c r="C678" s="28"/>
       <c r="D678" s="74" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="E678" s="67"/>
       <c r="F678" s="67">
@@ -18342,7 +18411,7 @@
       <c r="B679" s="28"/>
       <c r="C679" s="28"/>
       <c r="D679" s="28" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="E679" s="28"/>
       <c r="F679" s="67">
@@ -18359,7 +18428,7 @@
       <c r="B680" s="28"/>
       <c r="C680" s="28"/>
       <c r="D680" s="28" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E680" s="28"/>
       <c r="F680" s="67">
@@ -18376,7 +18445,7 @@
       <c r="B681" s="28"/>
       <c r="C681" s="28"/>
       <c r="D681" s="28" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="E681" s="28"/>
       <c r="F681" s="67">
@@ -18393,7 +18462,7 @@
       <c r="B682" s="28"/>
       <c r="C682" s="28"/>
       <c r="D682" s="28" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E682" s="28"/>
       <c r="F682" s="67">
@@ -18410,7 +18479,7 @@
       <c r="B683" s="28"/>
       <c r="C683" s="28"/>
       <c r="D683" s="28" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E683" s="28"/>
       <c r="F683" s="67">
@@ -18427,7 +18496,7 @@
       <c r="B684" s="28"/>
       <c r="C684" s="28"/>
       <c r="D684" s="28" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="E684" s="28"/>
       <c r="F684" s="67">
@@ -18466,7 +18535,7 @@
       <c r="B687" s="28"/>
       <c r="C687" s="28"/>
       <c r="D687" s="28" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E687" s="28"/>
       <c r="F687" s="25">
@@ -18483,7 +18552,7 @@
       <c r="B688" s="28"/>
       <c r="C688" s="28"/>
       <c r="D688" s="28" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E688" s="28"/>
       <c r="F688" s="25">
@@ -18500,7 +18569,7 @@
       <c r="B689" s="28"/>
       <c r="C689" s="28"/>
       <c r="D689" s="28" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="E689" s="28"/>
       <c r="F689" s="25">
@@ -18517,7 +18586,7 @@
       <c r="B690" s="28"/>
       <c r="C690" s="28"/>
       <c r="D690" s="28" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="E690" s="28"/>
       <c r="F690" s="25">
@@ -18534,7 +18603,7 @@
       <c r="B691" s="28"/>
       <c r="C691" s="28"/>
       <c r="D691" s="28" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E691" s="28"/>
       <c r="F691" s="25">
@@ -18551,7 +18620,7 @@
       <c r="B692" s="28"/>
       <c r="C692" s="28"/>
       <c r="D692" s="28" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E692" s="28"/>
       <c r="F692" s="25">
@@ -18568,7 +18637,7 @@
       <c r="B693" s="28"/>
       <c r="C693" s="28"/>
       <c r="D693" s="28" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="E693" s="28"/>
       <c r="F693" s="25">
@@ -18585,7 +18654,7 @@
       <c r="B694" s="28"/>
       <c r="C694" s="28"/>
       <c r="D694" s="28" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E694" s="28"/>
       <c r="F694" s="25">
@@ -18602,7 +18671,7 @@
       <c r="B695" s="28"/>
       <c r="C695" s="28"/>
       <c r="D695" s="28" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="E695" s="28"/>
       <c r="F695" s="25">
@@ -18619,7 +18688,7 @@
       <c r="B696" s="28"/>
       <c r="C696" s="28"/>
       <c r="D696" s="28" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E696" s="28"/>
       <c r="F696" s="25">
@@ -18636,7 +18705,7 @@
       <c r="B697" s="28"/>
       <c r="C697" s="28"/>
       <c r="D697" s="28" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E697" s="28"/>
       <c r="F697" s="25">
@@ -18653,7 +18722,7 @@
       <c r="B698" s="28"/>
       <c r="C698" s="28"/>
       <c r="D698" s="28" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E698" s="28"/>
       <c r="F698" s="25">
@@ -18670,7 +18739,7 @@
       <c r="B699" s="28"/>
       <c r="C699" s="28"/>
       <c r="D699" s="28" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="E699" s="28"/>
       <c r="F699" s="25">
@@ -18687,7 +18756,7 @@
       <c r="B700" s="28"/>
       <c r="C700" s="28"/>
       <c r="D700" s="28" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E700" s="28"/>
       <c r="F700" s="25">
@@ -18704,7 +18773,7 @@
       <c r="B701" s="28"/>
       <c r="C701" s="28"/>
       <c r="D701" s="28" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="E701" s="28"/>
       <c r="F701" s="25">
@@ -18721,7 +18790,7 @@
       <c r="B702" s="28"/>
       <c r="C702" s="28"/>
       <c r="D702" s="28" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E702" s="28"/>
       <c r="F702" s="25">
@@ -18738,7 +18807,7 @@
       <c r="B703" s="28"/>
       <c r="C703" s="28"/>
       <c r="D703" s="28" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="E703" s="28"/>
       <c r="F703" s="25">
@@ -18755,7 +18824,7 @@
       <c r="B704" s="28"/>
       <c r="C704" s="28"/>
       <c r="D704" s="28" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E704" s="28"/>
       <c r="F704" s="25">
@@ -18772,7 +18841,7 @@
       <c r="B705" s="28"/>
       <c r="C705" s="28"/>
       <c r="D705" s="28" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E705" s="28"/>
       <c r="F705" s="25">
@@ -18789,7 +18858,7 @@
       <c r="B706" s="28"/>
       <c r="C706" s="28"/>
       <c r="D706" s="28" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="E706" s="28"/>
       <c r="F706" s="25">
@@ -18806,7 +18875,7 @@
       <c r="B707" s="28"/>
       <c r="C707" s="28"/>
       <c r="D707" s="28" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="E707" s="28"/>
       <c r="F707" s="25">
@@ -18823,7 +18892,7 @@
       <c r="B708" s="28"/>
       <c r="C708" s="28"/>
       <c r="D708" s="28" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="E708" s="28"/>
       <c r="F708" s="25">
@@ -18840,7 +18909,7 @@
       <c r="B709" s="28"/>
       <c r="C709" s="28"/>
       <c r="D709" s="28" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E709" s="28"/>
       <c r="F709" s="25">
@@ -18857,7 +18926,7 @@
       <c r="B710" s="28"/>
       <c r="C710" s="28"/>
       <c r="D710" s="28" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="E710" s="28"/>
       <c r="F710" s="25">
@@ -18874,7 +18943,7 @@
       <c r="B711" s="28"/>
       <c r="C711" s="28"/>
       <c r="D711" s="28" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E711" s="28"/>
       <c r="F711" s="25">
@@ -18891,7 +18960,7 @@
       <c r="B712" s="28"/>
       <c r="C712" s="28"/>
       <c r="D712" s="28" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="E712" s="28"/>
       <c r="F712" s="25">
@@ -18908,7 +18977,7 @@
       <c r="B713" s="28"/>
       <c r="C713" s="28"/>
       <c r="D713" s="28" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E713" s="28"/>
       <c r="F713" s="25">
@@ -18925,10 +18994,10 @@
       <c r="B714" s="28"/>
       <c r="C714" s="28"/>
       <c r="D714" s="28" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="E714" s="25" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="F714" s="25">
         <v>1</v>
@@ -18944,7 +19013,7 @@
       <c r="B715" s="28"/>
       <c r="C715" s="28"/>
       <c r="D715" s="28" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E715" s="28"/>
       <c r="F715" s="25">
@@ -18961,7 +19030,7 @@
       <c r="B716" s="28"/>
       <c r="C716" s="28"/>
       <c r="D716" s="28" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="E716" s="28"/>
       <c r="F716" s="25">
@@ -18978,7 +19047,7 @@
       <c r="B717" s="28"/>
       <c r="C717" s="28"/>
       <c r="D717" s="28" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E717" s="28"/>
       <c r="F717" s="25">
@@ -18995,7 +19064,7 @@
       <c r="B718" s="28"/>
       <c r="C718" s="28"/>
       <c r="D718" s="28" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E718" s="28"/>
       <c r="F718" s="25">
@@ -19012,7 +19081,7 @@
       <c r="B719" s="28"/>
       <c r="C719" s="28"/>
       <c r="D719" s="28" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E719" s="28"/>
       <c r="F719" s="25">
@@ -19029,7 +19098,7 @@
       <c r="B720" s="28"/>
       <c r="C720" s="28"/>
       <c r="D720" s="28" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="E720" s="28"/>
       <c r="F720" s="25">
@@ -19046,7 +19115,7 @@
       <c r="B721" s="28"/>
       <c r="C721" s="28"/>
       <c r="D721" s="28" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="E721" s="28"/>
       <c r="F721" s="25">
@@ -19063,7 +19132,7 @@
       <c r="B722" s="28"/>
       <c r="C722" s="28"/>
       <c r="D722" s="28" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="E722" s="28"/>
       <c r="F722" s="25">
@@ -19080,7 +19149,7 @@
       <c r="B723" s="28"/>
       <c r="C723" s="28"/>
       <c r="D723" s="74" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="E723" s="25" t="s">
         <v>661</v>
@@ -19099,7 +19168,7 @@
       <c r="B724" s="28"/>
       <c r="C724" s="28"/>
       <c r="D724" s="28" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="E724" s="28"/>
       <c r="F724" s="25">
@@ -19116,7 +19185,7 @@
       <c r="B725" s="28"/>
       <c r="C725" s="28"/>
       <c r="D725" s="28" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="E725" s="28"/>
       <c r="F725" s="25">
@@ -19133,7 +19202,7 @@
       <c r="B726" s="28"/>
       <c r="C726" s="28"/>
       <c r="D726" s="28" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="E726" s="28"/>
       <c r="F726" s="25">
@@ -19150,7 +19219,7 @@
       <c r="B727" s="28"/>
       <c r="C727" s="28"/>
       <c r="D727" s="28" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E727" s="28"/>
       <c r="F727" s="25">
@@ -19167,7 +19236,7 @@
       <c r="B728" s="28"/>
       <c r="C728" s="28"/>
       <c r="D728" s="28" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="E728" s="28"/>
       <c r="F728" s="25">
@@ -19184,7 +19253,7 @@
       <c r="B729" s="28"/>
       <c r="C729" s="28"/>
       <c r="D729" s="28" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E729" s="28"/>
       <c r="F729" s="25">
@@ -19201,7 +19270,7 @@
       <c r="B730" s="28"/>
       <c r="C730" s="28"/>
       <c r="D730" s="28" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="E730" s="28"/>
       <c r="F730" s="25">
@@ -19218,7 +19287,7 @@
       <c r="B731" s="28"/>
       <c r="C731" s="28"/>
       <c r="D731" s="74" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="E731" s="25" t="s">
         <v>724</v>
@@ -19237,7 +19306,7 @@
       <c r="B732" s="28"/>
       <c r="C732" s="28"/>
       <c r="D732" s="28" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="E732" s="28"/>
       <c r="F732" s="25">
@@ -19254,10 +19323,10 @@
       <c r="B733" s="28"/>
       <c r="C733" s="28"/>
       <c r="D733" s="28" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="E733" s="28" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="F733" s="25">
         <v>1</v>
@@ -19273,10 +19342,10 @@
       <c r="B734" s="75"/>
       <c r="C734" s="76"/>
       <c r="D734" s="28" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E734" s="28" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F734" s="25">
         <v>10</v>
@@ -19292,7 +19361,7 @@
       <c r="B735" s="75"/>
       <c r="C735" s="76"/>
       <c r="D735" s="28" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="E735" s="67"/>
       <c r="F735" s="25">
@@ -19309,7 +19378,7 @@
       <c r="B736" s="75"/>
       <c r="C736" s="76"/>
       <c r="D736" s="28" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="E736" s="28"/>
       <c r="F736" s="25">
@@ -19326,7 +19395,7 @@
       <c r="B737" s="75"/>
       <c r="C737" s="76"/>
       <c r="D737" s="28" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E737" s="28"/>
       <c r="F737" s="25">
@@ -19343,7 +19412,7 @@
       <c r="B738" s="75"/>
       <c r="C738" s="76"/>
       <c r="D738" s="28" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="E738" s="28"/>
       <c r="F738" s="25">
@@ -19360,7 +19429,7 @@
       <c r="B739" s="75"/>
       <c r="C739" s="76"/>
       <c r="D739" s="28" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E739" s="28"/>
       <c r="F739" s="25">
@@ -19377,7 +19446,7 @@
       <c r="B740" s="75"/>
       <c r="C740" s="76"/>
       <c r="D740" s="28" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="E740" s="28"/>
       <c r="F740" s="25">
@@ -19394,7 +19463,7 @@
       <c r="B741" s="75"/>
       <c r="C741" s="76"/>
       <c r="D741" s="74" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E741" s="25" t="s">
         <v>686</v>
@@ -19413,7 +19482,7 @@
       <c r="B742" s="75"/>
       <c r="C742" s="76"/>
       <c r="D742" s="28" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="E742" s="28"/>
       <c r="F742" s="25">
@@ -19430,7 +19499,7 @@
       <c r="B743" s="75"/>
       <c r="C743" s="76"/>
       <c r="D743" s="28" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E743" s="28"/>
       <c r="F743" s="25">
@@ -19447,7 +19516,7 @@
       <c r="B744" s="75"/>
       <c r="C744" s="76"/>
       <c r="D744" s="28" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="E744" s="28"/>
       <c r="F744" s="25">
@@ -19464,7 +19533,7 @@
       <c r="B745" s="75"/>
       <c r="C745" s="76"/>
       <c r="D745" s="28" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E745" s="28"/>
       <c r="F745" s="25">
@@ -19481,7 +19550,7 @@
       <c r="B746" s="75"/>
       <c r="C746" s="76"/>
       <c r="D746" s="28" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E746" s="28" t="s">
         <v>706</v>
@@ -19500,7 +19569,7 @@
       <c r="B747" s="75"/>
       <c r="C747" s="76"/>
       <c r="D747" s="74" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E747" s="77" t="s">
         <v>559</v>
@@ -19519,7 +19588,7 @@
       <c r="B748" s="75"/>
       <c r="C748" s="76"/>
       <c r="D748" s="74" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="E748" s="67"/>
       <c r="F748" s="25">
@@ -19536,7 +19605,7 @@
       <c r="B749" s="75"/>
       <c r="C749" s="76"/>
       <c r="D749" s="74" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E749" s="25" t="s">
         <v>601</v>
@@ -19555,7 +19624,7 @@
       <c r="B750" s="75"/>
       <c r="C750" s="76"/>
       <c r="D750" s="28" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="E750" s="28"/>
       <c r="F750" s="25">
@@ -19572,7 +19641,7 @@
       <c r="B751" s="75"/>
       <c r="C751" s="76"/>
       <c r="D751" s="28" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E751" s="28"/>
       <c r="F751" s="25">
@@ -19589,7 +19658,7 @@
       <c r="B752" s="75"/>
       <c r="C752" s="76"/>
       <c r="D752" s="28" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="E752" s="28"/>
       <c r="F752" s="25">
@@ -19606,7 +19675,7 @@
       <c r="B753" s="75"/>
       <c r="C753" s="76"/>
       <c r="D753" s="74" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="E753" s="25" t="s">
         <v>724</v>
@@ -19625,7 +19694,7 @@
       <c r="B754" s="75"/>
       <c r="C754" s="76"/>
       <c r="D754" s="74" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="E754" s="25" t="s">
         <v>724</v>
@@ -19644,7 +19713,7 @@
       <c r="B755" s="75"/>
       <c r="C755" s="76"/>
       <c r="D755" s="74" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E755" s="74"/>
       <c r="F755" s="25">
@@ -19661,7 +19730,7 @@
       <c r="B756" s="75"/>
       <c r="C756" s="76"/>
       <c r="D756" s="74" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="E756" s="74"/>
       <c r="F756" s="25">
@@ -19678,7 +19747,7 @@
       <c r="B757" s="75"/>
       <c r="C757" s="76"/>
       <c r="D757" s="74" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="E757" s="74"/>
       <c r="F757" s="25">
@@ -19695,10 +19764,10 @@
       <c r="B758" s="75"/>
       <c r="C758" s="76"/>
       <c r="D758" s="74" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E758" s="74" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="F758" s="25">
         <v>10</v>
@@ -19714,10 +19783,10 @@
       <c r="B759" s="75"/>
       <c r="C759" s="76"/>
       <c r="D759" s="74" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E759" s="74" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="F759" s="25">
         <v>10</v>
@@ -19733,10 +19802,10 @@
       <c r="B760" s="75"/>
       <c r="C760" s="76"/>
       <c r="D760" s="74" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E760" s="74" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="F760" s="25">
         <v>10</v>
@@ -19752,7 +19821,7 @@
       <c r="B761" s="75"/>
       <c r="C761" s="76"/>
       <c r="D761" s="74" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E761" s="74"/>
       <c r="F761" s="25">
@@ -19763,43 +19832,77 @@
       </c>
     </row>
     <row r="762" customHeight="1" spans="1:7">
-      <c r="A762" s="76"/>
+      <c r="A762" s="21">
+        <v>761</v>
+      </c>
       <c r="B762" s="75"/>
       <c r="C762" s="76"/>
-      <c r="D762" s="74"/>
+      <c r="D762" s="74" t="s">
+        <v>1094</v>
+      </c>
       <c r="E762" s="74"/>
-      <c r="F762" s="25"/>
-      <c r="G762" s="25"/>
+      <c r="F762" s="25">
+        <v>10</v>
+      </c>
+      <c r="G762" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="763" customHeight="1" spans="1:7">
-      <c r="A763" s="76"/>
+      <c r="A763" s="21">
+        <v>762</v>
+      </c>
       <c r="B763" s="75"/>
       <c r="C763" s="76"/>
-      <c r="D763" s="74"/>
+      <c r="D763" s="74" t="s">
+        <v>1095</v>
+      </c>
       <c r="E763" s="74"/>
-      <c r="F763" s="25"/>
-      <c r="G763" s="25"/>
+      <c r="F763" s="25">
+        <v>10</v>
+      </c>
+      <c r="G763" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="764" customHeight="1" spans="1:7">
-      <c r="A764" s="76"/>
+      <c r="A764" s="21">
+        <v>763</v>
+      </c>
       <c r="B764" s="75"/>
       <c r="C764" s="76"/>
-      <c r="D764" s="74"/>
+      <c r="D764" s="74" t="s">
+        <v>1096</v>
+      </c>
       <c r="E764" s="74"/>
-      <c r="F764" s="25"/>
-      <c r="G764" s="25"/>
+      <c r="F764" s="25">
+        <v>10</v>
+      </c>
+      <c r="G764" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="765" customHeight="1" spans="1:7">
-      <c r="A765" s="76"/>
+      <c r="A765" s="21">
+        <v>764</v>
+      </c>
       <c r="B765" s="75"/>
       <c r="C765" s="76"/>
-      <c r="D765" s="74"/>
+      <c r="D765" s="74" t="s">
+        <v>1097</v>
+      </c>
       <c r="E765" s="74"/>
-      <c r="F765" s="25"/>
-      <c r="G765" s="25"/>
+      <c r="F765" s="25">
+        <v>10</v>
+      </c>
+      <c r="G765" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="766" customHeight="1" spans="1:7">
-      <c r="A766" s="76"/>
+      <c r="A766" s="21">
+        <v>765</v>
+      </c>
       <c r="B766" s="75"/>
       <c r="C766" s="76"/>
       <c r="D766" s="74"/>
@@ -19808,7 +19911,9 @@
       <c r="G766" s="25"/>
     </row>
     <row r="767" customHeight="1" spans="1:7">
-      <c r="A767" s="76"/>
+      <c r="A767" s="21">
+        <v>766</v>
+      </c>
       <c r="B767" s="75"/>
       <c r="C767" s="76"/>
       <c r="D767" s="74"/>
@@ -19817,7 +19922,9 @@
       <c r="G767" s="25"/>
     </row>
     <row r="768" customHeight="1" spans="1:7">
-      <c r="A768" s="76"/>
+      <c r="A768" s="21">
+        <v>767</v>
+      </c>
       <c r="B768" s="75"/>
       <c r="C768" s="76"/>
       <c r="D768" s="74"/>
@@ -19826,191 +19933,291 @@
       <c r="G768" s="25"/>
     </row>
     <row r="769" customHeight="1" spans="1:7">
-      <c r="A769" s="76"/>
+      <c r="A769" s="21">
+        <v>768</v>
+      </c>
       <c r="B769" s="75"/>
       <c r="C769" s="76"/>
-      <c r="D769" s="78"/>
-      <c r="E769" s="79"/>
+      <c r="D769" s="74"/>
+      <c r="E769" s="78"/>
       <c r="F769" s="25"/>
       <c r="G769" s="25"/>
     </row>
     <row r="770" customHeight="1" spans="1:7">
-      <c r="A770" s="76"/>
+      <c r="A770" s="21">
+        <v>769</v>
+      </c>
       <c r="B770" s="75"/>
       <c r="C770" s="76"/>
-      <c r="D770" s="78"/>
-      <c r="E770" s="79"/>
+      <c r="D770" s="74"/>
+      <c r="E770" s="78"/>
       <c r="F770" s="25"/>
       <c r="G770" s="25"/>
     </row>
     <row r="771" customHeight="1" spans="1:7">
-      <c r="A771" s="76"/>
+      <c r="A771" s="21">
+        <v>770</v>
+      </c>
       <c r="B771" s="75"/>
       <c r="C771" s="76"/>
-      <c r="D771" s="78"/>
-      <c r="E771" s="79"/>
-      <c r="F771" s="25"/>
-      <c r="G771" s="25"/>
+      <c r="D771" s="74" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E771" s="78"/>
+      <c r="F771" s="25">
+        <v>10</v>
+      </c>
+      <c r="G771" s="25" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="772" customHeight="1" spans="1:7">
-      <c r="A772" s="76"/>
+      <c r="A772" s="21">
+        <v>771</v>
+      </c>
       <c r="B772" s="75"/>
       <c r="C772" s="76"/>
-      <c r="D772" s="78"/>
-      <c r="E772" s="79"/>
-      <c r="F772" s="25"/>
-      <c r="G772" s="25"/>
+      <c r="D772" s="74" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E772" s="78"/>
+      <c r="F772" s="25">
+        <v>1</v>
+      </c>
+      <c r="G772" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="773" customHeight="1" spans="1:7">
-      <c r="A773" s="76"/>
+      <c r="A773" s="21">
+        <v>772</v>
+      </c>
       <c r="B773" s="75"/>
       <c r="C773" s="76"/>
-      <c r="D773" s="78"/>
-      <c r="E773" s="79"/>
-      <c r="F773" s="25"/>
-      <c r="G773" s="25"/>
+      <c r="D773" s="74" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E773" s="78"/>
+      <c r="F773" s="25">
+        <v>1</v>
+      </c>
+      <c r="G773" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="774" customHeight="1" spans="1:7">
-      <c r="A774" s="76"/>
+      <c r="A774" s="21">
+        <v>773</v>
+      </c>
       <c r="B774" s="75"/>
       <c r="C774" s="76"/>
-      <c r="D774" s="78"/>
-      <c r="E774" s="79"/>
-      <c r="F774" s="25"/>
-      <c r="G774" s="25"/>
+      <c r="D774" s="74" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E774" s="78"/>
+      <c r="F774" s="25">
+        <v>1</v>
+      </c>
+      <c r="G774" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="775" customHeight="1" spans="1:7">
-      <c r="A775" s="76"/>
+      <c r="A775" s="21">
+        <v>774</v>
+      </c>
       <c r="B775" s="75"/>
       <c r="C775" s="76"/>
-      <c r="D775" s="78"/>
-      <c r="E775" s="79"/>
-      <c r="F775" s="25"/>
-      <c r="G775" s="25"/>
+      <c r="D775" s="74" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E775" s="78"/>
+      <c r="F775" s="25">
+        <v>1</v>
+      </c>
+      <c r="G775" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="776" customHeight="1" spans="1:7">
-      <c r="A776" s="76"/>
+      <c r="A776" s="21">
+        <v>775</v>
+      </c>
       <c r="B776" s="75"/>
       <c r="C776" s="76"/>
-      <c r="D776" s="78"/>
-      <c r="E776" s="79"/>
-      <c r="F776" s="25"/>
-      <c r="G776" s="25"/>
+      <c r="D776" s="28" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E776" s="28" t="s">
+        <v>706</v>
+      </c>
+      <c r="F776" s="25">
+        <v>1</v>
+      </c>
+      <c r="G776" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="777" customHeight="1" spans="1:7">
-      <c r="A777" s="76"/>
+      <c r="A777" s="21">
+        <v>776</v>
+      </c>
       <c r="B777" s="75"/>
       <c r="C777" s="76"/>
-      <c r="D777" s="78"/>
-      <c r="E777" s="79"/>
-      <c r="F777" s="25"/>
-      <c r="G777" s="25"/>
+      <c r="D777" s="74" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E777" s="78"/>
+      <c r="F777" s="25">
+        <v>1</v>
+      </c>
+      <c r="G777" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="778" customHeight="1" spans="1:7">
-      <c r="A778" s="76"/>
+      <c r="A778" s="21">
+        <v>777</v>
+      </c>
       <c r="B778" s="75"/>
       <c r="C778" s="76"/>
-      <c r="D778" s="78"/>
-      <c r="E778" s="79"/>
-      <c r="F778" s="25"/>
-      <c r="G778" s="25"/>
+      <c r="D778" s="74" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E778" s="25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F778" s="25">
+        <v>1</v>
+      </c>
+      <c r="G778" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="779" customHeight="1" spans="1:7">
-      <c r="A779" s="76"/>
+      <c r="A779" s="21">
+        <v>778</v>
+      </c>
       <c r="B779" s="75"/>
       <c r="C779" s="76"/>
-      <c r="D779" s="78"/>
-      <c r="E779" s="79"/>
-      <c r="F779" s="25"/>
-      <c r="G779" s="25"/>
+      <c r="D779" s="74" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E779" s="78"/>
+      <c r="F779" s="25">
+        <v>1</v>
+      </c>
+      <c r="G779" s="25" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="780" customHeight="1" spans="1:7">
-      <c r="A780" s="76"/>
+      <c r="A780" s="21">
+        <v>779</v>
+      </c>
       <c r="B780" s="75"/>
       <c r="C780" s="76"/>
-      <c r="D780" s="78"/>
-      <c r="E780" s="79"/>
+      <c r="D780" s="74"/>
+      <c r="E780" s="78"/>
       <c r="F780" s="25"/>
       <c r="G780" s="25"/>
     </row>
     <row r="781" customHeight="1" spans="1:7">
-      <c r="A781" s="76"/>
+      <c r="A781" s="21">
+        <v>780</v>
+      </c>
       <c r="B781" s="75"/>
       <c r="C781" s="76"/>
-      <c r="D781" s="78"/>
-      <c r="E781" s="79"/>
+      <c r="D781" s="74"/>
+      <c r="E781" s="78"/>
       <c r="F781" s="25"/>
       <c r="G781" s="25"/>
     </row>
     <row r="782" customHeight="1" spans="1:7">
-      <c r="A782" s="76"/>
+      <c r="A782" s="21">
+        <v>781</v>
+      </c>
       <c r="B782" s="75"/>
       <c r="C782" s="76"/>
-      <c r="D782" s="78"/>
-      <c r="E782" s="79"/>
+      <c r="D782" s="74"/>
+      <c r="E782" s="78"/>
       <c r="F782" s="25"/>
       <c r="G782" s="25"/>
     </row>
     <row r="783" customHeight="1" spans="1:7">
-      <c r="A783" s="76"/>
+      <c r="A783" s="21">
+        <v>782</v>
+      </c>
       <c r="B783" s="75"/>
       <c r="C783" s="76"/>
-      <c r="D783" s="78"/>
-      <c r="E783" s="79"/>
+      <c r="D783" s="74"/>
+      <c r="E783" s="78"/>
       <c r="F783" s="25"/>
       <c r="G783" s="25"/>
     </row>
     <row r="784" customHeight="1" spans="1:7">
-      <c r="A784" s="76"/>
+      <c r="A784" s="21">
+        <v>783</v>
+      </c>
       <c r="B784" s="75"/>
       <c r="C784" s="76"/>
-      <c r="D784" s="78"/>
-      <c r="E784" s="79"/>
+      <c r="D784" s="74"/>
+      <c r="E784" s="78"/>
       <c r="F784" s="25"/>
       <c r="G784" s="25"/>
     </row>
     <row r="785" customHeight="1" spans="1:7">
-      <c r="A785" s="76"/>
+      <c r="A785" s="21">
+        <v>784</v>
+      </c>
       <c r="B785" s="75"/>
       <c r="C785" s="76"/>
-      <c r="D785" s="78"/>
-      <c r="E785" s="79"/>
+      <c r="D785" s="74"/>
+      <c r="E785" s="78"/>
       <c r="F785" s="25"/>
       <c r="G785" s="25"/>
     </row>
     <row r="786" customHeight="1" spans="1:7">
-      <c r="A786" s="76"/>
+      <c r="A786" s="21">
+        <v>785</v>
+      </c>
       <c r="B786" s="75"/>
       <c r="C786" s="76"/>
-      <c r="D786" s="78"/>
-      <c r="E786" s="79"/>
+      <c r="D786" s="74"/>
+      <c r="E786" s="78"/>
       <c r="F786" s="25"/>
       <c r="G786" s="25"/>
     </row>
     <row r="787" customHeight="1" spans="1:7">
-      <c r="A787" s="76"/>
+      <c r="A787" s="21">
+        <v>786</v>
+      </c>
       <c r="B787" s="75"/>
       <c r="C787" s="76"/>
-      <c r="D787" s="78"/>
-      <c r="E787" s="79"/>
+      <c r="D787" s="74"/>
+      <c r="E787" s="78"/>
       <c r="F787" s="25"/>
       <c r="G787" s="25"/>
     </row>
     <row r="788" customHeight="1" spans="1:7">
-      <c r="A788" s="76"/>
+      <c r="A788" s="21">
+        <v>787</v>
+      </c>
       <c r="B788" s="75"/>
       <c r="C788" s="76"/>
-      <c r="D788" s="78"/>
-      <c r="E788" s="79"/>
+      <c r="D788" s="74"/>
+      <c r="E788" s="78"/>
       <c r="F788" s="25"/>
       <c r="G788" s="25"/>
     </row>
     <row r="789" customHeight="1" spans="1:7">
-      <c r="A789" s="76"/>
+      <c r="A789" s="21">
+        <v>788</v>
+      </c>
       <c r="B789" s="75"/>
       <c r="C789" s="76"/>
-      <c r="D789" s="78"/>
-      <c r="E789" s="79"/>
+      <c r="D789" s="74"/>
+      <c r="E789" s="78"/>
       <c r="F789" s="25"/>
       <c r="G789" s="25"/>
     </row>
@@ -20018,8 +20225,8 @@
       <c r="A790" s="76"/>
       <c r="B790" s="75"/>
       <c r="C790" s="76"/>
-      <c r="D790" s="78"/>
-      <c r="E790" s="79"/>
+      <c r="D790" s="74"/>
+      <c r="E790" s="78"/>
       <c r="F790" s="25"/>
       <c r="G790" s="25"/>
     </row>
@@ -20027,8 +20234,8 @@
       <c r="A791" s="76"/>
       <c r="B791" s="75"/>
       <c r="C791" s="76"/>
-      <c r="D791" s="78"/>
-      <c r="E791" s="79"/>
+      <c r="D791" s="74"/>
+      <c r="E791" s="78"/>
       <c r="F791" s="25"/>
       <c r="G791" s="25"/>
     </row>
@@ -20036,8 +20243,8 @@
       <c r="A792" s="76"/>
       <c r="B792" s="75"/>
       <c r="C792" s="76"/>
-      <c r="D792" s="78"/>
-      <c r="E792" s="79"/>
+      <c r="D792" s="74"/>
+      <c r="E792" s="78"/>
       <c r="F792" s="25"/>
       <c r="G792" s="25"/>
     </row>
@@ -20045,8 +20252,8 @@
       <c r="A793" s="76"/>
       <c r="B793" s="75"/>
       <c r="C793" s="76"/>
-      <c r="D793" s="78"/>
-      <c r="E793" s="79"/>
+      <c r="D793" s="79"/>
+      <c r="E793" s="78"/>
       <c r="F793" s="25"/>
       <c r="G793" s="25"/>
     </row>
@@ -20054,8 +20261,8 @@
       <c r="A794" s="76"/>
       <c r="B794" s="75"/>
       <c r="C794" s="76"/>
-      <c r="D794" s="78"/>
-      <c r="E794" s="79"/>
+      <c r="D794" s="79"/>
+      <c r="E794" s="78"/>
       <c r="F794" s="25"/>
       <c r="G794" s="25"/>
     </row>
@@ -20063,8 +20270,8 @@
       <c r="A795" s="76"/>
       <c r="B795" s="75"/>
       <c r="C795" s="76"/>
-      <c r="D795" s="78"/>
-      <c r="E795" s="79"/>
+      <c r="D795" s="79"/>
+      <c r="E795" s="78"/>
       <c r="F795" s="25"/>
       <c r="G795" s="25"/>
     </row>
@@ -20072,8 +20279,8 @@
       <c r="A796" s="76"/>
       <c r="B796" s="75"/>
       <c r="C796" s="76"/>
-      <c r="D796" s="78"/>
-      <c r="E796" s="79"/>
+      <c r="D796" s="79"/>
+      <c r="E796" s="78"/>
       <c r="F796" s="25"/>
       <c r="G796" s="25"/>
     </row>
@@ -20081,8 +20288,8 @@
       <c r="A797" s="76"/>
       <c r="B797" s="75"/>
       <c r="C797" s="76"/>
-      <c r="D797" s="78"/>
-      <c r="E797" s="79"/>
+      <c r="D797" s="79"/>
+      <c r="E797" s="78"/>
       <c r="F797" s="25"/>
       <c r="G797" s="25"/>
     </row>
@@ -20090,8 +20297,8 @@
       <c r="A798" s="76"/>
       <c r="B798" s="75"/>
       <c r="C798" s="76"/>
-      <c r="D798" s="78"/>
-      <c r="E798" s="79"/>
+      <c r="D798" s="79"/>
+      <c r="E798" s="78"/>
       <c r="F798" s="25"/>
       <c r="G798" s="25"/>
     </row>
@@ -20099,8 +20306,8 @@
       <c r="A799" s="76"/>
       <c r="B799" s="75"/>
       <c r="C799" s="76"/>
-      <c r="D799" s="78"/>
-      <c r="E799" s="79"/>
+      <c r="D799" s="79"/>
+      <c r="E799" s="78"/>
       <c r="F799" s="25"/>
       <c r="G799" s="25"/>
     </row>
@@ -20108,8 +20315,8 @@
       <c r="A800" s="76"/>
       <c r="B800" s="75"/>
       <c r="C800" s="76"/>
-      <c r="D800" s="78"/>
-      <c r="E800" s="79"/>
+      <c r="D800" s="79"/>
+      <c r="E800" s="78"/>
       <c r="F800" s="25"/>
       <c r="G800" s="25"/>
     </row>
@@ -20117,8 +20324,8 @@
       <c r="A801" s="76"/>
       <c r="B801" s="75"/>
       <c r="C801" s="76"/>
-      <c r="D801" s="78"/>
-      <c r="E801" s="79"/>
+      <c r="D801" s="79"/>
+      <c r="E801" s="78"/>
       <c r="F801" s="25"/>
       <c r="G801" s="25"/>
     </row>
@@ -20126,8 +20333,8 @@
       <c r="A802" s="76"/>
       <c r="B802" s="75"/>
       <c r="C802" s="76"/>
-      <c r="D802" s="78"/>
-      <c r="E802" s="79"/>
+      <c r="D802" s="79"/>
+      <c r="E802" s="78"/>
       <c r="F802" s="25"/>
       <c r="G802" s="25"/>
     </row>
@@ -20135,8 +20342,8 @@
       <c r="A803" s="76"/>
       <c r="B803" s="75"/>
       <c r="C803" s="76"/>
-      <c r="D803" s="78"/>
-      <c r="E803" s="79"/>
+      <c r="D803" s="79"/>
+      <c r="E803" s="78"/>
       <c r="F803" s="25"/>
       <c r="G803" s="25"/>
     </row>
@@ -20144,8 +20351,8 @@
       <c r="A804" s="76"/>
       <c r="B804" s="75"/>
       <c r="C804" s="76"/>
-      <c r="D804" s="78"/>
-      <c r="E804" s="79"/>
+      <c r="D804" s="79"/>
+      <c r="E804" s="78"/>
       <c r="F804" s="25"/>
       <c r="G804" s="25"/>
     </row>
@@ -20153,8 +20360,8 @@
       <c r="A805" s="76"/>
       <c r="B805" s="75"/>
       <c r="C805" s="76"/>
-      <c r="D805" s="78"/>
-      <c r="E805" s="79"/>
+      <c r="D805" s="79"/>
+      <c r="E805" s="78"/>
       <c r="F805" s="25"/>
       <c r="G805" s="25"/>
     </row>
@@ -20162,8 +20369,8 @@
       <c r="A806" s="76"/>
       <c r="B806" s="75"/>
       <c r="C806" s="76"/>
-      <c r="D806" s="78"/>
-      <c r="E806" s="79"/>
+      <c r="D806" s="79"/>
+      <c r="E806" s="78"/>
       <c r="F806" s="25"/>
       <c r="G806" s="25"/>
     </row>
@@ -20171,8 +20378,8 @@
       <c r="A807" s="76"/>
       <c r="B807" s="75"/>
       <c r="C807" s="76"/>
-      <c r="D807" s="78"/>
-      <c r="E807" s="79"/>
+      <c r="D807" s="79"/>
+      <c r="E807" s="78"/>
       <c r="F807" s="25"/>
       <c r="G807" s="25"/>
     </row>
@@ -20180,8 +20387,8 @@
       <c r="A808" s="76"/>
       <c r="B808" s="75"/>
       <c r="C808" s="76"/>
-      <c r="D808" s="78"/>
-      <c r="E808" s="79"/>
+      <c r="D808" s="79"/>
+      <c r="E808" s="78"/>
       <c r="F808" s="25"/>
       <c r="G808" s="25"/>
     </row>
@@ -20189,10 +20396,10 @@
       <c r="A809" s="76"/>
       <c r="B809" s="75"/>
       <c r="C809" s="76"/>
-      <c r="D809" s="78"/>
-      <c r="E809" s="79"/>
-      <c r="F809" s="79"/>
-      <c r="G809" s="79"/>
+      <c r="D809" s="79"/>
+      <c r="E809" s="78"/>
+      <c r="F809" s="78"/>
+      <c r="G809" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/DateBase/flawers/flower.xlsx
+++ b/DateBase/flawers/flower.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="1123">
   <si>
     <t>id</t>
   </si>
@@ -1215,6 +1215,9 @@
   </si>
   <si>
     <t>长相思</t>
+  </si>
+  <si>
+    <t>情迷罗拉</t>
   </si>
   <si>
     <t xml:space="preserve"> gypsophila</t>
@@ -1769,15 +1772,6 @@
     <t>千层金橙</t>
   </si>
   <si>
-    <t>Moluccella laevis Pall.</t>
-  </si>
-  <si>
-    <t>贝壳叶</t>
-  </si>
-  <si>
-    <t>molucela</t>
-  </si>
-  <si>
     <t>Thlaspi arvense L.</t>
   </si>
   <si>
@@ -1948,7 +1942,7 @@
     <t>scabiosa dark purple</t>
   </si>
   <si>
-    <t>单瓣菟葵粉 
+    <t>菟葵绿粉 
 green</t>
   </si>
   <si>
@@ -2049,7 +2043,7 @@
 white</t>
   </si>
   <si>
-    <t>小飞燕深蓝</t>
+    <t>小飞燕浅蓝</t>
   </si>
   <si>
     <t xml:space="preserve"> delphinium ballkleid
@@ -2563,9 +2557,6 @@
 light purple</t>
   </si>
   <si>
-    <t>小飞燕浅蓝</t>
-  </si>
-  <si>
     <t>delphinium ballkleid
 light blue</t>
   </si>
@@ -2958,7 +2949,7 @@
     <t>迷你菊白</t>
   </si>
   <si>
-    <t>迷你菊粉</t>
+    <t>迷你菊深粉</t>
   </si>
   <si>
     <t>迷你菊紫</t>
@@ -3171,6 +3162,9 @@
     <t>康乃馨桃红</t>
   </si>
   <si>
+    <t>时尚太子</t>
+  </si>
+  <si>
     <t>吸色康乃馨天蓝</t>
   </si>
   <si>
@@ -3631,6 +3625,57 @@
   </si>
   <si>
     <t>小白菊</t>
+  </si>
+  <si>
+    <t>景天绿</t>
+  </si>
+  <si>
+    <t>贝壳草</t>
+  </si>
+  <si>
+    <t>琉璃草蓝色</t>
+  </si>
+  <si>
+    <t>松果菊绿</t>
+  </si>
+  <si>
+    <t>松果菊粉</t>
+  </si>
+  <si>
+    <t>银桦</t>
+  </si>
+  <si>
+    <t>粗掉米 绿</t>
+  </si>
+  <si>
+    <t>粗掉米 红</t>
+  </si>
+  <si>
+    <t>菟葵粉铃铛</t>
+  </si>
+  <si>
+    <t>直葱</t>
+  </si>
+  <si>
+    <t>迷你菊浅粉</t>
+  </si>
+  <si>
+    <t>铁线莲粉</t>
+  </si>
+  <si>
+    <t>菟葵黑</t>
+  </si>
+  <si>
+    <t>珍珠梅白</t>
+  </si>
+  <si>
+    <t>珍珠梅粉</t>
+  </si>
+  <si>
+    <t>小菊罗西香槟</t>
+  </si>
+  <si>
+    <t>中国百合</t>
   </si>
 </sst>
 </file>
@@ -6072,14 +6117,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H809"/>
+  <dimension ref="A1:H804"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B774" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B768" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C795" sqref="C795"/>
+      <selection pane="bottomRight" activeCell="K793" sqref="K793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3362831858407" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="7"/>
@@ -11264,12 +11309,20 @@
       <c r="A277" s="21">
         <v>276</v>
       </c>
-      <c r="B277" s="22"/>
+      <c r="B277" s="9" t="s">
+        <v>152</v>
+      </c>
       <c r="C277" s="23"/>
-      <c r="D277" s="24"/>
+      <c r="D277" s="24" t="s">
+        <v>396</v>
+      </c>
       <c r="E277" s="25"/>
-      <c r="F277" s="25"/>
-      <c r="G277" s="25"/>
+      <c r="F277" s="25">
+        <v>10</v>
+      </c>
+      <c r="G277" s="13" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="278" customHeight="1" spans="1:7">
       <c r="A278" s="21">
@@ -11529,20 +11582,20 @@
         <v>300</v>
       </c>
       <c r="B301" s="22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C301" s="23"/>
       <c r="D301" s="67" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E301" s="67" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F301" s="25">
         <v>1</v>
       </c>
       <c r="G301" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="302" customHeight="1" spans="1:7">
@@ -11550,20 +11603,20 @@
         <v>301</v>
       </c>
       <c r="B302" s="22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C302" s="23"/>
       <c r="D302" s="67" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E302" s="67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F302" s="25">
         <v>0.5</v>
       </c>
       <c r="G302" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="303" customHeight="1" spans="1:7">
@@ -11573,16 +11626,16 @@
       <c r="B303" s="22"/>
       <c r="C303" s="23"/>
       <c r="D303" s="67" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E303" s="67" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F303" s="25">
         <v>0.5</v>
       </c>
       <c r="G303" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="304" customHeight="1" spans="1:7">
@@ -11592,16 +11645,16 @@
       <c r="B304" s="22"/>
       <c r="C304" s="23"/>
       <c r="D304" s="67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E304" s="67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F304" s="25">
         <v>0.5</v>
       </c>
       <c r="G304" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="305" customHeight="1" spans="1:7">
@@ -11611,16 +11664,16 @@
       <c r="B305" s="22"/>
       <c r="C305" s="23"/>
       <c r="D305" s="67" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E305" s="67" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F305" s="25">
         <v>0.5</v>
       </c>
       <c r="G305" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="306" customHeight="1" spans="1:7">
@@ -11630,16 +11683,16 @@
       <c r="B306" s="22"/>
       <c r="C306" s="23"/>
       <c r="D306" s="67" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E306" s="67" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F306" s="25">
         <v>0.5</v>
       </c>
       <c r="G306" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="307" customHeight="1" spans="1:7">
@@ -11649,16 +11702,16 @@
       <c r="B307" s="22"/>
       <c r="C307" s="23"/>
       <c r="D307" s="67" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E307" s="67" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F307" s="25">
         <v>0.5</v>
       </c>
       <c r="G307" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="308" customHeight="1" spans="1:7">
@@ -11668,16 +11721,16 @@
       <c r="B308" s="22"/>
       <c r="C308" s="23"/>
       <c r="D308" s="67" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E308" s="67" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F308" s="25">
         <v>0.5</v>
       </c>
       <c r="G308" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="309" customHeight="1" spans="1:7">
@@ -11687,16 +11740,16 @@
       <c r="B309" s="22"/>
       <c r="C309" s="23"/>
       <c r="D309" s="67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E309" s="67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F309" s="25">
         <v>0.5</v>
       </c>
       <c r="G309" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="310" customHeight="1" spans="1:7">
@@ -11706,16 +11759,16 @@
       <c r="B310" s="22"/>
       <c r="C310" s="23"/>
       <c r="D310" s="67" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E310" s="67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F310" s="25">
         <v>0.5</v>
       </c>
       <c r="G310" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="311" customHeight="1" spans="1:7">
@@ -11725,16 +11778,16 @@
       <c r="B311" s="22"/>
       <c r="C311" s="23"/>
       <c r="D311" s="67" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E311" s="67" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F311" s="25">
         <v>0.5</v>
       </c>
       <c r="G311" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="312" customHeight="1" spans="1:7">
@@ -11744,16 +11797,16 @@
       <c r="B312" s="22"/>
       <c r="C312" s="23"/>
       <c r="D312" s="67" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E312" s="67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F312" s="25">
         <v>0.5</v>
       </c>
       <c r="G312" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="313" customHeight="1" spans="1:7">
@@ -11763,16 +11816,16 @@
       <c r="B313" s="22"/>
       <c r="C313" s="23"/>
       <c r="D313" s="67" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E313" s="67" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F313" s="25">
         <v>0.5</v>
       </c>
       <c r="G313" s="25" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="314" customHeight="1" spans="1:7">
@@ -11793,16 +11846,16 @@
       <c r="B315" s="22"/>
       <c r="C315" s="23"/>
       <c r="D315" s="67" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E315" s="25" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F315" s="25">
         <v>1</v>
       </c>
       <c r="G315" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" customHeight="1" spans="1:7">
@@ -11812,16 +11865,16 @@
       <c r="B316" s="22"/>
       <c r="C316" s="23"/>
       <c r="D316" s="67" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E316" s="25" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F316" s="25">
         <v>1</v>
       </c>
       <c r="G316" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="317" customHeight="1" spans="1:7">
@@ -11831,16 +11884,16 @@
       <c r="B317" s="22"/>
       <c r="C317" s="23"/>
       <c r="D317" s="67" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E317" s="25" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F317" s="25">
         <v>1</v>
       </c>
       <c r="G317" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="318" customHeight="1" spans="1:7">
@@ -11850,16 +11903,16 @@
       <c r="B318" s="22"/>
       <c r="C318" s="23"/>
       <c r="D318" s="67" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E318" s="25" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F318" s="25">
         <v>1</v>
       </c>
       <c r="G318" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="319" customHeight="1" spans="1:7">
@@ -11869,16 +11922,16 @@
       <c r="B319" s="22"/>
       <c r="C319" s="23"/>
       <c r="D319" s="67" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E319" s="25" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F319" s="25">
         <v>1</v>
       </c>
       <c r="G319" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="320" customHeight="1" spans="1:7">
@@ -11888,16 +11941,16 @@
       <c r="B320" s="22"/>
       <c r="C320" s="23"/>
       <c r="D320" s="67" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E320" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F320" s="25">
         <v>1</v>
       </c>
       <c r="G320" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="321" customHeight="1" spans="1:7">
@@ -11907,16 +11960,16 @@
       <c r="B321" s="22"/>
       <c r="C321" s="23"/>
       <c r="D321" s="67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E321" s="68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F321" s="25">
         <v>1</v>
       </c>
       <c r="G321" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="322" customHeight="1" spans="1:7">
@@ -11926,16 +11979,16 @@
       <c r="B322" s="22"/>
       <c r="C322" s="23"/>
       <c r="D322" s="67" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E322" s="25" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F322" s="25">
         <v>1</v>
       </c>
       <c r="G322" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="323" customHeight="1" spans="1:7">
@@ -11945,16 +11998,16 @@
       <c r="B323" s="22"/>
       <c r="C323" s="23"/>
       <c r="D323" s="67" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E323" s="25" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F323" s="25">
         <v>1</v>
       </c>
       <c r="G323" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="324" customHeight="1" spans="1:7">
@@ -11964,16 +12017,16 @@
       <c r="B324" s="22"/>
       <c r="C324" s="23"/>
       <c r="D324" s="67" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E324" s="25" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F324" s="25">
         <v>1</v>
       </c>
       <c r="G324" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="325" customHeight="1" spans="1:7">
@@ -11983,16 +12036,16 @@
       <c r="B325" s="22"/>
       <c r="C325" s="23"/>
       <c r="D325" s="67" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E325" s="25" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F325" s="25">
         <v>1</v>
       </c>
       <c r="G325" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="326" customHeight="1" spans="1:7">
@@ -12002,16 +12055,16 @@
       <c r="B326" s="22"/>
       <c r="C326" s="23"/>
       <c r="D326" s="67" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E326" s="25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F326" s="25">
         <v>1</v>
       </c>
       <c r="G326" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="327" customHeight="1" spans="1:7">
@@ -12021,14 +12074,14 @@
       <c r="B327" s="22"/>
       <c r="C327" s="23"/>
       <c r="D327" s="67" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E327" s="25"/>
       <c r="F327" s="25">
         <v>1</v>
       </c>
       <c r="G327" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="328" customHeight="1" spans="1:7">
@@ -12038,16 +12091,16 @@
       <c r="B328" s="22"/>
       <c r="C328" s="23"/>
       <c r="D328" s="67" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E328" s="25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F328" s="25">
         <v>1</v>
       </c>
       <c r="G328" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="329" customHeight="1" spans="1:7">
@@ -12057,14 +12110,14 @@
       <c r="B329" s="22"/>
       <c r="C329" s="23"/>
       <c r="D329" s="67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E329" s="25"/>
       <c r="F329" s="25">
         <v>1</v>
       </c>
       <c r="G329" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="330" customHeight="1" spans="1:7">
@@ -12074,14 +12127,14 @@
       <c r="B330" s="22"/>
       <c r="C330" s="23"/>
       <c r="D330" s="67" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E330" s="25"/>
       <c r="F330" s="25">
         <v>1</v>
       </c>
       <c r="G330" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="331" customHeight="1" spans="1:7">
@@ -12091,16 +12144,16 @@
       <c r="B331" s="22"/>
       <c r="C331" s="23"/>
       <c r="D331" s="67" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E331" s="25" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F331" s="25">
         <v>1</v>
       </c>
       <c r="G331" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="332" customHeight="1" spans="1:7">
@@ -12110,16 +12163,16 @@
       <c r="B332" s="22"/>
       <c r="C332" s="23"/>
       <c r="D332" s="67" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E332" s="25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F332" s="25">
         <v>1</v>
       </c>
       <c r="G332" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="333" customHeight="1" spans="1:7">
@@ -12129,16 +12182,16 @@
       <c r="B333" s="22"/>
       <c r="C333" s="23"/>
       <c r="D333" s="67" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E333" s="25" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F333" s="25">
         <v>1</v>
       </c>
       <c r="G333" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="334" customHeight="1" spans="1:7">
@@ -12148,16 +12201,16 @@
       <c r="B334" s="22"/>
       <c r="C334" s="23"/>
       <c r="D334" s="67" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E334" s="25" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F334" s="25">
         <v>1</v>
       </c>
       <c r="G334" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="335" customHeight="1" spans="1:7">
@@ -12167,16 +12220,16 @@
       <c r="B335" s="22"/>
       <c r="C335" s="23"/>
       <c r="D335" s="67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E335" s="25" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F335" s="25">
         <v>1</v>
       </c>
       <c r="G335" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="336" customHeight="1" spans="1:7">
@@ -12186,14 +12239,14 @@
       <c r="B336" s="22"/>
       <c r="C336" s="23"/>
       <c r="D336" s="67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E336" s="25"/>
       <c r="F336" s="25">
         <v>1</v>
       </c>
       <c r="G336" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="337" customHeight="1" spans="1:7">
@@ -12203,16 +12256,16 @@
       <c r="B337" s="22"/>
       <c r="C337" s="23"/>
       <c r="D337" s="67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E337" s="25" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F337" s="25">
         <v>1</v>
       </c>
       <c r="G337" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="338" customHeight="1" spans="1:7">
@@ -12222,16 +12275,16 @@
       <c r="B338" s="22"/>
       <c r="C338" s="23"/>
       <c r="D338" s="67" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E338" s="25" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F338" s="25">
         <v>1</v>
       </c>
       <c r="G338" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="339" customHeight="1" spans="1:7">
@@ -12239,18 +12292,18 @@
         <v>338</v>
       </c>
       <c r="B339" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C339" s="23"/>
       <c r="D339" s="67" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E339" s="25"/>
       <c r="F339" s="25">
         <v>1</v>
       </c>
       <c r="G339" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="340" customHeight="1" spans="1:7">
@@ -12260,16 +12313,16 @@
       <c r="B340" s="22"/>
       <c r="C340" s="23"/>
       <c r="D340" s="67" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E340" s="25" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F340" s="25">
         <v>1</v>
       </c>
       <c r="G340" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="341" customHeight="1" spans="1:7">
@@ -12279,14 +12332,14 @@
       <c r="B341" s="22"/>
       <c r="C341" s="23"/>
       <c r="D341" s="67" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E341" s="25"/>
       <c r="F341" s="25">
         <v>1</v>
       </c>
       <c r="G341" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="342" customHeight="1" spans="1:7">
@@ -12294,18 +12347,18 @@
         <v>341</v>
       </c>
       <c r="B342" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C342" s="23"/>
       <c r="D342" s="67" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E342" s="25"/>
       <c r="F342" s="25">
         <v>1</v>
       </c>
       <c r="G342" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="343" customHeight="1" spans="1:7">
@@ -12313,18 +12366,18 @@
         <v>342</v>
       </c>
       <c r="B343" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C343" s="23"/>
       <c r="D343" s="67" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E343" s="25"/>
       <c r="F343" s="25">
         <v>1</v>
       </c>
       <c r="G343" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="344" customHeight="1" spans="1:7">
@@ -12332,18 +12385,18 @@
         <v>343</v>
       </c>
       <c r="B344" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C344" s="23"/>
       <c r="D344" s="67" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E344" s="25"/>
       <c r="F344" s="25">
         <v>1</v>
       </c>
       <c r="G344" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="345" customHeight="1" spans="1:7">
@@ -12351,20 +12404,20 @@
         <v>344</v>
       </c>
       <c r="B345" s="22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C345" s="23"/>
       <c r="D345" s="67" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E345" s="25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F345" s="25">
         <v>1</v>
       </c>
       <c r="G345" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="346" customHeight="1" spans="1:7">
@@ -12374,16 +12427,16 @@
       <c r="B346" s="22"/>
       <c r="C346" s="23"/>
       <c r="D346" s="67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E346" s="25" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F346" s="25">
         <v>1</v>
       </c>
       <c r="G346" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="347" customHeight="1" spans="1:7">
@@ -12391,20 +12444,20 @@
         <v>346</v>
       </c>
       <c r="B347" s="22" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C347" s="23"/>
       <c r="D347" s="67" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E347" s="25" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F347" s="25">
         <v>1</v>
       </c>
       <c r="G347" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="348" customHeight="1" spans="1:7">
@@ -12414,14 +12467,14 @@
       <c r="B348" s="22"/>
       <c r="C348" s="23"/>
       <c r="D348" s="67" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E348" s="25"/>
       <c r="F348" s="25">
         <v>1</v>
       </c>
       <c r="G348" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="349" customHeight="1" spans="1:7">
@@ -12431,14 +12484,14 @@
       <c r="B349" s="22"/>
       <c r="C349" s="23"/>
       <c r="D349" s="67" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E349" s="25"/>
       <c r="F349" s="25">
         <v>1</v>
       </c>
       <c r="G349" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="350" customHeight="1" spans="1:7">
@@ -12446,20 +12499,20 @@
         <v>349</v>
       </c>
       <c r="B350" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C350" s="23"/>
       <c r="D350" s="67" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E350" s="68" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F350" s="25">
         <v>1</v>
       </c>
       <c r="G350" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="351" customHeight="1" spans="1:7">
@@ -12467,20 +12520,20 @@
         <v>350</v>
       </c>
       <c r="B351" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C351" s="23"/>
       <c r="D351" s="67" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E351" s="68" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F351" s="25">
         <v>1</v>
       </c>
       <c r="G351" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="352" customHeight="1" spans="1:7">
@@ -12488,62 +12541,52 @@
         <v>351</v>
       </c>
       <c r="B352" s="22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C352" s="23"/>
       <c r="D352" s="67" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E352" s="68" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F352" s="25">
         <v>1</v>
       </c>
       <c r="G352" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="353" customHeight="1" spans="1:7">
       <c r="A353" s="21">
         <v>352</v>
       </c>
-      <c r="B353" s="22" t="s">
-        <v>494</v>
-      </c>
+      <c r="B353" s="22"/>
       <c r="C353" s="23"/>
-      <c r="D353" s="67" t="s">
-        <v>495</v>
-      </c>
-      <c r="E353" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="F353" s="25">
-        <v>1</v>
-      </c>
-      <c r="G353" s="25" t="s">
-        <v>426</v>
-      </c>
+      <c r="D353" s="67"/>
+      <c r="E353" s="25"/>
+      <c r="F353" s="25"/>
+      <c r="G353" s="25"/>
     </row>
     <row r="354" customHeight="1" spans="1:7">
       <c r="A354" s="21">
         <v>353</v>
       </c>
       <c r="B354" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C354" s="23"/>
       <c r="D354" s="67" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E354" s="25" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F354" s="25">
         <v>1</v>
       </c>
       <c r="G354" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="355" customHeight="1" spans="1:7">
@@ -12553,14 +12596,14 @@
       <c r="B355" s="22"/>
       <c r="C355" s="23"/>
       <c r="D355" s="67" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E355" s="25"/>
       <c r="F355" s="25">
         <v>1</v>
       </c>
       <c r="G355" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="356" customHeight="1" spans="1:7">
@@ -12570,16 +12613,16 @@
       <c r="B356" s="22"/>
       <c r="C356" s="23"/>
       <c r="D356" s="67" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E356" s="25" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F356" s="25">
         <v>1</v>
       </c>
       <c r="G356" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="357" customHeight="1" spans="1:7">
@@ -12589,16 +12632,16 @@
       <c r="B357" s="22"/>
       <c r="C357" s="23"/>
       <c r="D357" s="67" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E357" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F357" s="25">
         <v>1</v>
       </c>
       <c r="G357" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="358" customHeight="1" spans="1:7">
@@ -12608,14 +12651,14 @@
       <c r="B358" s="22"/>
       <c r="C358" s="23"/>
       <c r="D358" s="67" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E358" s="25"/>
       <c r="F358" s="25">
         <v>1</v>
       </c>
       <c r="G358" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="359" customHeight="1" spans="1:7">
@@ -12625,14 +12668,14 @@
       <c r="B359" s="22"/>
       <c r="C359" s="23"/>
       <c r="D359" s="67" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E359" s="25"/>
       <c r="F359" s="25">
         <v>1</v>
       </c>
       <c r="G359" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="360" customHeight="1" spans="1:7">
@@ -12642,14 +12685,14 @@
       <c r="B360" s="22"/>
       <c r="C360" s="23"/>
       <c r="D360" s="69" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E360" s="25"/>
       <c r="F360" s="25">
         <v>1</v>
       </c>
       <c r="G360" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="361" customHeight="1" spans="1:7">
@@ -12657,18 +12700,18 @@
         <v>360</v>
       </c>
       <c r="B361" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C361" s="23"/>
       <c r="D361" s="67" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E361" s="25"/>
       <c r="F361" s="25">
         <v>1</v>
       </c>
       <c r="G361" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="362" customHeight="1" spans="1:7">
@@ -12676,20 +12719,20 @@
         <v>361</v>
       </c>
       <c r="B362" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C362" s="23"/>
       <c r="D362" s="67" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E362" s="25" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F362" s="25">
         <v>1</v>
       </c>
       <c r="G362" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="363" customHeight="1" spans="1:7">
@@ -12699,16 +12742,16 @@
       <c r="B363" s="22"/>
       <c r="C363" s="23"/>
       <c r="D363" s="67" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E363" s="25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F363" s="25">
         <v>1</v>
       </c>
       <c r="G363" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="364" customHeight="1" spans="1:7">
@@ -12716,20 +12759,20 @@
         <v>363</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C364" s="23"/>
       <c r="D364" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E364" s="25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F364" s="25">
         <v>1</v>
       </c>
       <c r="G364" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="365" customHeight="1" spans="1:7">
@@ -12737,20 +12780,20 @@
         <v>364</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C365" s="23"/>
       <c r="D365" s="67" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E365" s="25" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F365" s="25">
         <v>1</v>
       </c>
       <c r="G365" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="366" customHeight="1" spans="1:7">
@@ -12760,16 +12803,16 @@
       <c r="B366" s="22"/>
       <c r="C366" s="23"/>
       <c r="D366" s="67" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E366" s="25" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F366" s="25">
         <v>1</v>
       </c>
       <c r="G366" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="367" customHeight="1" spans="1:7">
@@ -12779,16 +12822,16 @@
       <c r="B367" s="22"/>
       <c r="C367" s="23"/>
       <c r="D367" s="67" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E367" s="25" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F367" s="25">
         <v>1</v>
       </c>
       <c r="G367" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="368" customHeight="1" spans="1:7">
@@ -12798,16 +12841,16 @@
       <c r="B368" s="22"/>
       <c r="C368" s="23"/>
       <c r="D368" s="67" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E368" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F368" s="25">
         <v>1</v>
       </c>
       <c r="G368" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="369" customHeight="1" spans="1:7">
@@ -12817,14 +12860,14 @@
       <c r="B369" s="22"/>
       <c r="C369" s="23"/>
       <c r="D369" s="69" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E369" s="25"/>
       <c r="F369" s="25">
         <v>1</v>
       </c>
       <c r="G369" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="370" customHeight="1" spans="1:7">
@@ -12834,14 +12877,14 @@
       <c r="B370" s="22"/>
       <c r="C370" s="23"/>
       <c r="D370" s="69" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E370" s="25"/>
       <c r="F370" s="25">
         <v>1</v>
       </c>
       <c r="G370" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="371" customHeight="1" spans="1:7">
@@ -12851,14 +12894,14 @@
       <c r="B371" s="22"/>
       <c r="C371" s="23"/>
       <c r="D371" s="67" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E371" s="25"/>
       <c r="F371" s="25">
         <v>1</v>
       </c>
       <c r="G371" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="372" customHeight="1" spans="1:7">
@@ -12868,16 +12911,16 @@
       <c r="B372" s="22"/>
       <c r="C372" s="23"/>
       <c r="D372" s="67" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E372" s="25" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F372" s="25">
         <v>1</v>
       </c>
       <c r="G372" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="373" customHeight="1" spans="1:7">
@@ -12887,14 +12930,14 @@
       <c r="B373" s="22"/>
       <c r="C373" s="23"/>
       <c r="D373" s="69" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E373" s="25"/>
       <c r="F373" s="25">
         <v>1</v>
       </c>
       <c r="G373" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="374" customHeight="1" spans="1:7">
@@ -12904,16 +12947,16 @@
       <c r="B374" s="22"/>
       <c r="C374" s="23"/>
       <c r="D374" s="70" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E374" s="25" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F374" s="25">
         <v>1</v>
       </c>
       <c r="G374" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="375" customHeight="1" spans="1:7">
@@ -12923,16 +12966,16 @@
       <c r="B375" s="22"/>
       <c r="C375" s="23"/>
       <c r="D375" s="67" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E375" s="25" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F375" s="25">
         <v>1</v>
       </c>
       <c r="G375" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="376" customHeight="1" spans="1:7">
@@ -12940,20 +12983,20 @@
         <v>375</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C376" s="23"/>
       <c r="D376" s="67" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E376" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F376" s="25">
         <v>1</v>
       </c>
       <c r="G376" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="377" customHeight="1" spans="1:7">
@@ -12963,14 +13006,14 @@
       <c r="B377" s="22"/>
       <c r="C377" s="23"/>
       <c r="D377" s="67" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E377" s="25"/>
       <c r="F377" s="25">
         <v>1</v>
       </c>
       <c r="G377" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="378" customHeight="1" spans="1:7">
@@ -12980,14 +13023,14 @@
       <c r="B378" s="22"/>
       <c r="C378" s="23"/>
       <c r="D378" s="67" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E378" s="25"/>
       <c r="F378" s="25">
         <v>1</v>
       </c>
       <c r="G378" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="379" customHeight="1" spans="1:7">
@@ -12997,14 +13040,14 @@
       <c r="B379" s="22"/>
       <c r="C379" s="23"/>
       <c r="D379" s="67" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E379" s="25"/>
       <c r="F379" s="25">
         <v>1</v>
       </c>
       <c r="G379" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="380" customHeight="1" spans="1:7">
@@ -13014,14 +13057,14 @@
       <c r="B380" s="22"/>
       <c r="C380" s="23"/>
       <c r="D380" s="67" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E380" s="25"/>
       <c r="F380" s="25">
         <v>1</v>
       </c>
       <c r="G380" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="381" customHeight="1" spans="1:7">
@@ -13031,14 +13074,14 @@
       <c r="B381" s="22"/>
       <c r="C381" s="23"/>
       <c r="D381" s="67" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E381" s="25"/>
       <c r="F381" s="25">
         <v>1</v>
       </c>
       <c r="G381" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="382" customHeight="1" spans="1:7">
@@ -13048,16 +13091,16 @@
       <c r="B382" s="22"/>
       <c r="C382" s="23"/>
       <c r="D382" s="67" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E382" s="25" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F382" s="25">
         <v>1</v>
       </c>
       <c r="G382" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="383" customHeight="1" spans="1:7">
@@ -13067,16 +13110,16 @@
       <c r="B383" s="22"/>
       <c r="C383" s="23"/>
       <c r="D383" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E383" s="25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F383" s="25">
         <v>1</v>
       </c>
       <c r="G383" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="384" customHeight="1" spans="1:7">
@@ -13086,16 +13129,16 @@
       <c r="B384" s="22"/>
       <c r="C384" s="23"/>
       <c r="D384" s="67" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E384" s="25" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F384" s="25">
         <v>1</v>
       </c>
       <c r="G384" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="385" customHeight="1" spans="1:7">
@@ -13105,16 +13148,16 @@
       <c r="B385" s="22"/>
       <c r="C385" s="23"/>
       <c r="D385" s="67" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E385" s="25" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F385" s="25">
         <v>1</v>
       </c>
       <c r="G385" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="386" customHeight="1" spans="1:7">
@@ -13124,16 +13167,16 @@
       <c r="B386" s="22"/>
       <c r="C386" s="23"/>
       <c r="D386" s="67" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E386" s="71" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F386" s="25">
         <v>1</v>
       </c>
       <c r="G386" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="387" customHeight="1" spans="1:7">
@@ -13143,14 +13186,14 @@
       <c r="B387" s="22"/>
       <c r="C387" s="23"/>
       <c r="D387" s="67" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E387" s="25"/>
       <c r="F387" s="25">
         <v>1</v>
       </c>
       <c r="G387" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="388" customHeight="1" spans="1:7">
@@ -13160,16 +13203,16 @@
       <c r="B388" s="22"/>
       <c r="C388" s="23"/>
       <c r="D388" s="67" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E388" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F388" s="25">
         <v>1</v>
       </c>
       <c r="G388" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="389" customHeight="1" spans="1:7">
@@ -13179,16 +13222,16 @@
       <c r="B389" s="22"/>
       <c r="C389" s="23"/>
       <c r="D389" s="67" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E389" s="25" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F389" s="25">
         <v>1</v>
       </c>
       <c r="G389" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="390" customHeight="1" spans="1:7">
@@ -13198,16 +13241,16 @@
       <c r="B390" s="22"/>
       <c r="C390" s="23"/>
       <c r="D390" s="67" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E390" s="25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F390" s="25">
         <v>1</v>
       </c>
       <c r="G390" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="391" customHeight="1" spans="1:7">
@@ -13217,14 +13260,14 @@
       <c r="B391" s="22"/>
       <c r="C391" s="23"/>
       <c r="D391" s="69" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E391" s="25"/>
       <c r="F391" s="25">
         <v>1</v>
       </c>
       <c r="G391" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="392" customHeight="1" spans="1:7">
@@ -13232,20 +13275,20 @@
         <v>391</v>
       </c>
       <c r="B392" s="22" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C392" s="23"/>
       <c r="D392" s="67" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E392" s="25" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F392" s="25">
         <v>1</v>
       </c>
       <c r="G392" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="393" customHeight="1" spans="1:7">
@@ -13255,16 +13298,16 @@
       <c r="B393" s="22"/>
       <c r="C393" s="23"/>
       <c r="D393" s="67" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E393" s="25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F393" s="25">
         <v>1</v>
       </c>
       <c r="G393" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="394" customHeight="1" spans="1:7">
@@ -13274,16 +13317,16 @@
       <c r="B394" s="22"/>
       <c r="C394" s="23"/>
       <c r="D394" s="67" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E394" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F394" s="25">
         <v>1</v>
       </c>
       <c r="G394" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="395" customHeight="1" spans="1:7">
@@ -13293,16 +13336,16 @@
       <c r="B395" s="22"/>
       <c r="C395" s="23"/>
       <c r="D395" s="67" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E395" s="25" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F395" s="25">
         <v>1</v>
       </c>
       <c r="G395" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="396" customHeight="1" spans="1:7">
@@ -13312,16 +13355,16 @@
       <c r="B396" s="22"/>
       <c r="C396" s="23"/>
       <c r="D396" s="67" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E396" s="25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F396" s="25">
         <v>1</v>
       </c>
       <c r="G396" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="397" customHeight="1" spans="1:7">
@@ -13331,16 +13374,16 @@
       <c r="B397" s="22"/>
       <c r="C397" s="23"/>
       <c r="D397" s="67" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E397" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F397" s="25">
         <v>1</v>
       </c>
       <c r="G397" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="398" customHeight="1" spans="1:7">
@@ -13350,14 +13393,14 @@
       <c r="B398" s="22"/>
       <c r="C398" s="23"/>
       <c r="D398" s="69" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E398" s="25"/>
       <c r="F398" s="25">
         <v>1</v>
       </c>
       <c r="G398" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="399" customHeight="1" spans="1:7">
@@ -13367,14 +13410,14 @@
       <c r="B399" s="22"/>
       <c r="C399" s="23"/>
       <c r="D399" s="69" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E399" s="25"/>
       <c r="F399" s="25">
         <v>1</v>
       </c>
       <c r="G399" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="400" customHeight="1" spans="1:7">
@@ -13384,14 +13427,14 @@
       <c r="B400" s="22"/>
       <c r="C400" s="23"/>
       <c r="D400" s="69" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E400" s="25"/>
       <c r="F400" s="25">
         <v>1</v>
       </c>
       <c r="G400" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="401" customHeight="1" spans="1:7">
@@ -13401,14 +13444,14 @@
       <c r="B401" s="22"/>
       <c r="C401" s="23"/>
       <c r="D401" s="69" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E401" s="25"/>
       <c r="F401" s="25">
         <v>1</v>
       </c>
       <c r="G401" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="402" customHeight="1" spans="1:7">
@@ -13418,16 +13461,16 @@
       <c r="B402" s="22"/>
       <c r="C402" s="23"/>
       <c r="D402" s="67" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E402" s="25" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F402" s="25">
         <v>1</v>
       </c>
       <c r="G402" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="403" customHeight="1" spans="1:7">
@@ -13437,16 +13480,16 @@
       <c r="B403" s="22"/>
       <c r="C403" s="23"/>
       <c r="D403" s="67" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E403" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F403" s="25">
         <v>1</v>
       </c>
       <c r="G403" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="404" customHeight="1" spans="1:7">
@@ -13456,16 +13499,16 @@
       <c r="B404" s="22"/>
       <c r="C404" s="23"/>
       <c r="D404" s="67" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E404" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F404" s="25">
         <v>1</v>
       </c>
       <c r="G404" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="405" customHeight="1" spans="1:7">
@@ -13475,16 +13518,16 @@
       <c r="B405" s="22"/>
       <c r="C405" s="23"/>
       <c r="D405" s="67" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E405" s="25" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F405" s="25">
         <v>1</v>
       </c>
       <c r="G405" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="406" customHeight="1" spans="1:7">
@@ -13494,16 +13537,16 @@
       <c r="B406" s="22"/>
       <c r="C406" s="23"/>
       <c r="D406" s="67" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E406" s="25" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F406" s="25">
         <v>1</v>
       </c>
       <c r="G406" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="407" customHeight="1" spans="1:7">
@@ -13513,16 +13556,16 @@
       <c r="B407" s="22"/>
       <c r="C407" s="23"/>
       <c r="D407" s="67" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E407" s="25" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F407" s="25">
         <v>1</v>
       </c>
       <c r="G407" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="408" customHeight="1" spans="1:7">
@@ -13532,16 +13575,16 @@
       <c r="B408" s="22"/>
       <c r="C408" s="23"/>
       <c r="D408" s="67" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E408" s="25" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F408" s="25">
         <v>1</v>
       </c>
       <c r="G408" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="409" customHeight="1" spans="1:7">
@@ -13551,16 +13594,16 @@
       <c r="B409" s="22"/>
       <c r="C409" s="23"/>
       <c r="D409" s="67" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E409" s="25" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F409" s="25">
         <v>1</v>
       </c>
       <c r="G409" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="410" customHeight="1" spans="1:7">
@@ -13570,16 +13613,16 @@
       <c r="B410" s="22"/>
       <c r="C410" s="23"/>
       <c r="D410" s="67" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E410" s="25" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F410" s="25">
         <v>1</v>
       </c>
       <c r="G410" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="411" customHeight="1" spans="1:7">
@@ -13589,16 +13632,16 @@
       <c r="B411" s="22"/>
       <c r="C411" s="23"/>
       <c r="D411" s="67" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E411" s="25" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F411" s="25">
         <v>1</v>
       </c>
       <c r="G411" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="412" customHeight="1" spans="1:7">
@@ -13608,16 +13651,16 @@
       <c r="B412" s="22"/>
       <c r="C412" s="23"/>
       <c r="D412" s="67" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E412" s="25" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F412" s="25">
         <v>1</v>
       </c>
       <c r="G412" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="413" customHeight="1" spans="1:7">
@@ -13627,16 +13670,16 @@
       <c r="B413" s="22"/>
       <c r="C413" s="23"/>
       <c r="D413" s="67" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E413" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F413" s="25">
         <v>1</v>
       </c>
       <c r="G413" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="414" customHeight="1" spans="1:7">
@@ -13646,16 +13689,16 @@
       <c r="B414" s="22"/>
       <c r="C414" s="23"/>
       <c r="D414" s="67" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E414" s="25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F414" s="25">
         <v>1</v>
       </c>
       <c r="G414" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="415" customHeight="1" spans="1:7">
@@ -13665,16 +13708,16 @@
       <c r="B415" s="22"/>
       <c r="C415" s="23"/>
       <c r="D415" s="67" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E415" s="25" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F415" s="25">
         <v>1</v>
       </c>
       <c r="G415" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="416" customHeight="1" spans="1:7">
@@ -13684,16 +13727,16 @@
       <c r="B416" s="22"/>
       <c r="C416" s="23"/>
       <c r="D416" s="67" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E416" s="25" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F416" s="25">
         <v>1</v>
       </c>
       <c r="G416" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="417" customHeight="1" spans="1:7">
@@ -13701,20 +13744,20 @@
         <v>416</v>
       </c>
       <c r="B417" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C417" s="23"/>
       <c r="D417" s="67" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E417" s="25" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F417" s="25">
         <v>1</v>
       </c>
       <c r="G417" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="418" customHeight="1" spans="1:7">
@@ -13724,16 +13767,16 @@
       <c r="B418" s="22"/>
       <c r="C418" s="23"/>
       <c r="D418" s="67" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E418" s="25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F418" s="25">
         <v>1</v>
       </c>
       <c r="G418" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="419" customHeight="1" spans="1:7">
@@ -13743,16 +13786,16 @@
       <c r="B419" s="22"/>
       <c r="C419" s="23"/>
       <c r="D419" s="67" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E419" s="25" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F419" s="25">
         <v>1</v>
       </c>
       <c r="G419" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="420" customHeight="1" spans="1:7">
@@ -13762,16 +13805,16 @@
       <c r="B420" s="22"/>
       <c r="C420" s="23"/>
       <c r="D420" s="67" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E420" s="25" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F420" s="25">
         <v>1</v>
       </c>
       <c r="G420" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="421" customHeight="1" spans="1:7">
@@ -13781,16 +13824,16 @@
       <c r="B421" s="22"/>
       <c r="C421" s="23"/>
       <c r="D421" s="67" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E421" s="25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F421" s="25">
         <v>1</v>
       </c>
       <c r="G421" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="422" customHeight="1" spans="1:7">
@@ -13800,16 +13843,16 @@
       <c r="B422" s="22"/>
       <c r="C422" s="23"/>
       <c r="D422" s="67" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E422" s="25" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F422" s="25">
         <v>1</v>
       </c>
       <c r="G422" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="423" customHeight="1" spans="1:7">
@@ -13822,13 +13865,13 @@
         <v>91</v>
       </c>
       <c r="E423" s="25" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F423" s="25">
         <v>1</v>
       </c>
       <c r="G423" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="424" customHeight="1" spans="1:7">
@@ -13838,16 +13881,16 @@
       <c r="B424" s="22"/>
       <c r="C424" s="23"/>
       <c r="D424" s="67" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E424" s="25" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F424" s="25">
         <v>1</v>
       </c>
       <c r="G424" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="425" customHeight="1" spans="1:7">
@@ -13857,16 +13900,16 @@
       <c r="B425" s="22"/>
       <c r="C425" s="23"/>
       <c r="D425" s="67" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E425" s="25" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F425" s="25">
         <v>1</v>
       </c>
       <c r="G425" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="426" customHeight="1" spans="1:7">
@@ -13876,16 +13919,16 @@
       <c r="B426" s="22"/>
       <c r="C426" s="23"/>
       <c r="D426" s="67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E426" s="25" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F426" s="25">
         <v>1</v>
       </c>
       <c r="G426" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="427" customHeight="1" spans="1:7">
@@ -13895,16 +13938,16 @@
       <c r="B427" s="22"/>
       <c r="C427" s="23"/>
       <c r="D427" s="67" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E427" s="25" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F427" s="25">
         <v>1</v>
       </c>
       <c r="G427" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="428" customHeight="1" spans="1:7">
@@ -13914,16 +13957,16 @@
       <c r="B428" s="22"/>
       <c r="C428" s="23"/>
       <c r="D428" s="67" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E428" s="25" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F428" s="25">
         <v>1</v>
       </c>
       <c r="G428" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="429" customHeight="1" spans="1:7">
@@ -13933,16 +13976,16 @@
       <c r="B429" s="22"/>
       <c r="C429" s="23"/>
       <c r="D429" s="67" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E429" s="25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F429" s="25">
         <v>1</v>
       </c>
       <c r="G429" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="430" customHeight="1" spans="1:7">
@@ -13952,16 +13995,16 @@
       <c r="B430" s="22"/>
       <c r="C430" s="23"/>
       <c r="D430" s="67" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E430" s="25" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F430" s="25">
         <v>1</v>
       </c>
       <c r="G430" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="431" customHeight="1" spans="1:7">
@@ -13971,14 +14014,14 @@
       <c r="B431" s="22"/>
       <c r="C431" s="23"/>
       <c r="D431" s="67" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E431" s="25"/>
       <c r="F431" s="25">
         <v>1</v>
       </c>
       <c r="G431" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="432" customHeight="1" spans="1:7">
@@ -13988,14 +14031,14 @@
       <c r="B432" s="22"/>
       <c r="C432" s="23"/>
       <c r="D432" s="69" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E432" s="25"/>
       <c r="F432" s="25">
         <v>1</v>
       </c>
       <c r="G432" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="433" customHeight="1" spans="1:7">
@@ -14005,16 +14048,16 @@
       <c r="B433" s="22"/>
       <c r="C433" s="23"/>
       <c r="D433" s="67" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E433" s="25" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F433" s="25">
         <v>1</v>
       </c>
       <c r="G433" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="434" customHeight="1" spans="1:7">
@@ -14024,16 +14067,16 @@
       <c r="B434" s="22"/>
       <c r="C434" s="23"/>
       <c r="D434" s="67" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E434" s="25" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F434" s="25">
         <v>1</v>
       </c>
       <c r="G434" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="435" customHeight="1" spans="1:7">
@@ -14043,16 +14086,16 @@
       <c r="B435" s="22"/>
       <c r="C435" s="23"/>
       <c r="D435" s="67" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E435" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F435" s="25">
         <v>1</v>
       </c>
       <c r="G435" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="436" customHeight="1" spans="1:7">
@@ -14062,16 +14105,16 @@
       <c r="B436" s="22"/>
       <c r="C436" s="23"/>
       <c r="D436" s="67" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E436" s="25" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F436" s="25">
         <v>1</v>
       </c>
       <c r="G436" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="437" customHeight="1" spans="1:7">
@@ -14081,16 +14124,16 @@
       <c r="B437" s="22"/>
       <c r="C437" s="23"/>
       <c r="D437" s="67" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E437" s="25" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F437" s="25">
         <v>1</v>
       </c>
       <c r="G437" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="438" customHeight="1" spans="1:7">
@@ -14100,16 +14143,16 @@
       <c r="B438" s="22"/>
       <c r="C438" s="23"/>
       <c r="D438" s="67" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E438" s="25" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F438" s="25">
         <v>1</v>
       </c>
       <c r="G438" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="439" customHeight="1" spans="1:7">
@@ -14119,14 +14162,14 @@
       <c r="B439" s="22"/>
       <c r="C439" s="23"/>
       <c r="D439" s="69" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E439" s="25"/>
       <c r="F439" s="25">
         <v>1</v>
       </c>
       <c r="G439" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="440" customHeight="1" spans="1:7">
@@ -14136,14 +14179,14 @@
       <c r="B440" s="22"/>
       <c r="C440" s="23"/>
       <c r="D440" s="67" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E440" s="25"/>
       <c r="F440" s="25">
         <v>1</v>
       </c>
       <c r="G440" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="441" customHeight="1" spans="1:7">
@@ -14153,14 +14196,14 @@
       <c r="B441" s="22"/>
       <c r="C441" s="23"/>
       <c r="D441" s="69" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E441" s="25"/>
       <c r="F441" s="25">
         <v>1</v>
       </c>
       <c r="G441" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="442" customHeight="1" spans="1:7">
@@ -14170,16 +14213,16 @@
       <c r="B442" s="22"/>
       <c r="C442" s="23"/>
       <c r="D442" s="67" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E442" s="25" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F442" s="25">
         <v>1</v>
       </c>
       <c r="G442" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="443" customHeight="1" spans="1:7">
@@ -14189,14 +14232,14 @@
       <c r="B443" s="22"/>
       <c r="C443" s="23"/>
       <c r="D443" s="67" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E443" s="25"/>
       <c r="F443" s="25">
         <v>1</v>
       </c>
       <c r="G443" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="444" customHeight="1" spans="1:7">
@@ -14206,16 +14249,16 @@
       <c r="B444" s="22"/>
       <c r="C444" s="23"/>
       <c r="D444" s="67" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E444" s="25" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F444" s="25">
         <v>1</v>
       </c>
       <c r="G444" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="445" customHeight="1" spans="1:7">
@@ -14225,16 +14268,16 @@
       <c r="B445" s="22"/>
       <c r="C445" s="23"/>
       <c r="D445" s="67" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E445" s="25" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F445" s="25">
         <v>1</v>
       </c>
       <c r="G445" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="446" customHeight="1" spans="1:7">
@@ -14244,16 +14287,16 @@
       <c r="B446" s="22"/>
       <c r="C446" s="23"/>
       <c r="D446" s="67" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E446" s="25" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F446" s="25">
         <v>1</v>
       </c>
       <c r="G446" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="447" customHeight="1" spans="1:7">
@@ -14263,14 +14306,14 @@
       <c r="B447" s="22"/>
       <c r="C447" s="23"/>
       <c r="D447" s="67" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E447" s="25"/>
       <c r="F447" s="25">
         <v>1</v>
       </c>
       <c r="G447" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="448" customHeight="1" spans="1:7">
@@ -14280,16 +14323,16 @@
       <c r="B448" s="22"/>
       <c r="C448" s="23"/>
       <c r="D448" s="67" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E448" s="25" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F448" s="25">
         <v>1</v>
       </c>
       <c r="G448" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="449" customHeight="1" spans="1:7">
@@ -14299,16 +14342,16 @@
       <c r="B449" s="22"/>
       <c r="C449" s="23"/>
       <c r="D449" s="67" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E449" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="F449" s="25">
         <v>1</v>
       </c>
       <c r="G449" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="450" customHeight="1" spans="1:7">
@@ -14318,14 +14361,14 @@
       <c r="B450" s="22"/>
       <c r="C450" s="23"/>
       <c r="D450" s="67" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E450" s="25"/>
       <c r="F450" s="25">
         <v>1</v>
       </c>
       <c r="G450" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="451" customHeight="1" spans="1:7">
@@ -14335,14 +14378,14 @@
       <c r="B451" s="22"/>
       <c r="C451" s="23"/>
       <c r="D451" s="67" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E451" s="25"/>
       <c r="F451" s="25">
         <v>1</v>
       </c>
       <c r="G451" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="452" customHeight="1" spans="1:7">
@@ -14352,14 +14395,14 @@
       <c r="B452" s="22"/>
       <c r="C452" s="23"/>
       <c r="D452" s="69" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E452" s="25"/>
       <c r="F452" s="25">
         <v>1</v>
       </c>
       <c r="G452" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="453" customHeight="1" spans="1:7">
@@ -14369,16 +14412,16 @@
       <c r="B453" s="22"/>
       <c r="C453" s="23"/>
       <c r="D453" s="67" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E453" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F453" s="25">
         <v>1</v>
       </c>
       <c r="G453" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="454" customHeight="1" spans="1:7">
@@ -14388,14 +14431,14 @@
       <c r="B454" s="22"/>
       <c r="C454" s="23"/>
       <c r="D454" s="69" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E454" s="25"/>
       <c r="F454" s="25">
         <v>1</v>
       </c>
       <c r="G454" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="455" customHeight="1" spans="1:7">
@@ -14405,16 +14448,16 @@
       <c r="B455" s="22"/>
       <c r="C455" s="23"/>
       <c r="D455" s="67" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E455" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F455" s="25">
         <v>1</v>
       </c>
       <c r="G455" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="456" customHeight="1" spans="1:7">
@@ -14424,16 +14467,16 @@
       <c r="B456" s="22"/>
       <c r="C456" s="23"/>
       <c r="D456" s="67" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E456" s="25" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F456" s="25">
         <v>1</v>
       </c>
       <c r="G456" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="457" customHeight="1" spans="1:7">
@@ -14443,16 +14486,16 @@
       <c r="B457" s="22"/>
       <c r="C457" s="23"/>
       <c r="D457" s="67" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E457" s="25" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F457" s="25">
         <v>1</v>
       </c>
       <c r="G457" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="458" customHeight="1" spans="1:7">
@@ -14462,16 +14505,16 @@
       <c r="B458" s="22"/>
       <c r="C458" s="23"/>
       <c r="D458" s="67" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E458" s="25" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F458" s="25">
         <v>1</v>
       </c>
       <c r="G458" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="459" customHeight="1" spans="1:7">
@@ -14481,16 +14524,16 @@
       <c r="B459" s="22"/>
       <c r="C459" s="23"/>
       <c r="D459" s="67" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="E459" s="25" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F459" s="25">
         <v>1</v>
       </c>
       <c r="G459" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="460" customHeight="1" spans="1:7">
@@ -14500,16 +14543,16 @@
       <c r="B460" s="22"/>
       <c r="C460" s="23"/>
       <c r="D460" s="67" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E460" s="25" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F460" s="25">
         <v>1</v>
       </c>
       <c r="G460" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="461" customHeight="1" spans="1:7">
@@ -14519,16 +14562,16 @@
       <c r="B461" s="22"/>
       <c r="C461" s="23"/>
       <c r="D461" s="67" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E461" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F461" s="25">
         <v>1</v>
       </c>
       <c r="G461" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="462" customHeight="1" spans="1:7">
@@ -14538,16 +14581,16 @@
       <c r="B462" s="22"/>
       <c r="C462" s="23"/>
       <c r="D462" s="67" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="E462" s="25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F462" s="25">
         <v>1</v>
       </c>
       <c r="G462" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="463" customHeight="1" spans="1:7">
@@ -14557,14 +14600,14 @@
       <c r="B463" s="22"/>
       <c r="C463" s="23"/>
       <c r="D463" s="69" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="E463" s="25"/>
       <c r="F463" s="25">
         <v>1</v>
       </c>
       <c r="G463" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="464" customHeight="1" spans="1:7">
@@ -14574,16 +14617,16 @@
       <c r="B464" s="22"/>
       <c r="C464" s="23"/>
       <c r="D464" s="67" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E464" s="25" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F464" s="25">
         <v>1</v>
       </c>
       <c r="G464" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="465" customHeight="1" spans="1:7">
@@ -14593,16 +14636,16 @@
       <c r="B465" s="22"/>
       <c r="C465" s="23"/>
       <c r="D465" s="67" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="E465" s="25" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F465" s="25">
         <v>1</v>
       </c>
       <c r="G465" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="466" customHeight="1" spans="1:7">
@@ -14610,20 +14653,20 @@
         <v>465</v>
       </c>
       <c r="B466" s="22" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C466" s="23"/>
       <c r="D466" s="67" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="E466" s="25" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="F466" s="25">
         <v>1</v>
       </c>
       <c r="G466" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="467" customHeight="1" spans="1:7">
@@ -14633,16 +14676,16 @@
       <c r="B467" s="22"/>
       <c r="C467" s="23"/>
       <c r="D467" s="67" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="E467" s="25" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="F467" s="25">
         <v>1</v>
       </c>
       <c r="G467" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="468" customHeight="1" spans="1:7">
@@ -14652,16 +14695,16 @@
       <c r="B468" s="22"/>
       <c r="C468" s="23"/>
       <c r="D468" s="67" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E468" s="25" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="F468" s="25">
         <v>1</v>
       </c>
       <c r="G468" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="469" customHeight="1" spans="1:7">
@@ -14671,16 +14714,16 @@
       <c r="B469" s="22"/>
       <c r="C469" s="23"/>
       <c r="D469" s="67" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E469" s="25" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="F469" s="25">
         <v>1</v>
       </c>
       <c r="G469" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="470" customHeight="1" spans="1:7">
@@ -14690,16 +14733,16 @@
       <c r="B470" s="22"/>
       <c r="C470" s="23"/>
       <c r="D470" s="67" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E470" s="25" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F470" s="25">
         <v>1</v>
       </c>
       <c r="G470" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="471" customHeight="1" spans="1:7">
@@ -14709,16 +14752,16 @@
       <c r="B471" s="22"/>
       <c r="C471" s="23"/>
       <c r="D471" s="67" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E471" s="25" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F471" s="25">
         <v>1</v>
       </c>
       <c r="G471" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="472" customHeight="1" spans="1:7">
@@ -14728,16 +14771,16 @@
       <c r="B472" s="22"/>
       <c r="C472" s="23"/>
       <c r="D472" s="67" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="E472" s="25" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F472" s="25">
         <v>1</v>
       </c>
       <c r="G472" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="473" customHeight="1" spans="1:7">
@@ -14747,16 +14790,16 @@
       <c r="B473" s="22"/>
       <c r="C473" s="23"/>
       <c r="D473" s="67" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E473" s="25" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F473" s="25">
         <v>1</v>
       </c>
       <c r="G473" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="474" customHeight="1" spans="1:7">
@@ -14766,14 +14809,14 @@
       <c r="B474" s="22"/>
       <c r="C474" s="23"/>
       <c r="D474" s="67" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E474" s="25"/>
       <c r="F474" s="25">
         <v>1</v>
       </c>
       <c r="G474" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="475" customHeight="1" spans="1:7">
@@ -14783,16 +14826,16 @@
       <c r="B475" s="22"/>
       <c r="C475" s="23"/>
       <c r="D475" s="67" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E475" s="25" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F475" s="25">
         <v>1</v>
       </c>
       <c r="G475" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="476" customHeight="1" spans="1:7">
@@ -14802,14 +14845,14 @@
       <c r="B476" s="22"/>
       <c r="C476" s="23"/>
       <c r="D476" s="67" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="E476" s="25"/>
       <c r="F476" s="25">
         <v>1</v>
       </c>
       <c r="G476" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="477" customHeight="1" spans="1:7">
@@ -14819,16 +14862,16 @@
       <c r="B477" s="22"/>
       <c r="C477" s="23"/>
       <c r="D477" s="67" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E477" s="25" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F477" s="25">
         <v>1</v>
       </c>
       <c r="G477" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="478" customHeight="1" spans="1:7">
@@ -14838,16 +14881,16 @@
       <c r="B478" s="22"/>
       <c r="C478" s="23"/>
       <c r="D478" s="67" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E478" s="25" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="F478" s="25">
         <v>1</v>
       </c>
       <c r="G478" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="479" customHeight="1" spans="1:7">
@@ -14857,16 +14900,16 @@
       <c r="B479" s="22"/>
       <c r="C479" s="23"/>
       <c r="D479" s="67" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="E479" s="25" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="F479" s="25">
         <v>1</v>
       </c>
       <c r="G479" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="480" customHeight="1" spans="1:7">
@@ -14876,16 +14919,16 @@
       <c r="B480" s="22"/>
       <c r="C480" s="23"/>
       <c r="D480" s="67" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E480" s="25" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F480" s="25">
         <v>1</v>
       </c>
       <c r="G480" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="481" customHeight="1" spans="1:7">
@@ -14895,16 +14938,16 @@
       <c r="B481" s="22"/>
       <c r="C481" s="23"/>
       <c r="D481" s="67" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E481" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F481" s="25">
         <v>1</v>
       </c>
       <c r="G481" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="482" customHeight="1" spans="1:7">
@@ -14914,14 +14957,14 @@
       <c r="B482" s="22"/>
       <c r="C482" s="23"/>
       <c r="D482" s="67" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E482" s="25"/>
       <c r="F482" s="25">
         <v>1</v>
       </c>
       <c r="G482" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="483" customHeight="1" spans="1:7">
@@ -14931,14 +14974,14 @@
       <c r="B483" s="22"/>
       <c r="C483" s="23"/>
       <c r="D483" s="67" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E483" s="25"/>
       <c r="F483" s="25">
         <v>1</v>
       </c>
       <c r="G483" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="484" customHeight="1" spans="1:7">
@@ -14948,16 +14991,16 @@
       <c r="B484" s="22"/>
       <c r="C484" s="23"/>
       <c r="D484" s="67" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E484" s="25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F484" s="25">
         <v>1</v>
       </c>
       <c r="G484" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="485" customHeight="1" spans="1:7">
@@ -14967,16 +15010,16 @@
       <c r="B485" s="22"/>
       <c r="C485" s="23"/>
       <c r="D485" s="67" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E485" s="25" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F485" s="25">
         <v>1</v>
       </c>
       <c r="G485" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="486" customHeight="1" spans="1:7">
@@ -14986,16 +15029,16 @@
       <c r="B486" s="22"/>
       <c r="C486" s="23"/>
       <c r="D486" s="67" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E486" s="25" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F486" s="25">
         <v>1</v>
       </c>
       <c r="G486" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="487" customHeight="1" spans="1:7">
@@ -15005,16 +15048,16 @@
       <c r="B487" s="22"/>
       <c r="C487" s="23"/>
       <c r="D487" s="67" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E487" s="25" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F487" s="25">
         <v>1</v>
       </c>
       <c r="G487" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="488" customHeight="1" spans="1:7">
@@ -15024,16 +15067,16 @@
       <c r="B488" s="22"/>
       <c r="C488" s="23"/>
       <c r="D488" s="67" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E488" s="25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F488" s="25">
         <v>1</v>
       </c>
       <c r="G488" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="489" customHeight="1" spans="1:7">
@@ -15043,16 +15086,16 @@
       <c r="B489" s="22"/>
       <c r="C489" s="23"/>
       <c r="D489" s="67" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E489" s="25" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F489" s="25">
         <v>1</v>
       </c>
       <c r="G489" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="490" customHeight="1" spans="1:7">
@@ -15062,16 +15105,16 @@
       <c r="B490" s="22"/>
       <c r="C490" s="23"/>
       <c r="D490" s="67" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E490" s="25" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F490" s="25">
         <v>1</v>
       </c>
       <c r="G490" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="491" customHeight="1" spans="1:7">
@@ -15081,16 +15124,16 @@
       <c r="B491" s="22"/>
       <c r="C491" s="23"/>
       <c r="D491" s="67" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E491" s="25" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F491" s="25">
         <v>1</v>
       </c>
       <c r="G491" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="492" customHeight="1" spans="1:7">
@@ -15100,14 +15143,14 @@
       <c r="B492" s="22"/>
       <c r="C492" s="23"/>
       <c r="D492" s="69" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E492" s="25"/>
       <c r="F492" s="25">
         <v>1</v>
       </c>
       <c r="G492" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="493" customHeight="1" spans="1:7">
@@ -15117,14 +15160,14 @@
       <c r="B493" s="22"/>
       <c r="C493" s="23"/>
       <c r="D493" s="69" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E493" s="25"/>
       <c r="F493" s="25">
         <v>1</v>
       </c>
       <c r="G493" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="494" customHeight="1" spans="1:7">
@@ -15134,14 +15177,14 @@
       <c r="B494" s="22"/>
       <c r="C494" s="23"/>
       <c r="D494" s="69" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E494" s="25"/>
       <c r="F494" s="25">
         <v>1</v>
       </c>
       <c r="G494" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="495" customHeight="1" spans="1:7">
@@ -15151,14 +15194,14 @@
       <c r="B495" s="22"/>
       <c r="C495" s="23"/>
       <c r="D495" s="69" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E495" s="25"/>
       <c r="F495" s="25">
         <v>1</v>
       </c>
       <c r="G495" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="496" customHeight="1" spans="1:7">
@@ -15168,16 +15211,16 @@
       <c r="B496" s="22"/>
       <c r="C496" s="23"/>
       <c r="D496" s="67" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E496" s="25" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F496" s="25">
         <v>1</v>
       </c>
       <c r="G496" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="497" customHeight="1" spans="1:7">
@@ -15187,16 +15230,16 @@
       <c r="B497" s="22"/>
       <c r="C497" s="23"/>
       <c r="D497" s="67" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E497" s="25" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F497" s="25">
         <v>1</v>
       </c>
       <c r="G497" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="498" customHeight="1" spans="1:7">
@@ -15206,16 +15249,16 @@
       <c r="B498" s="22"/>
       <c r="C498" s="23"/>
       <c r="D498" s="69" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E498" s="25" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F498" s="25">
         <v>1</v>
       </c>
       <c r="G498" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="499" customHeight="1" spans="1:7">
@@ -15225,16 +15268,16 @@
       <c r="B499" s="22"/>
       <c r="C499" s="23"/>
       <c r="D499" s="67" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E499" s="25" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F499" s="25">
         <v>1</v>
       </c>
       <c r="G499" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="500" customHeight="1" spans="1:7">
@@ -15244,16 +15287,16 @@
       <c r="B500" s="22"/>
       <c r="C500" s="23"/>
       <c r="D500" s="67" t="s">
-        <v>754</v>
+        <v>584</v>
       </c>
       <c r="E500" s="25" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F500" s="25">
         <v>1</v>
       </c>
       <c r="G500" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="501" customHeight="1" spans="1:7">
@@ -15263,16 +15306,16 @@
       <c r="B501" s="22"/>
       <c r="C501" s="23"/>
       <c r="D501" s="67" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E501" s="25" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F501" s="25">
         <v>1</v>
       </c>
       <c r="G501" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="502" customHeight="1" spans="1:7">
@@ -15282,16 +15325,16 @@
       <c r="B502" s="22"/>
       <c r="C502" s="23"/>
       <c r="D502" s="67" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E502" s="25" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F502" s="25">
         <v>1</v>
       </c>
       <c r="G502" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="503" customHeight="1" spans="1:7">
@@ -15301,16 +15344,16 @@
       <c r="B503" s="22"/>
       <c r="C503" s="23"/>
       <c r="D503" s="67" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E503" s="25" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F503" s="25">
         <v>1</v>
       </c>
       <c r="G503" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="504" customHeight="1" spans="1:7">
@@ -15320,16 +15363,16 @@
       <c r="B504" s="22"/>
       <c r="C504" s="23"/>
       <c r="D504" s="67" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E504" s="25" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F504" s="25">
         <v>1</v>
       </c>
       <c r="G504" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="505" customHeight="1" spans="1:7">
@@ -15339,16 +15382,16 @@
       <c r="B505" s="22"/>
       <c r="C505" s="23"/>
       <c r="D505" s="67" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E505" s="25" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F505" s="25">
         <v>1</v>
       </c>
       <c r="G505" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="506" customHeight="1" spans="1:7">
@@ -15358,16 +15401,16 @@
       <c r="B506" s="22"/>
       <c r="C506" s="23"/>
       <c r="D506" s="67" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E506" s="25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F506" s="25">
         <v>1</v>
       </c>
       <c r="G506" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="507" customHeight="1" spans="1:7">
@@ -15377,16 +15420,16 @@
       <c r="B507" s="22"/>
       <c r="C507" s="23"/>
       <c r="D507" s="67" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E507" s="25" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F507" s="25">
         <v>1</v>
       </c>
       <c r="G507" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="508" customHeight="1" spans="1:7">
@@ -15396,16 +15439,16 @@
       <c r="B508" s="22"/>
       <c r="C508" s="23"/>
       <c r="D508" s="67" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E508" s="25" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F508" s="25">
         <v>1</v>
       </c>
       <c r="G508" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="509" customHeight="1" spans="1:7">
@@ -15415,16 +15458,16 @@
       <c r="B509" s="22"/>
       <c r="C509" s="23"/>
       <c r="D509" s="67" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E509" s="25" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F509" s="25">
         <v>1</v>
       </c>
       <c r="G509" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="510" customHeight="1" spans="1:7">
@@ -15432,20 +15475,20 @@
         <v>509</v>
       </c>
       <c r="B510" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C510" s="23"/>
       <c r="D510" s="67" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E510" s="25" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F510" s="25">
         <v>1</v>
       </c>
       <c r="G510" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="511" customHeight="1" spans="1:7">
@@ -15453,20 +15496,20 @@
         <v>510</v>
       </c>
       <c r="B511" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C511" s="23"/>
       <c r="D511" s="67" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E511" s="25" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F511" s="25">
         <v>1</v>
       </c>
       <c r="G511" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="512" customHeight="1" spans="1:7">
@@ -15476,16 +15519,16 @@
       <c r="B512" s="22"/>
       <c r="C512" s="23"/>
       <c r="D512" s="67" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E512" s="25" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F512" s="25">
         <v>1</v>
       </c>
       <c r="G512" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="513" customHeight="1" spans="1:7">
@@ -15495,16 +15538,16 @@
       <c r="B513" s="22"/>
       <c r="C513" s="23"/>
       <c r="D513" s="67" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E513" s="25" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F513" s="25">
         <v>1</v>
       </c>
       <c r="G513" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="514" customHeight="1" spans="1:7">
@@ -15514,16 +15557,16 @@
       <c r="B514" s="22"/>
       <c r="C514" s="23"/>
       <c r="D514" s="67" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E514" s="25" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F514" s="25">
         <v>1</v>
       </c>
       <c r="G514" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="515" customHeight="1" spans="1:7">
@@ -15533,16 +15576,16 @@
       <c r="B515" s="22"/>
       <c r="C515" s="23"/>
       <c r="D515" s="67" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E515" s="25" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="F515" s="25">
         <v>1</v>
       </c>
       <c r="G515" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="516" customHeight="1" spans="1:7">
@@ -15552,16 +15595,16 @@
       <c r="B516" s="22"/>
       <c r="C516" s="23"/>
       <c r="D516" s="67" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E516" s="25" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F516" s="25">
         <v>1</v>
       </c>
       <c r="G516" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="517" customHeight="1" spans="1:7">
@@ -15571,16 +15614,16 @@
       <c r="B517" s="22"/>
       <c r="C517" s="23"/>
       <c r="D517" s="67" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E517" s="25" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F517" s="25">
         <v>1</v>
       </c>
       <c r="G517" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="518" customHeight="1" spans="1:7">
@@ -15590,16 +15633,16 @@
       <c r="B518" s="22"/>
       <c r="C518" s="23"/>
       <c r="D518" s="67" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E518" s="25" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="F518" s="25">
         <v>1</v>
       </c>
       <c r="G518" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="519" customHeight="1" spans="1:7">
@@ -15609,16 +15652,16 @@
       <c r="B519" s="22"/>
       <c r="C519" s="23"/>
       <c r="D519" s="67" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E519" s="25" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F519" s="25">
         <v>1</v>
       </c>
       <c r="G519" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="520" customHeight="1" spans="1:7">
@@ -15628,16 +15671,16 @@
       <c r="B520" s="22"/>
       <c r="C520" s="23"/>
       <c r="D520" s="67" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E520" s="25" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F520" s="25">
         <v>1</v>
       </c>
       <c r="G520" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="521" customHeight="1" spans="1:7">
@@ -15647,16 +15690,16 @@
       <c r="B521" s="22"/>
       <c r="C521" s="23"/>
       <c r="D521" s="67" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E521" s="25" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="F521" s="25">
         <v>1</v>
       </c>
       <c r="G521" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="522" customHeight="1" spans="1:7">
@@ -15666,16 +15709,16 @@
       <c r="B522" s="22"/>
       <c r="C522" s="23"/>
       <c r="D522" s="67" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E522" s="25" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F522" s="25">
         <v>1</v>
       </c>
       <c r="G522" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="523" customHeight="1" spans="1:7">
@@ -15685,16 +15728,16 @@
       <c r="B523" s="22"/>
       <c r="C523" s="23"/>
       <c r="D523" s="67" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E523" s="25" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F523" s="25">
         <v>1</v>
       </c>
       <c r="G523" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="524" customHeight="1" spans="1:7">
@@ -15704,14 +15747,14 @@
       <c r="B524" s="22"/>
       <c r="C524" s="23"/>
       <c r="D524" s="69" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E524" s="25"/>
       <c r="F524" s="25">
         <v>1</v>
       </c>
       <c r="G524" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="525" customHeight="1" spans="1:7">
@@ -15721,14 +15764,14 @@
       <c r="B525" s="22"/>
       <c r="C525" s="23"/>
       <c r="D525" s="69" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E525" s="25"/>
       <c r="F525" s="25">
         <v>1</v>
       </c>
       <c r="G525" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="526" customHeight="1" spans="1:7">
@@ -15738,14 +15781,14 @@
       <c r="B526" s="22"/>
       <c r="C526" s="23"/>
       <c r="D526" s="69" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E526" s="25"/>
       <c r="F526" s="25">
         <v>1</v>
       </c>
       <c r="G526" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="527" customHeight="1" spans="1:7">
@@ -15755,16 +15798,16 @@
       <c r="B527" s="22"/>
       <c r="C527" s="23"/>
       <c r="D527" s="67" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E527" s="25" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F527" s="25">
         <v>1</v>
       </c>
       <c r="G527" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="528" customHeight="1" spans="1:7">
@@ -15774,16 +15817,16 @@
       <c r="B528" s="22"/>
       <c r="C528" s="23"/>
       <c r="D528" s="67" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E528" s="25" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F528" s="25">
         <v>1</v>
       </c>
       <c r="G528" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="529" customHeight="1" spans="1:7">
@@ -15793,16 +15836,16 @@
       <c r="B529" s="22"/>
       <c r="C529" s="23"/>
       <c r="D529" s="69" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E529" s="25" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F529" s="25">
         <v>1</v>
       </c>
       <c r="G529" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="530" customHeight="1" spans="1:7">
@@ -15812,14 +15855,14 @@
       <c r="B530" s="22"/>
       <c r="C530" s="23"/>
       <c r="D530" s="69" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E530" s="25"/>
       <c r="F530" s="25">
         <v>1</v>
       </c>
       <c r="G530" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="531" customHeight="1" spans="1:7">
@@ -15829,14 +15872,14 @@
       <c r="B531" s="22"/>
       <c r="C531" s="23"/>
       <c r="D531" s="69" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="E531" s="25"/>
       <c r="F531" s="25">
         <v>1</v>
       </c>
       <c r="G531" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="532" customHeight="1" spans="1:7">
@@ -15846,16 +15889,16 @@
       <c r="B532" s="22"/>
       <c r="C532" s="23"/>
       <c r="D532" s="67" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E532" s="25" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F532" s="25">
         <v>1</v>
       </c>
       <c r="G532" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="533" customHeight="1" spans="1:7">
@@ -15865,14 +15908,14 @@
       <c r="B533" s="22"/>
       <c r="C533" s="23"/>
       <c r="D533" s="69" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E533" s="25"/>
       <c r="F533" s="25">
         <v>1</v>
       </c>
       <c r="G533" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="534" customHeight="1" spans="1:7">
@@ -15882,16 +15925,16 @@
       <c r="B534" s="22"/>
       <c r="C534" s="23"/>
       <c r="D534" s="67" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E534" s="25" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="F534" s="25">
         <v>1</v>
       </c>
       <c r="G534" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="535" customHeight="1" spans="1:7">
@@ -15901,14 +15944,14 @@
       <c r="B535" s="22"/>
       <c r="C535" s="23"/>
       <c r="D535" s="67" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E535" s="25"/>
       <c r="F535" s="25">
         <v>1</v>
       </c>
       <c r="G535" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="536" customHeight="1" spans="1:7">
@@ -15918,16 +15961,16 @@
       <c r="B536" s="22"/>
       <c r="C536" s="23"/>
       <c r="D536" s="67" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E536" s="25" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F536" s="25">
         <v>1</v>
       </c>
       <c r="G536" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="537" customHeight="1" spans="1:7">
@@ -15937,16 +15980,16 @@
       <c r="B537" s="22"/>
       <c r="C537" s="23"/>
       <c r="D537" s="67" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E537" s="25" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F537" s="25">
         <v>1</v>
       </c>
       <c r="G537" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="538" customHeight="1" spans="1:7">
@@ -15956,14 +15999,14 @@
       <c r="B538" s="22"/>
       <c r="C538" s="23"/>
       <c r="D538" s="69" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E538" s="25"/>
       <c r="F538" s="25">
         <v>1</v>
       </c>
       <c r="G538" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="539" customHeight="1" spans="1:7">
@@ -15973,14 +16016,14 @@
       <c r="B539" s="22"/>
       <c r="C539" s="23"/>
       <c r="D539" s="69" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E539" s="25"/>
       <c r="F539" s="25">
         <v>1</v>
       </c>
       <c r="G539" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="540" customHeight="1" spans="1:7">
@@ -15990,14 +16033,14 @@
       <c r="B540" s="22"/>
       <c r="C540" s="23"/>
       <c r="D540" s="69" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E540" s="25"/>
       <c r="F540" s="25">
         <v>1</v>
       </c>
       <c r="G540" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="541" customHeight="1" spans="1:7">
@@ -16007,16 +16050,16 @@
       <c r="B541" s="22"/>
       <c r="C541" s="23"/>
       <c r="D541" s="67" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="E541" s="25" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F541" s="25">
         <v>1</v>
       </c>
       <c r="G541" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="542" customHeight="1" spans="1:7">
@@ -16026,16 +16069,16 @@
       <c r="B542" s="22"/>
       <c r="C542" s="23"/>
       <c r="D542" s="67" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="E542" s="25" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="F542" s="25">
         <v>1</v>
       </c>
       <c r="G542" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="543" customHeight="1" spans="1:7">
@@ -16045,16 +16088,16 @@
       <c r="B543" s="22"/>
       <c r="C543" s="23"/>
       <c r="D543" s="67" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E543" s="25" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F543" s="25">
         <v>1</v>
       </c>
       <c r="G543" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="544" customHeight="1" spans="1:7">
@@ -16064,14 +16107,14 @@
       <c r="B544" s="22"/>
       <c r="C544" s="23"/>
       <c r="D544" s="67" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="E544" s="25"/>
       <c r="F544" s="25">
         <v>1</v>
       </c>
       <c r="G544" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="545" customHeight="1" spans="1:7">
@@ -16081,14 +16124,14 @@
       <c r="B545" s="22"/>
       <c r="C545" s="23"/>
       <c r="D545" s="67" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E545" s="25"/>
       <c r="F545" s="25">
         <v>1</v>
       </c>
       <c r="G545" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="546" customHeight="1" spans="1:7">
@@ -16098,16 +16141,16 @@
       <c r="B546" s="22"/>
       <c r="C546" s="23"/>
       <c r="D546" s="67" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E546" s="25" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F546" s="25">
         <v>1</v>
       </c>
       <c r="G546" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="547" customHeight="1" spans="1:7">
@@ -16117,14 +16160,14 @@
       <c r="B547" s="22"/>
       <c r="C547" s="23"/>
       <c r="D547" s="69" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E547" s="25"/>
       <c r="F547" s="25">
         <v>1</v>
       </c>
       <c r="G547" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="548" customHeight="1" spans="1:7">
@@ -16134,14 +16177,14 @@
       <c r="B548" s="22"/>
       <c r="C548" s="23"/>
       <c r="D548" s="69" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E548" s="25"/>
       <c r="F548" s="25">
         <v>1</v>
       </c>
       <c r="G548" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="549" customHeight="1" spans="1:7">
@@ -16151,16 +16194,16 @@
       <c r="B549" s="22"/>
       <c r="C549" s="23"/>
       <c r="D549" s="67" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="E549" s="25" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F549" s="25">
         <v>1</v>
       </c>
       <c r="G549" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="550" customHeight="1" spans="1:7">
@@ -16170,16 +16213,16 @@
       <c r="B550" s="22"/>
       <c r="C550" s="23"/>
       <c r="D550" s="67" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E550" s="72" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="F550" s="25">
         <v>1</v>
       </c>
       <c r="G550" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="551" customHeight="1" spans="1:7">
@@ -16189,16 +16232,16 @@
       <c r="B551" s="22"/>
       <c r="C551" s="23"/>
       <c r="D551" s="67" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E551" s="25" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F551" s="25">
         <v>1</v>
       </c>
       <c r="G551" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="552" customHeight="1" spans="1:7">
@@ -16208,16 +16251,16 @@
       <c r="B552" s="22"/>
       <c r="C552" s="23"/>
       <c r="D552" s="67" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E552" s="25" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="F552" s="25">
         <v>1</v>
       </c>
       <c r="G552" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="553" customHeight="1" spans="1:7">
@@ -16227,16 +16270,16 @@
       <c r="B553" s="22"/>
       <c r="C553" s="23"/>
       <c r="D553" s="67" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E553" s="25" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F553" s="25">
         <v>1</v>
       </c>
       <c r="G553" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="554" customHeight="1" spans="1:7">
@@ -16246,16 +16289,16 @@
       <c r="B554" s="22"/>
       <c r="C554" s="23"/>
       <c r="D554" s="67" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E554" s="25" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F554" s="25">
         <v>1</v>
       </c>
       <c r="G554" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="555" customHeight="1" spans="1:7">
@@ -16265,16 +16308,16 @@
       <c r="B555" s="22"/>
       <c r="C555" s="23"/>
       <c r="D555" s="67" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="E555" s="25" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F555" s="25">
         <v>1</v>
       </c>
       <c r="G555" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="556" customHeight="1" spans="1:7">
@@ -16284,16 +16327,16 @@
       <c r="B556" s="22"/>
       <c r="C556" s="23"/>
       <c r="D556" s="67" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E556" s="25" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F556" s="25">
         <v>1</v>
       </c>
       <c r="G556" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="557" customHeight="1" spans="1:7">
@@ -16303,14 +16346,14 @@
       <c r="B557" s="22"/>
       <c r="C557" s="23"/>
       <c r="D557" s="69" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E557" s="25"/>
       <c r="F557" s="25">
         <v>1</v>
       </c>
       <c r="G557" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="558" customHeight="1" spans="1:7">
@@ -16320,16 +16363,16 @@
       <c r="B558" s="22"/>
       <c r="C558" s="23"/>
       <c r="D558" s="67" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E558" s="25" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F558" s="25">
         <v>1</v>
       </c>
       <c r="G558" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="559" customHeight="1" spans="1:7">
@@ -16339,16 +16382,16 @@
       <c r="B559" s="22"/>
       <c r="C559" s="23"/>
       <c r="D559" s="67" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E559" s="25" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F559" s="25">
         <v>1</v>
       </c>
       <c r="G559" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="560" customHeight="1" spans="1:7">
@@ -16358,16 +16401,16 @@
       <c r="B560" s="22"/>
       <c r="C560" s="23"/>
       <c r="D560" s="67" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E560" s="25" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F560" s="25">
         <v>1</v>
       </c>
       <c r="G560" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="561" customHeight="1" spans="1:7">
@@ -16377,16 +16420,16 @@
       <c r="B561" s="22"/>
       <c r="C561" s="23"/>
       <c r="D561" s="67" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E561" s="25" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F561" s="25">
         <v>1</v>
       </c>
       <c r="G561" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="562" customHeight="1" spans="1:7">
@@ -16396,16 +16439,16 @@
       <c r="B562" s="22"/>
       <c r="C562" s="23"/>
       <c r="D562" s="67" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E562" s="25" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F562" s="25">
         <v>1</v>
       </c>
       <c r="G562" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="563" customHeight="1" spans="1:7">
@@ -16415,16 +16458,16 @@
       <c r="B563" s="22"/>
       <c r="C563" s="23"/>
       <c r="D563" s="67" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E563" s="67" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F563" s="25">
         <v>1</v>
       </c>
       <c r="G563" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="564" customHeight="1" spans="1:7">
@@ -16434,16 +16477,16 @@
       <c r="B564" s="22"/>
       <c r="C564" s="23"/>
       <c r="D564" s="67" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E564" s="67" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F564" s="25">
         <v>1</v>
       </c>
       <c r="G564" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="565" customHeight="1" spans="1:7">
@@ -16453,16 +16496,16 @@
       <c r="B565" s="22"/>
       <c r="C565" s="23"/>
       <c r="D565" s="67" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E565" s="67" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F565" s="25">
         <v>1</v>
       </c>
       <c r="G565" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="566" customHeight="1" spans="1:7">
@@ -16472,16 +16515,16 @@
       <c r="B566" s="22"/>
       <c r="C566" s="23"/>
       <c r="D566" s="67" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E566" s="67" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F566" s="25">
         <v>1</v>
       </c>
       <c r="G566" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="567" customHeight="1" spans="1:7">
@@ -16491,16 +16534,16 @@
       <c r="B567" s="22"/>
       <c r="C567" s="23"/>
       <c r="D567" s="67" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E567" s="67" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F567" s="25">
         <v>1</v>
       </c>
       <c r="G567" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="568" customHeight="1" spans="1:7">
@@ -16510,16 +16553,16 @@
       <c r="B568" s="22"/>
       <c r="C568" s="23"/>
       <c r="D568" s="67" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E568" s="67" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F568" s="25">
         <v>1</v>
       </c>
       <c r="G568" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="569" customHeight="1" spans="1:7">
@@ -16529,14 +16572,14 @@
       <c r="B569" s="22"/>
       <c r="C569" s="23"/>
       <c r="D569" s="67" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E569" s="67"/>
       <c r="F569" s="25">
         <v>1</v>
       </c>
       <c r="G569" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="570" customHeight="1" spans="1:7">
@@ -16546,14 +16589,14 @@
       <c r="B570" s="22"/>
       <c r="C570" s="23"/>
       <c r="D570" s="67" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E570" s="67"/>
       <c r="F570" s="25">
         <v>1</v>
       </c>
       <c r="G570" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="571" customHeight="1" spans="1:7">
@@ -16563,14 +16606,14 @@
       <c r="B571" s="73"/>
       <c r="C571" s="67"/>
       <c r="D571" s="67" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E571" s="67"/>
       <c r="F571" s="25">
         <v>1</v>
       </c>
       <c r="G571" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="572" customHeight="1" spans="1:7">
@@ -16580,14 +16623,14 @@
       <c r="B572" s="73"/>
       <c r="C572" s="67"/>
       <c r="D572" s="67" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E572" s="67"/>
       <c r="F572" s="25">
         <v>1</v>
       </c>
       <c r="G572" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="573" customHeight="1" spans="1:7">
@@ -16597,14 +16640,14 @@
       <c r="B573" s="73"/>
       <c r="C573" s="67"/>
       <c r="D573" s="67" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="E573" s="67"/>
       <c r="F573" s="25">
         <v>1</v>
       </c>
       <c r="G573" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="574" customHeight="1" spans="1:7">
@@ -16614,14 +16657,14 @@
       <c r="B574" s="73"/>
       <c r="C574" s="67"/>
       <c r="D574" s="67" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E574" s="67"/>
       <c r="F574" s="25">
         <v>1</v>
       </c>
       <c r="G574" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="575" customHeight="1" spans="1:7">
@@ -16631,14 +16674,14 @@
       <c r="B575" s="73"/>
       <c r="C575" s="67"/>
       <c r="D575" s="67" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E575" s="67"/>
       <c r="F575" s="25">
         <v>1</v>
       </c>
       <c r="G575" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="576" customHeight="1" spans="1:7">
@@ -16648,14 +16691,14 @@
       <c r="B576" s="73"/>
       <c r="C576" s="67"/>
       <c r="D576" s="67" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E576" s="67"/>
       <c r="F576" s="25">
         <v>1</v>
       </c>
       <c r="G576" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="577" customHeight="1" spans="1:7">
@@ -16665,14 +16708,14 @@
       <c r="B577" s="73"/>
       <c r="C577" s="67"/>
       <c r="D577" s="67" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E577" s="67"/>
       <c r="F577" s="25">
         <v>1</v>
       </c>
       <c r="G577" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="578" customHeight="1" spans="1:7">
@@ -16682,16 +16725,16 @@
       <c r="B578" s="73"/>
       <c r="C578" s="67"/>
       <c r="D578" s="67" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="E578" s="67" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="F578" s="25">
         <v>1</v>
       </c>
       <c r="G578" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="579" customHeight="1" spans="1:7">
@@ -16701,16 +16744,16 @@
       <c r="B579" s="73"/>
       <c r="C579" s="67"/>
       <c r="D579" s="67" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E579" s="67" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F579" s="25">
         <v>1</v>
       </c>
       <c r="G579" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="580" customHeight="1" spans="1:7">
@@ -16720,16 +16763,16 @@
       <c r="B580" s="73"/>
       <c r="C580" s="67"/>
       <c r="D580" s="67" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="E580" s="67" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="F580" s="25">
         <v>1</v>
       </c>
       <c r="G580" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="581" customHeight="1" spans="1:7">
@@ -16739,16 +16782,16 @@
       <c r="B581" s="73"/>
       <c r="C581" s="67"/>
       <c r="D581" s="67" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E581" s="67" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="F581" s="25">
         <v>1</v>
       </c>
       <c r="G581" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="582" customHeight="1" spans="1:7">
@@ -16758,16 +16801,16 @@
       <c r="B582" s="73"/>
       <c r="C582" s="67"/>
       <c r="D582" s="67" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E582" s="67" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F582" s="25">
         <v>1</v>
       </c>
       <c r="G582" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="583" customHeight="1" spans="1:7">
@@ -16777,16 +16820,16 @@
       <c r="B583" s="73"/>
       <c r="C583" s="67"/>
       <c r="D583" s="67" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E583" s="67" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="F583" s="25">
         <v>1</v>
       </c>
       <c r="G583" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="584" customHeight="1" spans="1:7">
@@ -16796,16 +16839,16 @@
       <c r="B584" s="73"/>
       <c r="C584" s="67"/>
       <c r="D584" s="67" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E584" s="67" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="F584" s="25">
         <v>1</v>
       </c>
       <c r="G584" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="585" customHeight="1" spans="1:7">
@@ -16815,16 +16858,16 @@
       <c r="B585" s="73"/>
       <c r="C585" s="67"/>
       <c r="D585" s="67" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E585" s="67" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F585" s="25">
         <v>1</v>
       </c>
       <c r="G585" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="586" customHeight="1" spans="1:7">
@@ -16834,14 +16877,14 @@
       <c r="B586" s="73"/>
       <c r="C586" s="67"/>
       <c r="D586" s="67" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="E586" s="67"/>
       <c r="F586" s="25">
         <v>1</v>
       </c>
       <c r="G586" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="587" customHeight="1" spans="1:7">
@@ -16851,14 +16894,14 @@
       <c r="B587" s="73"/>
       <c r="C587" s="67"/>
       <c r="D587" s="67" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E587" s="67"/>
       <c r="F587" s="25">
         <v>1</v>
       </c>
       <c r="G587" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="588" customHeight="1" spans="1:7">
@@ -16868,14 +16911,14 @@
       <c r="B588" s="73"/>
       <c r="C588" s="67"/>
       <c r="D588" s="67" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="E588" s="67"/>
       <c r="F588" s="25">
         <v>1</v>
       </c>
       <c r="G588" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="589" customHeight="1" spans="1:7">
@@ -16885,14 +16928,14 @@
       <c r="B589" s="73"/>
       <c r="C589" s="67"/>
       <c r="D589" s="67" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="E589" s="67"/>
       <c r="F589" s="25">
         <v>1</v>
       </c>
       <c r="G589" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="590" customHeight="1" spans="1:7">
@@ -16902,14 +16945,14 @@
       <c r="B590" s="73"/>
       <c r="C590" s="67"/>
       <c r="D590" s="67" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E590" s="67"/>
       <c r="F590" s="25">
         <v>1</v>
       </c>
       <c r="G590" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="591" customHeight="1" spans="1:7">
@@ -16919,14 +16962,14 @@
       <c r="B591" s="73"/>
       <c r="C591" s="67"/>
       <c r="D591" s="67" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E591" s="67"/>
       <c r="F591" s="25">
         <v>1</v>
       </c>
       <c r="G591" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="592" customHeight="1" spans="1:7">
@@ -16936,14 +16979,14 @@
       <c r="B592" s="73"/>
       <c r="C592" s="67"/>
       <c r="D592" s="67" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="E592" s="67"/>
       <c r="F592" s="25">
         <v>1</v>
       </c>
       <c r="G592" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="593" customHeight="1" spans="1:7">
@@ -16953,14 +16996,14 @@
       <c r="B593" s="73"/>
       <c r="C593" s="67"/>
       <c r="D593" s="67" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E593" s="67"/>
       <c r="F593" s="25">
         <v>1</v>
       </c>
       <c r="G593" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="594" customHeight="1" spans="1:7">
@@ -16970,14 +17013,14 @@
       <c r="B594" s="73"/>
       <c r="C594" s="67"/>
       <c r="D594" s="67" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E594" s="67"/>
       <c r="F594" s="25">
         <v>1</v>
       </c>
       <c r="G594" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="595" customHeight="1" spans="1:7">
@@ -16987,14 +17030,14 @@
       <c r="B595" s="73"/>
       <c r="C595" s="67"/>
       <c r="D595" s="67" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="E595" s="67"/>
       <c r="F595" s="25">
         <v>1</v>
       </c>
       <c r="G595" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="596" customHeight="1" spans="1:7">
@@ -17004,14 +17047,14 @@
       <c r="B596" s="73"/>
       <c r="C596" s="67"/>
       <c r="D596" s="67" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E596" s="67"/>
       <c r="F596" s="25">
         <v>1</v>
       </c>
       <c r="G596" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="597" customHeight="1" spans="1:7">
@@ -17021,14 +17064,14 @@
       <c r="B597" s="73"/>
       <c r="C597" s="67"/>
       <c r="D597" s="67" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="E597" s="67"/>
       <c r="F597" s="25">
         <v>1</v>
       </c>
       <c r="G597" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="598" customHeight="1" spans="1:7">
@@ -17038,14 +17081,14 @@
       <c r="B598" s="73"/>
       <c r="C598" s="67"/>
       <c r="D598" s="67" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E598" s="67"/>
       <c r="F598" s="25">
         <v>1</v>
       </c>
       <c r="G598" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="599" customHeight="1" spans="1:7">
@@ -17055,14 +17098,14 @@
       <c r="B599" s="73"/>
       <c r="C599" s="67"/>
       <c r="D599" s="67" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E599" s="67"/>
       <c r="F599" s="25">
         <v>1</v>
       </c>
       <c r="G599" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="600" customHeight="1" spans="1:7">
@@ -17072,14 +17115,14 @@
       <c r="B600" s="73"/>
       <c r="C600" s="67"/>
       <c r="D600" s="67" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E600" s="67"/>
       <c r="F600" s="25">
         <v>1</v>
       </c>
       <c r="G600" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="601" customHeight="1" spans="1:7">
@@ -17089,10 +17132,10 @@
       <c r="B601" s="73"/>
       <c r="C601" s="67"/>
       <c r="D601" s="67" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E601" s="67" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F601" s="67">
         <v>20</v>
@@ -17108,10 +17151,10 @@
       <c r="B602" s="73"/>
       <c r="C602" s="67"/>
       <c r="D602" s="67" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E602" s="67" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="F602" s="67">
         <v>20</v>
@@ -17127,10 +17170,10 @@
       <c r="B603" s="73"/>
       <c r="C603" s="67"/>
       <c r="D603" s="67" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E603" s="67" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F603" s="67">
         <v>20</v>
@@ -17146,10 +17189,10 @@
       <c r="B604" s="73"/>
       <c r="C604" s="67"/>
       <c r="D604" s="67" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="E604" s="67" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F604" s="67">
         <v>20</v>
@@ -17165,10 +17208,10 @@
       <c r="B605" s="73"/>
       <c r="C605" s="67"/>
       <c r="D605" s="67" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="E605" s="67" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="F605" s="67">
         <v>20</v>
@@ -17184,10 +17227,10 @@
       <c r="B606" s="73"/>
       <c r="C606" s="67"/>
       <c r="D606" s="67" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E606" s="67" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F606" s="67">
         <v>20</v>
@@ -17203,10 +17246,10 @@
       <c r="B607" s="73"/>
       <c r="C607" s="67"/>
       <c r="D607" s="67" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="E607" s="67" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F607" s="67">
         <v>20</v>
@@ -17222,10 +17265,10 @@
       <c r="B608" s="73"/>
       <c r="C608" s="67"/>
       <c r="D608" s="67" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E608" s="67" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="F608" s="67">
         <v>20</v>
@@ -17241,7 +17284,7 @@
       <c r="B609" s="73"/>
       <c r="C609" s="67"/>
       <c r="D609" s="67" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E609" s="67"/>
       <c r="F609" s="67">
@@ -17258,10 +17301,10 @@
       <c r="B610" s="73"/>
       <c r="C610" s="67"/>
       <c r="D610" s="67" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="E610" s="67" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="F610" s="67">
         <v>20</v>
@@ -17277,10 +17320,10 @@
       <c r="B611" s="73"/>
       <c r="C611" s="67"/>
       <c r="D611" s="67" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E611" s="67" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F611" s="67">
         <v>20</v>
@@ -17296,10 +17339,10 @@
       <c r="B612" s="73"/>
       <c r="C612" s="67"/>
       <c r="D612" s="67" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E612" s="67" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="F612" s="67">
         <v>20</v>
@@ -17315,10 +17358,10 @@
       <c r="B613" s="73"/>
       <c r="C613" s="67"/>
       <c r="D613" s="67" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E613" s="67" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F613" s="67">
         <v>20</v>
@@ -17334,7 +17377,7 @@
       <c r="B614" s="73"/>
       <c r="C614" s="67"/>
       <c r="D614" s="67" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E614" s="67"/>
       <c r="F614" s="67">
@@ -17351,10 +17394,10 @@
       <c r="B615" s="73"/>
       <c r="C615" s="67"/>
       <c r="D615" s="67" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="E615" s="67" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="F615" s="67">
         <v>20</v>
@@ -17370,10 +17413,10 @@
       <c r="B616" s="73"/>
       <c r="C616" s="67"/>
       <c r="D616" s="67" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E616" s="67" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F616" s="67">
         <v>20</v>
@@ -17389,10 +17432,10 @@
       <c r="B617" s="73"/>
       <c r="C617" s="67"/>
       <c r="D617" s="67" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E617" s="67" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="F617" s="67">
         <v>20</v>
@@ -17408,10 +17451,10 @@
       <c r="B618" s="73"/>
       <c r="C618" s="67"/>
       <c r="D618" s="67" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E618" s="67" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="F618" s="67">
         <v>20</v>
@@ -17427,7 +17470,7 @@
       <c r="B619" s="73"/>
       <c r="C619" s="67"/>
       <c r="D619" s="67" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E619" s="67" t="s">
         <v>318</v>
@@ -17446,7 +17489,7 @@
       <c r="B620" s="73"/>
       <c r="C620" s="67"/>
       <c r="D620" s="67" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="E620" s="67"/>
       <c r="F620" s="67">
@@ -17463,7 +17506,7 @@
       <c r="B621" s="73"/>
       <c r="C621" s="67"/>
       <c r="D621" s="67" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E621" s="67"/>
       <c r="F621" s="67">
@@ -17480,7 +17523,7 @@
       <c r="B622" s="73"/>
       <c r="C622" s="67"/>
       <c r="D622" s="67" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="E622" s="67"/>
       <c r="F622" s="67">
@@ -17496,10 +17539,16 @@
       </c>
       <c r="B623" s="73"/>
       <c r="C623" s="67"/>
-      <c r="D623" s="67"/>
+      <c r="D623" s="67" t="s">
+        <v>951</v>
+      </c>
       <c r="E623" s="67"/>
-      <c r="F623" s="67"/>
-      <c r="G623" s="67"/>
+      <c r="F623" s="25">
+        <v>1</v>
+      </c>
+      <c r="G623" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="624" customHeight="1" spans="1:7">
       <c r="A624" s="21">
@@ -17585,10 +17634,10 @@
       <c r="B631" s="73"/>
       <c r="C631" s="67"/>
       <c r="D631" s="67" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E631" s="67" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F631" s="67">
         <v>20</v>
@@ -17604,10 +17653,10 @@
       <c r="B632" s="73"/>
       <c r="C632" s="67"/>
       <c r="D632" s="67" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="E632" s="67" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F632" s="67">
         <v>20</v>
@@ -17623,10 +17672,10 @@
       <c r="B633" s="73"/>
       <c r="C633" s="67"/>
       <c r="D633" s="67" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E633" s="67" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F633" s="67">
         <v>20</v>
@@ -17642,7 +17691,7 @@
       <c r="B634" s="73"/>
       <c r="C634" s="67"/>
       <c r="D634" s="67" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E634" s="67"/>
       <c r="F634" s="67">
@@ -17659,7 +17708,7 @@
       <c r="B635" s="22"/>
       <c r="C635" s="23"/>
       <c r="D635" s="67" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E635" s="67"/>
       <c r="F635" s="67">
@@ -17676,7 +17725,7 @@
       <c r="B636" s="22"/>
       <c r="C636" s="23"/>
       <c r="D636" s="67" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E636" s="67"/>
       <c r="F636" s="67">
@@ -17693,7 +17742,7 @@
       <c r="B637" s="22"/>
       <c r="C637" s="23"/>
       <c r="D637" s="67" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E637" s="67"/>
       <c r="F637" s="67">
@@ -17710,14 +17759,14 @@
       <c r="B638" s="22"/>
       <c r="C638" s="23"/>
       <c r="D638" s="67" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E638" s="67"/>
       <c r="F638" s="67">
         <v>1</v>
       </c>
       <c r="G638" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="639" customHeight="1" spans="1:7">
@@ -17727,14 +17776,14 @@
       <c r="B639" s="22"/>
       <c r="C639" s="23"/>
       <c r="D639" s="67" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E639" s="67"/>
       <c r="F639" s="67">
         <v>1</v>
       </c>
       <c r="G639" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="640" customHeight="1" spans="1:7">
@@ -17744,7 +17793,7 @@
       <c r="B640" s="22"/>
       <c r="C640" s="23"/>
       <c r="D640" s="67" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E640" s="67"/>
       <c r="F640" s="67">
@@ -17761,14 +17810,14 @@
       <c r="B641" s="22"/>
       <c r="C641" s="23"/>
       <c r="D641" s="67" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E641" s="67"/>
       <c r="F641" s="67">
         <v>1</v>
       </c>
       <c r="G641" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="642" customHeight="1" spans="1:7">
@@ -17778,16 +17827,16 @@
       <c r="B642" s="22"/>
       <c r="C642" s="23"/>
       <c r="D642" s="67" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E642" s="67" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F642" s="67">
         <v>1</v>
       </c>
       <c r="G642" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="643" customHeight="1" spans="1:7">
@@ -17797,14 +17846,14 @@
       <c r="B643" s="22"/>
       <c r="C643" s="23"/>
       <c r="D643" s="67" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E643" s="67"/>
       <c r="F643" s="67">
         <v>1</v>
       </c>
       <c r="G643" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="644" customHeight="1" spans="1:7">
@@ -17814,14 +17863,14 @@
       <c r="B644" s="22"/>
       <c r="C644" s="23"/>
       <c r="D644" s="67" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E644" s="67"/>
       <c r="F644" s="67">
         <v>1</v>
       </c>
       <c r="G644" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="645" customHeight="1" spans="1:7">
@@ -17831,14 +17880,14 @@
       <c r="B645" s="22"/>
       <c r="C645" s="23"/>
       <c r="D645" s="67" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E645" s="67"/>
       <c r="F645" s="67">
         <v>1</v>
       </c>
       <c r="G645" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="646" customHeight="1" spans="1:7">
@@ -17848,14 +17897,14 @@
       <c r="B646" s="22"/>
       <c r="C646" s="23"/>
       <c r="D646" s="67" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E646" s="67"/>
       <c r="F646" s="67">
         <v>1</v>
       </c>
       <c r="G646" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="647" customHeight="1" spans="1:7">
@@ -17865,10 +17914,10 @@
       <c r="B647" s="22"/>
       <c r="C647" s="23"/>
       <c r="D647" s="67" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E647" s="67" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F647" s="67">
         <v>5</v>
@@ -17884,14 +17933,14 @@
       <c r="B648" s="22"/>
       <c r="C648" s="23"/>
       <c r="D648" s="67" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E648" s="67"/>
       <c r="F648" s="67">
         <v>1</v>
       </c>
       <c r="G648" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="649" customHeight="1" spans="1:7">
@@ -17901,14 +17950,14 @@
       <c r="B649" s="22"/>
       <c r="C649" s="23"/>
       <c r="D649" s="67" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E649" s="67"/>
       <c r="F649" s="67">
         <v>1</v>
       </c>
       <c r="G649" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="650" customHeight="1" spans="1:7">
@@ -17918,14 +17967,14 @@
       <c r="B650" s="22"/>
       <c r="C650" s="23"/>
       <c r="D650" s="67" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E650" s="67"/>
       <c r="F650" s="67">
         <v>1</v>
       </c>
       <c r="G650" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="651" customHeight="1" spans="1:7">
@@ -17935,14 +17984,14 @@
       <c r="B651" s="22"/>
       <c r="C651" s="23"/>
       <c r="D651" s="67" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E651" s="67"/>
       <c r="F651" s="67">
         <v>1</v>
       </c>
       <c r="G651" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="652" customHeight="1" spans="1:7">
@@ -17952,7 +18001,7 @@
       <c r="B652" s="22"/>
       <c r="C652" s="23"/>
       <c r="D652" s="28" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E652" s="25"/>
       <c r="F652" s="25">
@@ -17969,7 +18018,7 @@
       <c r="B653" s="22"/>
       <c r="C653" s="23"/>
       <c r="D653" s="28" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E653" s="25"/>
       <c r="F653" s="25">
@@ -17986,7 +18035,7 @@
       <c r="B654" s="22"/>
       <c r="C654" s="23"/>
       <c r="D654" s="28" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E654" s="25"/>
       <c r="F654" s="25">
@@ -18003,7 +18052,7 @@
       <c r="B655" s="22"/>
       <c r="C655" s="23"/>
       <c r="D655" s="28" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E655" s="25"/>
       <c r="F655" s="25">
@@ -18020,7 +18069,7 @@
       <c r="B656" s="22"/>
       <c r="C656" s="23"/>
       <c r="D656" s="28" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E656" s="25"/>
       <c r="F656" s="25">
@@ -18037,7 +18086,7 @@
       <c r="B657" s="22"/>
       <c r="C657" s="23"/>
       <c r="D657" s="28" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="E657" s="25"/>
       <c r="F657" s="25">
@@ -18054,7 +18103,7 @@
       <c r="B658" s="22"/>
       <c r="C658" s="23"/>
       <c r="D658" s="28" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E658" s="25"/>
       <c r="F658" s="25">
@@ -18071,7 +18120,7 @@
       <c r="B659" s="22"/>
       <c r="C659" s="23"/>
       <c r="D659" s="28" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E659" s="25"/>
       <c r="F659" s="25">
@@ -18088,7 +18137,7 @@
       <c r="B660" s="22"/>
       <c r="C660" s="23"/>
       <c r="D660" s="28" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E660" s="25"/>
       <c r="F660" s="25">
@@ -18105,7 +18154,7 @@
       <c r="B661" s="22"/>
       <c r="C661" s="23"/>
       <c r="D661" s="28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E661" s="25"/>
       <c r="F661" s="25">
@@ -18122,7 +18171,7 @@
       <c r="B662" s="22"/>
       <c r="C662" s="23"/>
       <c r="D662" s="28" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="E662" s="25"/>
       <c r="F662" s="25">
@@ -18139,7 +18188,7 @@
       <c r="B663" s="22"/>
       <c r="C663" s="23"/>
       <c r="D663" s="28" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="E663" s="25"/>
       <c r="F663" s="25">
@@ -18156,7 +18205,7 @@
       <c r="B664" s="22"/>
       <c r="C664" s="23"/>
       <c r="D664" s="28" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="E664" s="25"/>
       <c r="F664" s="25">
@@ -18173,7 +18222,7 @@
       <c r="B665" s="22"/>
       <c r="C665" s="23"/>
       <c r="D665" s="28" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E665" s="25"/>
       <c r="F665" s="25">
@@ -18190,7 +18239,7 @@
       <c r="B666" s="22"/>
       <c r="C666" s="23"/>
       <c r="D666" s="28" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="E666" s="25"/>
       <c r="F666" s="25">
@@ -18207,7 +18256,7 @@
       <c r="B667" s="22"/>
       <c r="C667" s="23"/>
       <c r="D667" s="28" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E667" s="25"/>
       <c r="F667" s="25">
@@ -18224,7 +18273,7 @@
       <c r="B668" s="22"/>
       <c r="C668" s="23"/>
       <c r="D668" s="28" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E668" s="25"/>
       <c r="F668" s="25">
@@ -18241,7 +18290,7 @@
       <c r="B669" s="22"/>
       <c r="C669" s="23"/>
       <c r="D669" s="28" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E669" s="25"/>
       <c r="F669" s="25">
@@ -18258,7 +18307,7 @@
       <c r="B670" s="22"/>
       <c r="C670" s="23"/>
       <c r="D670" s="28" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E670" s="25"/>
       <c r="F670" s="25">
@@ -18275,7 +18324,7 @@
       <c r="B671" s="22"/>
       <c r="C671" s="23"/>
       <c r="D671" s="28" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="E671" s="25"/>
       <c r="F671" s="25">
@@ -18292,7 +18341,7 @@
       <c r="B672" s="22"/>
       <c r="C672" s="23"/>
       <c r="D672" s="28" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="E672" s="25"/>
       <c r="F672" s="25">
@@ -18309,7 +18358,7 @@
       <c r="B673" s="22"/>
       <c r="C673" s="23"/>
       <c r="D673" s="28" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E673" s="25"/>
       <c r="F673" s="25">
@@ -18326,7 +18375,7 @@
       <c r="B674" s="22"/>
       <c r="C674" s="23"/>
       <c r="D674" s="28" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E674" s="25"/>
       <c r="F674" s="25">
@@ -18343,7 +18392,7 @@
       <c r="B675" s="22"/>
       <c r="C675" s="23"/>
       <c r="D675" s="24" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E675" s="25"/>
       <c r="F675" s="25">
@@ -18360,7 +18409,7 @@
       <c r="B676" s="22"/>
       <c r="C676" s="23"/>
       <c r="D676" s="28" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E676" s="25"/>
       <c r="F676" s="25">
@@ -18377,14 +18426,14 @@
       <c r="B677" s="28"/>
       <c r="C677" s="28"/>
       <c r="D677" s="24" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E677" s="67"/>
       <c r="F677" s="25">
         <v>1</v>
       </c>
       <c r="G677" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="678" customHeight="1" spans="1:7">
@@ -18394,14 +18443,14 @@
       <c r="B678" s="28"/>
       <c r="C678" s="28"/>
       <c r="D678" s="74" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E678" s="67"/>
       <c r="F678" s="67">
         <v>1</v>
       </c>
       <c r="G678" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="679" customHeight="1" spans="1:7">
@@ -18411,14 +18460,14 @@
       <c r="B679" s="28"/>
       <c r="C679" s="28"/>
       <c r="D679" s="28" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="E679" s="28"/>
       <c r="F679" s="67">
         <v>1</v>
       </c>
       <c r="G679" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="680" customHeight="1" spans="1:7">
@@ -18428,14 +18477,14 @@
       <c r="B680" s="28"/>
       <c r="C680" s="28"/>
       <c r="D680" s="28" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="E680" s="28"/>
       <c r="F680" s="67">
         <v>1</v>
       </c>
       <c r="G680" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="681" customHeight="1" spans="1:7">
@@ -18445,14 +18494,14 @@
       <c r="B681" s="28"/>
       <c r="C681" s="28"/>
       <c r="D681" s="28" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E681" s="28"/>
       <c r="F681" s="67">
         <v>1</v>
       </c>
       <c r="G681" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="682" customHeight="1" spans="1:7">
@@ -18462,14 +18511,14 @@
       <c r="B682" s="28"/>
       <c r="C682" s="28"/>
       <c r="D682" s="28" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="E682" s="28"/>
       <c r="F682" s="67">
         <v>1</v>
       </c>
       <c r="G682" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="683" customHeight="1" spans="1:7">
@@ -18479,14 +18528,14 @@
       <c r="B683" s="28"/>
       <c r="C683" s="28"/>
       <c r="D683" s="28" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="E683" s="28"/>
       <c r="F683" s="67">
         <v>1</v>
       </c>
       <c r="G683" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="684" customHeight="1" spans="1:7">
@@ -18496,14 +18545,14 @@
       <c r="B684" s="28"/>
       <c r="C684" s="28"/>
       <c r="D684" s="28" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E684" s="28"/>
       <c r="F684" s="67">
         <v>1</v>
       </c>
       <c r="G684" s="67" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="685" customHeight="1" spans="1:7">
@@ -18535,14 +18584,14 @@
       <c r="B687" s="28"/>
       <c r="C687" s="28"/>
       <c r="D687" s="28" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="E687" s="28"/>
       <c r="F687" s="25">
         <v>1</v>
       </c>
       <c r="G687" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="688" customHeight="1" spans="1:7">
@@ -18552,14 +18601,14 @@
       <c r="B688" s="28"/>
       <c r="C688" s="28"/>
       <c r="D688" s="28" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="E688" s="28"/>
       <c r="F688" s="25">
         <v>1</v>
       </c>
       <c r="G688" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="689" customHeight="1" spans="1:7">
@@ -18569,14 +18618,14 @@
       <c r="B689" s="28"/>
       <c r="C689" s="28"/>
       <c r="D689" s="28" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E689" s="28"/>
       <c r="F689" s="25">
         <v>1</v>
       </c>
       <c r="G689" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="690" customHeight="1" spans="1:7">
@@ -18586,14 +18635,14 @@
       <c r="B690" s="28"/>
       <c r="C690" s="28"/>
       <c r="D690" s="28" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E690" s="28"/>
       <c r="F690" s="25">
         <v>1</v>
       </c>
       <c r="G690" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="691" customHeight="1" spans="1:7">
@@ -18603,7 +18652,7 @@
       <c r="B691" s="28"/>
       <c r="C691" s="28"/>
       <c r="D691" s="28" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E691" s="28"/>
       <c r="F691" s="25">
@@ -18620,14 +18669,14 @@
       <c r="B692" s="28"/>
       <c r="C692" s="28"/>
       <c r="D692" s="28" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E692" s="28"/>
       <c r="F692" s="25">
         <v>1</v>
       </c>
       <c r="G692" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="693" customHeight="1" spans="1:7">
@@ -18637,14 +18686,14 @@
       <c r="B693" s="28"/>
       <c r="C693" s="28"/>
       <c r="D693" s="28" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E693" s="28"/>
       <c r="F693" s="25">
         <v>1</v>
       </c>
       <c r="G693" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="694" customHeight="1" spans="1:7">
@@ -18654,14 +18703,14 @@
       <c r="B694" s="28"/>
       <c r="C694" s="28"/>
       <c r="D694" s="28" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E694" s="28"/>
       <c r="F694" s="25">
         <v>1</v>
       </c>
       <c r="G694" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="695" customHeight="1" spans="1:7">
@@ -18671,14 +18720,14 @@
       <c r="B695" s="28"/>
       <c r="C695" s="28"/>
       <c r="D695" s="28" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E695" s="28"/>
       <c r="F695" s="25">
         <v>1</v>
       </c>
       <c r="G695" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="696" customHeight="1" spans="1:7">
@@ -18688,14 +18737,14 @@
       <c r="B696" s="28"/>
       <c r="C696" s="28"/>
       <c r="D696" s="28" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E696" s="28"/>
       <c r="F696" s="25">
         <v>1</v>
       </c>
       <c r="G696" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="697" customHeight="1" spans="1:7">
@@ -18705,14 +18754,14 @@
       <c r="B697" s="28"/>
       <c r="C697" s="28"/>
       <c r="D697" s="28" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E697" s="28"/>
       <c r="F697" s="25">
         <v>1</v>
       </c>
       <c r="G697" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="698" customHeight="1" spans="1:7">
@@ -18722,14 +18771,14 @@
       <c r="B698" s="28"/>
       <c r="C698" s="28"/>
       <c r="D698" s="28" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E698" s="28"/>
       <c r="F698" s="25">
         <v>1</v>
       </c>
       <c r="G698" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="699" customHeight="1" spans="1:7">
@@ -18739,14 +18788,14 @@
       <c r="B699" s="28"/>
       <c r="C699" s="28"/>
       <c r="D699" s="28" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E699" s="28"/>
       <c r="F699" s="25">
         <v>1</v>
       </c>
       <c r="G699" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="700" customHeight="1" spans="1:7">
@@ -18756,14 +18805,14 @@
       <c r="B700" s="28"/>
       <c r="C700" s="28"/>
       <c r="D700" s="28" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="E700" s="28"/>
       <c r="F700" s="25">
         <v>1</v>
       </c>
       <c r="G700" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="701" customHeight="1" spans="1:7">
@@ -18773,14 +18822,14 @@
       <c r="B701" s="28"/>
       <c r="C701" s="28"/>
       <c r="D701" s="28" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E701" s="28"/>
       <c r="F701" s="25">
         <v>1</v>
       </c>
       <c r="G701" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="702" customHeight="1" spans="1:7">
@@ -18790,14 +18839,14 @@
       <c r="B702" s="28"/>
       <c r="C702" s="28"/>
       <c r="D702" s="28" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="E702" s="28"/>
       <c r="F702" s="25">
         <v>1</v>
       </c>
       <c r="G702" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="703" customHeight="1" spans="1:7">
@@ -18807,14 +18856,14 @@
       <c r="B703" s="28"/>
       <c r="C703" s="28"/>
       <c r="D703" s="28" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E703" s="28"/>
       <c r="F703" s="25">
         <v>1</v>
       </c>
       <c r="G703" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="704" customHeight="1" spans="1:7">
@@ -18824,14 +18873,14 @@
       <c r="B704" s="28"/>
       <c r="C704" s="28"/>
       <c r="D704" s="28" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E704" s="28"/>
       <c r="F704" s="25">
         <v>1</v>
       </c>
       <c r="G704" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="705" customHeight="1" spans="1:7">
@@ -18841,14 +18890,14 @@
       <c r="B705" s="28"/>
       <c r="C705" s="28"/>
       <c r="D705" s="28" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E705" s="28"/>
       <c r="F705" s="25">
         <v>1</v>
       </c>
       <c r="G705" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="706" customHeight="1" spans="1:7">
@@ -18858,14 +18907,14 @@
       <c r="B706" s="28"/>
       <c r="C706" s="28"/>
       <c r="D706" s="28" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="E706" s="28"/>
       <c r="F706" s="25">
         <v>1</v>
       </c>
       <c r="G706" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="707" customHeight="1" spans="1:7">
@@ -18875,14 +18924,14 @@
       <c r="B707" s="28"/>
       <c r="C707" s="28"/>
       <c r="D707" s="28" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E707" s="28"/>
       <c r="F707" s="25">
         <v>1</v>
       </c>
       <c r="G707" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="708" customHeight="1" spans="1:7">
@@ -18892,14 +18941,14 @@
       <c r="B708" s="28"/>
       <c r="C708" s="28"/>
       <c r="D708" s="28" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E708" s="28"/>
       <c r="F708" s="25">
         <v>1</v>
       </c>
       <c r="G708" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="709" customHeight="1" spans="1:7">
@@ -18909,14 +18958,14 @@
       <c r="B709" s="28"/>
       <c r="C709" s="28"/>
       <c r="D709" s="28" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E709" s="28"/>
       <c r="F709" s="25">
         <v>1</v>
       </c>
       <c r="G709" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="710" customHeight="1" spans="1:7">
@@ -18926,14 +18975,14 @@
       <c r="B710" s="28"/>
       <c r="C710" s="28"/>
       <c r="D710" s="28" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E710" s="28"/>
       <c r="F710" s="25">
         <v>1</v>
       </c>
       <c r="G710" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="711" customHeight="1" spans="1:7">
@@ -18943,14 +18992,14 @@
       <c r="B711" s="28"/>
       <c r="C711" s="28"/>
       <c r="D711" s="28" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E711" s="28"/>
       <c r="F711" s="25">
         <v>1</v>
       </c>
       <c r="G711" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="712" customHeight="1" spans="1:7">
@@ -18960,14 +19009,14 @@
       <c r="B712" s="28"/>
       <c r="C712" s="28"/>
       <c r="D712" s="28" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E712" s="28"/>
       <c r="F712" s="25">
         <v>1</v>
       </c>
       <c r="G712" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="713" customHeight="1" spans="1:7">
@@ -18977,14 +19026,14 @@
       <c r="B713" s="28"/>
       <c r="C713" s="28"/>
       <c r="D713" s="28" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E713" s="28"/>
       <c r="F713" s="25">
         <v>1</v>
       </c>
       <c r="G713" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="714" customHeight="1" spans="1:7">
@@ -18994,16 +19043,16 @@
       <c r="B714" s="28"/>
       <c r="C714" s="28"/>
       <c r="D714" s="28" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E714" s="25" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="F714" s="25">
         <v>1</v>
       </c>
       <c r="G714" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="715" customHeight="1" spans="1:7">
@@ -19013,14 +19062,14 @@
       <c r="B715" s="28"/>
       <c r="C715" s="28"/>
       <c r="D715" s="28" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E715" s="28"/>
       <c r="F715" s="25">
         <v>1</v>
       </c>
       <c r="G715" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="716" customHeight="1" spans="1:7">
@@ -19030,14 +19079,14 @@
       <c r="B716" s="28"/>
       <c r="C716" s="28"/>
       <c r="D716" s="28" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E716" s="28"/>
       <c r="F716" s="25">
         <v>1</v>
       </c>
       <c r="G716" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="717" customHeight="1" spans="1:7">
@@ -19047,14 +19096,14 @@
       <c r="B717" s="28"/>
       <c r="C717" s="28"/>
       <c r="D717" s="28" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E717" s="28"/>
       <c r="F717" s="25">
         <v>1</v>
       </c>
       <c r="G717" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="718" customHeight="1" spans="1:7">
@@ -19064,14 +19113,14 @@
       <c r="B718" s="28"/>
       <c r="C718" s="28"/>
       <c r="D718" s="28" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E718" s="28"/>
       <c r="F718" s="25">
         <v>1</v>
       </c>
       <c r="G718" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="719" customHeight="1" spans="1:7">
@@ -19081,14 +19130,14 @@
       <c r="B719" s="28"/>
       <c r="C719" s="28"/>
       <c r="D719" s="28" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E719" s="28"/>
       <c r="F719" s="25">
         <v>1</v>
       </c>
       <c r="G719" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="720" customHeight="1" spans="1:7">
@@ -19098,14 +19147,14 @@
       <c r="B720" s="28"/>
       <c r="C720" s="28"/>
       <c r="D720" s="28" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E720" s="28"/>
       <c r="F720" s="25">
         <v>1</v>
       </c>
       <c r="G720" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="721" customHeight="1" spans="1:7">
@@ -19115,14 +19164,14 @@
       <c r="B721" s="28"/>
       <c r="C721" s="28"/>
       <c r="D721" s="28" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E721" s="28"/>
       <c r="F721" s="25">
         <v>1</v>
       </c>
       <c r="G721" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="722" customHeight="1" spans="1:7">
@@ -19132,14 +19181,14 @@
       <c r="B722" s="28"/>
       <c r="C722" s="28"/>
       <c r="D722" s="28" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E722" s="28"/>
       <c r="F722" s="25">
         <v>1</v>
       </c>
       <c r="G722" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="723" customHeight="1" spans="1:7">
@@ -19149,16 +19198,16 @@
       <c r="B723" s="28"/>
       <c r="C723" s="28"/>
       <c r="D723" s="74" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E723" s="25" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F723" s="25">
         <v>1</v>
       </c>
       <c r="G723" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="724" customHeight="1" spans="1:7">
@@ -19168,14 +19217,14 @@
       <c r="B724" s="28"/>
       <c r="C724" s="28"/>
       <c r="D724" s="28" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="E724" s="28"/>
       <c r="F724" s="25">
         <v>1</v>
       </c>
       <c r="G724" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="725" customHeight="1" spans="1:7">
@@ -19185,14 +19234,14 @@
       <c r="B725" s="28"/>
       <c r="C725" s="28"/>
       <c r="D725" s="28" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E725" s="28"/>
       <c r="F725" s="25">
         <v>1</v>
       </c>
       <c r="G725" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="726" customHeight="1" spans="1:7">
@@ -19202,14 +19251,14 @@
       <c r="B726" s="28"/>
       <c r="C726" s="28"/>
       <c r="D726" s="28" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E726" s="28"/>
       <c r="F726" s="25">
         <v>1</v>
       </c>
       <c r="G726" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="727" customHeight="1" spans="1:7">
@@ -19219,14 +19268,14 @@
       <c r="B727" s="28"/>
       <c r="C727" s="28"/>
       <c r="D727" s="28" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E727" s="28"/>
       <c r="F727" s="25">
         <v>1</v>
       </c>
       <c r="G727" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="728" customHeight="1" spans="1:7">
@@ -19236,14 +19285,14 @@
       <c r="B728" s="28"/>
       <c r="C728" s="28"/>
       <c r="D728" s="28" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="E728" s="28"/>
       <c r="F728" s="25">
         <v>1</v>
       </c>
       <c r="G728" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="729" customHeight="1" spans="1:7">
@@ -19253,14 +19302,14 @@
       <c r="B729" s="28"/>
       <c r="C729" s="28"/>
       <c r="D729" s="28" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E729" s="28"/>
       <c r="F729" s="25">
         <v>1</v>
       </c>
       <c r="G729" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="730" customHeight="1" spans="1:7">
@@ -19270,14 +19319,14 @@
       <c r="B730" s="28"/>
       <c r="C730" s="28"/>
       <c r="D730" s="28" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E730" s="28"/>
       <c r="F730" s="25">
         <v>1</v>
       </c>
       <c r="G730" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="731" customHeight="1" spans="1:7">
@@ -19287,16 +19336,16 @@
       <c r="B731" s="28"/>
       <c r="C731" s="28"/>
       <c r="D731" s="74" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E731" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F731" s="25">
         <v>1</v>
       </c>
       <c r="G731" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="732" customHeight="1" spans="1:7">
@@ -19306,7 +19355,7 @@
       <c r="B732" s="28"/>
       <c r="C732" s="28"/>
       <c r="D732" s="28" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E732" s="28"/>
       <c r="F732" s="25">
@@ -19323,16 +19372,16 @@
       <c r="B733" s="28"/>
       <c r="C733" s="28"/>
       <c r="D733" s="28" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E733" s="28" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F733" s="25">
         <v>1</v>
       </c>
       <c r="G733" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="734" customHeight="1" spans="1:7">
@@ -19342,10 +19391,10 @@
       <c r="B734" s="75"/>
       <c r="C734" s="76"/>
       <c r="D734" s="28" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E734" s="28" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F734" s="25">
         <v>10</v>
@@ -19361,14 +19410,14 @@
       <c r="B735" s="75"/>
       <c r="C735" s="76"/>
       <c r="D735" s="28" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="E735" s="67"/>
       <c r="F735" s="25">
         <v>1</v>
       </c>
       <c r="G735" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="736" customHeight="1" spans="1:7">
@@ -19378,14 +19427,14 @@
       <c r="B736" s="75"/>
       <c r="C736" s="76"/>
       <c r="D736" s="28" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E736" s="28"/>
       <c r="F736" s="25">
         <v>1</v>
       </c>
       <c r="G736" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="737" customHeight="1" spans="1:7">
@@ -19395,14 +19444,14 @@
       <c r="B737" s="75"/>
       <c r="C737" s="76"/>
       <c r="D737" s="28" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E737" s="28"/>
       <c r="F737" s="25">
         <v>1</v>
       </c>
       <c r="G737" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="738" customHeight="1" spans="1:7">
@@ -19412,14 +19461,14 @@
       <c r="B738" s="75"/>
       <c r="C738" s="76"/>
       <c r="D738" s="28" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E738" s="28"/>
       <c r="F738" s="25">
         <v>1</v>
       </c>
       <c r="G738" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="739" customHeight="1" spans="1:7">
@@ -19429,14 +19478,14 @@
       <c r="B739" s="75"/>
       <c r="C739" s="76"/>
       <c r="D739" s="28" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E739" s="28"/>
       <c r="F739" s="25">
         <v>1</v>
       </c>
       <c r="G739" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="740" customHeight="1" spans="1:7">
@@ -19446,14 +19495,14 @@
       <c r="B740" s="75"/>
       <c r="C740" s="76"/>
       <c r="D740" s="28" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E740" s="28"/>
       <c r="F740" s="25">
         <v>1</v>
       </c>
       <c r="G740" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="741" customHeight="1" spans="1:7">
@@ -19463,16 +19512,16 @@
       <c r="B741" s="75"/>
       <c r="C741" s="76"/>
       <c r="D741" s="74" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E741" s="25" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F741" s="25">
         <v>1</v>
       </c>
       <c r="G741" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="742" customHeight="1" spans="1:7">
@@ -19482,14 +19531,14 @@
       <c r="B742" s="75"/>
       <c r="C742" s="76"/>
       <c r="D742" s="28" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E742" s="28"/>
       <c r="F742" s="25">
         <v>1</v>
       </c>
       <c r="G742" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="743" customHeight="1" spans="1:7">
@@ -19499,14 +19548,14 @@
       <c r="B743" s="75"/>
       <c r="C743" s="76"/>
       <c r="D743" s="28" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E743" s="28"/>
       <c r="F743" s="25">
         <v>1</v>
       </c>
       <c r="G743" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="744" customHeight="1" spans="1:7">
@@ -19516,14 +19565,14 @@
       <c r="B744" s="75"/>
       <c r="C744" s="76"/>
       <c r="D744" s="28" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E744" s="28"/>
       <c r="F744" s="25">
         <v>1</v>
       </c>
       <c r="G744" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="745" customHeight="1" spans="1:7">
@@ -19533,14 +19582,14 @@
       <c r="B745" s="75"/>
       <c r="C745" s="76"/>
       <c r="D745" s="28" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E745" s="28"/>
       <c r="F745" s="25">
         <v>1</v>
       </c>
       <c r="G745" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="746" customHeight="1" spans="1:7">
@@ -19550,16 +19599,16 @@
       <c r="B746" s="75"/>
       <c r="C746" s="76"/>
       <c r="D746" s="28" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E746" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F746" s="25">
         <v>1</v>
       </c>
       <c r="G746" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="747" customHeight="1" spans="1:7">
@@ -19569,16 +19618,16 @@
       <c r="B747" s="75"/>
       <c r="C747" s="76"/>
       <c r="D747" s="74" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E747" s="77" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F747" s="25">
         <v>1</v>
       </c>
       <c r="G747" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="748" customHeight="1" spans="1:7">
@@ -19588,14 +19637,14 @@
       <c r="B748" s="75"/>
       <c r="C748" s="76"/>
       <c r="D748" s="74" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E748" s="67"/>
       <c r="F748" s="25">
         <v>1</v>
       </c>
       <c r="G748" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="749" customHeight="1" spans="1:7">
@@ -19605,16 +19654,16 @@
       <c r="B749" s="75"/>
       <c r="C749" s="76"/>
       <c r="D749" s="74" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E749" s="25" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F749" s="25">
         <v>1</v>
       </c>
       <c r="G749" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="750" customHeight="1" spans="1:7">
@@ -19624,7 +19673,7 @@
       <c r="B750" s="75"/>
       <c r="C750" s="76"/>
       <c r="D750" s="28" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E750" s="28"/>
       <c r="F750" s="25">
@@ -19641,7 +19690,7 @@
       <c r="B751" s="75"/>
       <c r="C751" s="76"/>
       <c r="D751" s="28" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E751" s="28"/>
       <c r="F751" s="25">
@@ -19658,14 +19707,14 @@
       <c r="B752" s="75"/>
       <c r="C752" s="76"/>
       <c r="D752" s="28" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E752" s="28"/>
       <c r="F752" s="25">
         <v>1</v>
       </c>
       <c r="G752" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="753" customHeight="1" spans="1:7">
@@ -19675,16 +19724,16 @@
       <c r="B753" s="75"/>
       <c r="C753" s="76"/>
       <c r="D753" s="74" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E753" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F753" s="25">
         <v>1</v>
       </c>
       <c r="G753" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="754" customHeight="1" spans="1:7">
@@ -19694,16 +19743,16 @@
       <c r="B754" s="75"/>
       <c r="C754" s="76"/>
       <c r="D754" s="74" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="E754" s="25" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F754" s="25">
         <v>1</v>
       </c>
       <c r="G754" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="755" customHeight="1" spans="1:7">
@@ -19713,14 +19762,14 @@
       <c r="B755" s="75"/>
       <c r="C755" s="76"/>
       <c r="D755" s="74" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E755" s="74"/>
       <c r="F755" s="25">
         <v>1</v>
       </c>
       <c r="G755" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="756" customHeight="1" spans="1:7">
@@ -19730,14 +19779,14 @@
       <c r="B756" s="75"/>
       <c r="C756" s="76"/>
       <c r="D756" s="74" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="E756" s="74"/>
       <c r="F756" s="25">
         <v>1</v>
       </c>
       <c r="G756" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="757" customHeight="1" spans="1:7">
@@ -19747,14 +19796,14 @@
       <c r="B757" s="75"/>
       <c r="C757" s="76"/>
       <c r="D757" s="74" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="E757" s="74"/>
       <c r="F757" s="25">
         <v>1</v>
       </c>
       <c r="G757" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="758" customHeight="1" spans="1:7">
@@ -19764,10 +19813,10 @@
       <c r="B758" s="75"/>
       <c r="C758" s="76"/>
       <c r="D758" s="74" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E758" s="74" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F758" s="25">
         <v>10</v>
@@ -19783,10 +19832,10 @@
       <c r="B759" s="75"/>
       <c r="C759" s="76"/>
       <c r="D759" s="74" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E759" s="74" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F759" s="25">
         <v>10</v>
@@ -19802,10 +19851,10 @@
       <c r="B760" s="75"/>
       <c r="C760" s="76"/>
       <c r="D760" s="74" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="E760" s="74" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F760" s="25">
         <v>10</v>
@@ -19821,7 +19870,7 @@
       <c r="B761" s="75"/>
       <c r="C761" s="76"/>
       <c r="D761" s="74" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E761" s="74"/>
       <c r="F761" s="25">
@@ -19838,7 +19887,7 @@
       <c r="B762" s="75"/>
       <c r="C762" s="76"/>
       <c r="D762" s="74" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E762" s="74"/>
       <c r="F762" s="25">
@@ -19855,7 +19904,7 @@
       <c r="B763" s="75"/>
       <c r="C763" s="76"/>
       <c r="D763" s="74" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E763" s="74"/>
       <c r="F763" s="25">
@@ -19872,7 +19921,7 @@
       <c r="B764" s="75"/>
       <c r="C764" s="76"/>
       <c r="D764" s="74" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E764" s="74"/>
       <c r="F764" s="25">
@@ -19889,7 +19938,7 @@
       <c r="B765" s="75"/>
       <c r="C765" s="76"/>
       <c r="D765" s="74" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E765" s="74"/>
       <c r="F765" s="25">
@@ -19961,7 +20010,7 @@
       <c r="B771" s="75"/>
       <c r="C771" s="76"/>
       <c r="D771" s="74" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E771" s="78"/>
       <c r="F771" s="25">
@@ -19978,14 +20027,14 @@
       <c r="B772" s="75"/>
       <c r="C772" s="76"/>
       <c r="D772" s="74" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E772" s="78"/>
       <c r="F772" s="25">
         <v>1</v>
       </c>
       <c r="G772" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="773" customHeight="1" spans="1:7">
@@ -19995,14 +20044,14 @@
       <c r="B773" s="75"/>
       <c r="C773" s="76"/>
       <c r="D773" s="74" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E773" s="78"/>
       <c r="F773" s="25">
         <v>1</v>
       </c>
       <c r="G773" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="774" customHeight="1" spans="1:7">
@@ -20012,14 +20061,14 @@
       <c r="B774" s="75"/>
       <c r="C774" s="76"/>
       <c r="D774" s="74" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E774" s="78"/>
       <c r="F774" s="25">
         <v>1</v>
       </c>
       <c r="G774" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="775" customHeight="1" spans="1:7">
@@ -20029,14 +20078,14 @@
       <c r="B775" s="75"/>
       <c r="C775" s="76"/>
       <c r="D775" s="74" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E775" s="78"/>
       <c r="F775" s="25">
         <v>1</v>
       </c>
       <c r="G775" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="776" customHeight="1" spans="1:7">
@@ -20046,16 +20095,16 @@
       <c r="B776" s="75"/>
       <c r="C776" s="76"/>
       <c r="D776" s="28" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E776" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F776" s="25">
         <v>1</v>
       </c>
       <c r="G776" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="777" customHeight="1" spans="1:7">
@@ -20065,14 +20114,14 @@
       <c r="B777" s="75"/>
       <c r="C777" s="76"/>
       <c r="D777" s="74" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E777" s="78"/>
       <c r="F777" s="25">
         <v>1</v>
       </c>
       <c r="G777" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="778" customHeight="1" spans="1:7">
@@ -20082,16 +20131,16 @@
       <c r="B778" s="75"/>
       <c r="C778" s="76"/>
       <c r="D778" s="74" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="E778" s="25" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F778" s="25">
         <v>1</v>
       </c>
       <c r="G778" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="779" customHeight="1" spans="1:7">
@@ -20101,14 +20150,14 @@
       <c r="B779" s="75"/>
       <c r="C779" s="76"/>
       <c r="D779" s="74" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E779" s="78"/>
       <c r="F779" s="25">
         <v>1</v>
       </c>
       <c r="G779" s="25" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="780" customHeight="1" spans="1:7">
@@ -20117,10 +20166,16 @@
       </c>
       <c r="B780" s="75"/>
       <c r="C780" s="76"/>
-      <c r="D780" s="74"/>
+      <c r="D780" s="74" t="s">
+        <v>1106</v>
+      </c>
       <c r="E780" s="78"/>
-      <c r="F780" s="25"/>
-      <c r="G780" s="25"/>
+      <c r="F780" s="25">
+        <v>1</v>
+      </c>
+      <c r="G780" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="781" customHeight="1" spans="1:7">
       <c r="A781" s="21">
@@ -20128,10 +20183,16 @@
       </c>
       <c r="B781" s="75"/>
       <c r="C781" s="76"/>
-      <c r="D781" s="74"/>
+      <c r="D781" s="74" t="s">
+        <v>1107</v>
+      </c>
       <c r="E781" s="78"/>
-      <c r="F781" s="25"/>
-      <c r="G781" s="25"/>
+      <c r="F781" s="25">
+        <v>1</v>
+      </c>
+      <c r="G781" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="782" customHeight="1" spans="1:7">
       <c r="A782" s="21">
@@ -20139,10 +20200,16 @@
       </c>
       <c r="B782" s="75"/>
       <c r="C782" s="76"/>
-      <c r="D782" s="74"/>
+      <c r="D782" s="74" t="s">
+        <v>1108</v>
+      </c>
       <c r="E782" s="78"/>
-      <c r="F782" s="25"/>
-      <c r="G782" s="25"/>
+      <c r="F782" s="25">
+        <v>1</v>
+      </c>
+      <c r="G782" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="783" customHeight="1" spans="1:7">
       <c r="A783" s="21">
@@ -20150,10 +20217,16 @@
       </c>
       <c r="B783" s="75"/>
       <c r="C783" s="76"/>
-      <c r="D783" s="74"/>
+      <c r="D783" s="74" t="s">
+        <v>1109</v>
+      </c>
       <c r="E783" s="78"/>
-      <c r="F783" s="25"/>
-      <c r="G783" s="25"/>
+      <c r="F783" s="25">
+        <v>1</v>
+      </c>
+      <c r="G783" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="784" customHeight="1" spans="1:7">
       <c r="A784" s="21">
@@ -20161,10 +20234,16 @@
       </c>
       <c r="B784" s="75"/>
       <c r="C784" s="76"/>
-      <c r="D784" s="74"/>
+      <c r="D784" s="74" t="s">
+        <v>1110</v>
+      </c>
       <c r="E784" s="78"/>
-      <c r="F784" s="25"/>
-      <c r="G784" s="25"/>
+      <c r="F784" s="25">
+        <v>1</v>
+      </c>
+      <c r="G784" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="785" customHeight="1" spans="1:7">
       <c r="A785" s="21">
@@ -20172,10 +20251,16 @@
       </c>
       <c r="B785" s="75"/>
       <c r="C785" s="76"/>
-      <c r="D785" s="74"/>
+      <c r="D785" s="74" t="s">
+        <v>1111</v>
+      </c>
       <c r="E785" s="78"/>
-      <c r="F785" s="25"/>
-      <c r="G785" s="25"/>
+      <c r="F785" s="25">
+        <v>1</v>
+      </c>
+      <c r="G785" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="786" customHeight="1" spans="1:7">
       <c r="A786" s="21">
@@ -20183,10 +20268,16 @@
       </c>
       <c r="B786" s="75"/>
       <c r="C786" s="76"/>
-      <c r="D786" s="74"/>
+      <c r="D786" s="74" t="s">
+        <v>1112</v>
+      </c>
       <c r="E786" s="78"/>
-      <c r="F786" s="25"/>
-      <c r="G786" s="25"/>
+      <c r="F786" s="25">
+        <v>1</v>
+      </c>
+      <c r="G786" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="787" customHeight="1" spans="1:7">
       <c r="A787" s="21">
@@ -20194,10 +20285,16 @@
       </c>
       <c r="B787" s="75"/>
       <c r="C787" s="76"/>
-      <c r="D787" s="74"/>
+      <c r="D787" s="74" t="s">
+        <v>1113</v>
+      </c>
       <c r="E787" s="78"/>
-      <c r="F787" s="25"/>
-      <c r="G787" s="25"/>
+      <c r="F787" s="25">
+        <v>1</v>
+      </c>
+      <c r="G787" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="788" customHeight="1" spans="1:7">
       <c r="A788" s="21">
@@ -20205,10 +20302,16 @@
       </c>
       <c r="B788" s="75"/>
       <c r="C788" s="76"/>
-      <c r="D788" s="74"/>
+      <c r="D788" s="74" t="s">
+        <v>1114</v>
+      </c>
       <c r="E788" s="78"/>
-      <c r="F788" s="25"/>
-      <c r="G788" s="25"/>
+      <c r="F788" s="25">
+        <v>1</v>
+      </c>
+      <c r="G788" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="789" customHeight="1" spans="1:7">
       <c r="A789" s="21">
@@ -20216,91 +20319,153 @@
       </c>
       <c r="B789" s="75"/>
       <c r="C789" s="76"/>
-      <c r="D789" s="74"/>
+      <c r="D789" s="74" t="s">
+        <v>1115</v>
+      </c>
       <c r="E789" s="78"/>
-      <c r="F789" s="25"/>
-      <c r="G789" s="25"/>
+      <c r="F789" s="25">
+        <v>1</v>
+      </c>
+      <c r="G789" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="790" customHeight="1" spans="1:7">
-      <c r="A790" s="76"/>
+      <c r="A790" s="21">
+        <v>789</v>
+      </c>
       <c r="B790" s="75"/>
       <c r="C790" s="76"/>
-      <c r="D790" s="74"/>
+      <c r="D790" s="74" t="s">
+        <v>1116</v>
+      </c>
       <c r="E790" s="78"/>
-      <c r="F790" s="25"/>
-      <c r="G790" s="25"/>
+      <c r="F790" s="25">
+        <v>1</v>
+      </c>
+      <c r="G790" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="791" customHeight="1" spans="1:7">
-      <c r="A791" s="76"/>
+      <c r="A791" s="21">
+        <v>790</v>
+      </c>
       <c r="B791" s="75"/>
       <c r="C791" s="76"/>
-      <c r="D791" s="74"/>
+      <c r="D791" s="74" t="s">
+        <v>1117</v>
+      </c>
       <c r="E791" s="78"/>
-      <c r="F791" s="25"/>
-      <c r="G791" s="25"/>
+      <c r="F791" s="25">
+        <v>1</v>
+      </c>
+      <c r="G791" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="792" customHeight="1" spans="1:7">
-      <c r="A792" s="76"/>
+      <c r="A792" s="21">
+        <v>791</v>
+      </c>
       <c r="B792" s="75"/>
       <c r="C792" s="76"/>
-      <c r="D792" s="74"/>
+      <c r="D792" s="74" t="s">
+        <v>1118</v>
+      </c>
       <c r="E792" s="78"/>
-      <c r="F792" s="25"/>
-      <c r="G792" s="25"/>
+      <c r="F792" s="25">
+        <v>1</v>
+      </c>
+      <c r="G792" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="793" customHeight="1" spans="1:7">
-      <c r="A793" s="76"/>
+      <c r="A793" s="21">
+        <v>792</v>
+      </c>
       <c r="B793" s="75"/>
       <c r="C793" s="76"/>
-      <c r="D793" s="79"/>
-      <c r="E793" s="78"/>
-      <c r="F793" s="25"/>
-      <c r="G793" s="25"/>
+      <c r="D793" s="74" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E793" s="74"/>
+      <c r="F793" s="25">
+        <v>1</v>
+      </c>
+      <c r="G793" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="794" customHeight="1" spans="1:7">
-      <c r="A794" s="76"/>
+      <c r="A794" s="21">
+        <v>793</v>
+      </c>
       <c r="B794" s="75"/>
       <c r="C794" s="76"/>
-      <c r="D794" s="79"/>
-      <c r="E794" s="78"/>
-      <c r="F794" s="25"/>
-      <c r="G794" s="25"/>
+      <c r="D794" s="74" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E794" s="74"/>
+      <c r="F794" s="25">
+        <v>1</v>
+      </c>
+      <c r="G794" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="795" customHeight="1" spans="1:7">
-      <c r="A795" s="76"/>
+      <c r="A795" s="21">
+        <v>794</v>
+      </c>
       <c r="B795" s="75"/>
       <c r="C795" s="76"/>
-      <c r="D795" s="79"/>
-      <c r="E795" s="78"/>
-      <c r="F795" s="25"/>
-      <c r="G795" s="25"/>
+      <c r="D795" s="74" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E795" s="74"/>
+      <c r="F795" s="25">
+        <v>1</v>
+      </c>
+      <c r="G795" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="796" customHeight="1" spans="1:7">
-      <c r="A796" s="76"/>
+      <c r="A796" s="21">
+        <v>795</v>
+      </c>
       <c r="B796" s="75"/>
       <c r="C796" s="76"/>
-      <c r="D796" s="79"/>
-      <c r="E796" s="78"/>
-      <c r="F796" s="25"/>
-      <c r="G796" s="25"/>
+      <c r="D796" s="74" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E796" s="74"/>
+      <c r="F796" s="25">
+        <v>1</v>
+      </c>
+      <c r="G796" s="25" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="797" customHeight="1" spans="1:7">
       <c r="A797" s="76"/>
       <c r="B797" s="75"/>
       <c r="C797" s="76"/>
-      <c r="D797" s="79"/>
-      <c r="E797" s="78"/>
-      <c r="F797" s="25"/>
-      <c r="G797" s="25"/>
+      <c r="D797" s="74"/>
+      <c r="E797" s="74"/>
+      <c r="F797" s="74"/>
+      <c r="G797" s="74"/>
     </row>
     <row r="798" customHeight="1" spans="1:7">
       <c r="A798" s="76"/>
       <c r="B798" s="75"/>
       <c r="C798" s="76"/>
-      <c r="D798" s="79"/>
-      <c r="E798" s="78"/>
-      <c r="F798" s="25"/>
-      <c r="G798" s="25"/>
+      <c r="D798" s="74"/>
+      <c r="E798" s="74"/>
+      <c r="F798" s="74"/>
+      <c r="G798" s="74"/>
     </row>
     <row r="799" customHeight="1" spans="1:7">
       <c r="A799" s="76"/>
@@ -20353,53 +20518,8 @@
       <c r="C804" s="76"/>
       <c r="D804" s="79"/>
       <c r="E804" s="78"/>
-      <c r="F804" s="25"/>
-      <c r="G804" s="25"/>
-    </row>
-    <row r="805" customHeight="1" spans="1:7">
-      <c r="A805" s="76"/>
-      <c r="B805" s="75"/>
-      <c r="C805" s="76"/>
-      <c r="D805" s="79"/>
-      <c r="E805" s="78"/>
-      <c r="F805" s="25"/>
-      <c r="G805" s="25"/>
-    </row>
-    <row r="806" customHeight="1" spans="1:7">
-      <c r="A806" s="76"/>
-      <c r="B806" s="75"/>
-      <c r="C806" s="76"/>
-      <c r="D806" s="79"/>
-      <c r="E806" s="78"/>
-      <c r="F806" s="25"/>
-      <c r="G806" s="25"/>
-    </row>
-    <row r="807" customHeight="1" spans="1:7">
-      <c r="A807" s="76"/>
-      <c r="B807" s="75"/>
-      <c r="C807" s="76"/>
-      <c r="D807" s="79"/>
-      <c r="E807" s="78"/>
-      <c r="F807" s="25"/>
-      <c r="G807" s="25"/>
-    </row>
-    <row r="808" customHeight="1" spans="1:7">
-      <c r="A808" s="76"/>
-      <c r="B808" s="75"/>
-      <c r="C808" s="76"/>
-      <c r="D808" s="79"/>
-      <c r="E808" s="78"/>
-      <c r="F808" s="25"/>
-      <c r="G808" s="25"/>
-    </row>
-    <row r="809" customHeight="1" spans="1:7">
-      <c r="A809" s="76"/>
-      <c r="B809" s="75"/>
-      <c r="C809" s="76"/>
-      <c r="D809" s="79"/>
-      <c r="E809" s="78"/>
-      <c r="F809" s="78"/>
-      <c r="G809" s="78"/>
+      <c r="F804" s="78"/>
+      <c r="G804" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>

--- a/DateBase/flawers/flower.xlsx
+++ b/DateBase/flawers/flower.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17062" windowHeight="9367"/>
+    <workbookView windowWidth="27952" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="洋桔梗Lisianthus" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="1218">
   <si>
     <t>id</t>
   </si>
@@ -2861,7 +2861,7 @@
     <t>heliconia red</t>
   </si>
   <si>
-    <t>绿宝石</t>
+    <t>非洲菊绿宝石</t>
   </si>
   <si>
     <t>粉菠萝</t>
@@ -3768,10 +3768,10 @@
     <t>虎尾兰</t>
   </si>
   <si>
-    <t>维也纳大菊</t>
-  </si>
-  <si>
-    <t>朱玉大菊</t>
+    <t>大菊黄</t>
+  </si>
+  <si>
+    <t>大菊粉</t>
   </si>
   <si>
     <t>清香木果</t>
@@ -3940,6 +3940,61 @@
   </si>
   <si>
     <t>彼岸花黄</t>
+  </si>
+  <si>
+    <t>海芋粉</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小菊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小菊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>绿</t>
+    </r>
+  </si>
+  <si>
+    <t>喷色小米果</t>
+  </si>
+  <si>
+    <t>大菊白</t>
+  </si>
+  <si>
+    <t>小白果小把</t>
+  </si>
+  <si>
+    <t>干花黄金球白</t>
   </si>
 </sst>
 </file>
@@ -4975,7 +5030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5209,15 +5264,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6387,14 +6433,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H856"/>
+  <dimension ref="A1:H863"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B831" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B387" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G840" sqref="G840"/>
+      <selection pane="bottomRight" activeCell="G407" sqref="G407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3362831858407" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="7"/>
@@ -21331,8 +21377,8 @@
       <c r="A821" s="21">
         <v>820</v>
       </c>
-      <c r="B821" s="79"/>
-      <c r="C821" s="80"/>
+      <c r="B821" s="75"/>
+      <c r="C821" s="76"/>
       <c r="D821" s="74" t="s">
         <v>1176</v>
       </c>
@@ -21348,8 +21394,8 @@
       <c r="A822" s="21">
         <v>821</v>
       </c>
-      <c r="B822" s="79"/>
-      <c r="C822" s="80"/>
+      <c r="B822" s="75"/>
+      <c r="C822" s="76"/>
       <c r="D822" s="74" t="s">
         <v>1177</v>
       </c>
@@ -21365,8 +21411,8 @@
       <c r="A823" s="21">
         <v>822</v>
       </c>
-      <c r="B823" s="79"/>
-      <c r="C823" s="80"/>
+      <c r="B823" s="75"/>
+      <c r="C823" s="76"/>
       <c r="D823" s="74" t="s">
         <v>1178</v>
       </c>
@@ -21382,8 +21428,8 @@
       <c r="A824" s="21">
         <v>823</v>
       </c>
-      <c r="B824" s="79"/>
-      <c r="C824" s="80"/>
+      <c r="B824" s="75"/>
+      <c r="C824" s="76"/>
       <c r="D824" s="74" t="s">
         <v>1179</v>
       </c>
@@ -21399,8 +21445,8 @@
       <c r="A825" s="21">
         <v>824</v>
       </c>
-      <c r="B825" s="79"/>
-      <c r="C825" s="80"/>
+      <c r="B825" s="75"/>
+      <c r="C825" s="76"/>
       <c r="D825" s="74" t="s">
         <v>1180</v>
       </c>
@@ -21416,8 +21462,8 @@
       <c r="A826" s="21">
         <v>825</v>
       </c>
-      <c r="B826" s="79"/>
-      <c r="C826" s="80"/>
+      <c r="B826" s="75"/>
+      <c r="C826" s="76"/>
       <c r="D826" s="74" t="s">
         <v>1181</v>
       </c>
@@ -21433,8 +21479,8 @@
       <c r="A827" s="21">
         <v>826</v>
       </c>
-      <c r="B827" s="79"/>
-      <c r="C827" s="80"/>
+      <c r="B827" s="75"/>
+      <c r="C827" s="76"/>
       <c r="D827" s="74" t="s">
         <v>1182</v>
       </c>
@@ -21450,8 +21496,8 @@
       <c r="A828" s="21">
         <v>827</v>
       </c>
-      <c r="B828" s="79"/>
-      <c r="C828" s="80"/>
+      <c r="B828" s="75"/>
+      <c r="C828" s="76"/>
       <c r="D828" s="74" t="s">
         <v>1183</v>
       </c>
@@ -21467,8 +21513,8 @@
       <c r="A829" s="21">
         <v>828</v>
       </c>
-      <c r="B829" s="79"/>
-      <c r="C829" s="80"/>
+      <c r="B829" s="75"/>
+      <c r="C829" s="76"/>
       <c r="D829" s="74" t="s">
         <v>1184</v>
       </c>
@@ -21484,8 +21530,8 @@
       <c r="A830" s="21">
         <v>829</v>
       </c>
-      <c r="B830" s="79"/>
-      <c r="C830" s="80"/>
+      <c r="B830" s="75"/>
+      <c r="C830" s="76"/>
       <c r="D830" s="74" t="s">
         <v>1185</v>
       </c>
@@ -21503,8 +21549,8 @@
       <c r="A831" s="21">
         <v>830</v>
       </c>
-      <c r="B831" s="79"/>
-      <c r="C831" s="80"/>
+      <c r="B831" s="75"/>
+      <c r="C831" s="76"/>
       <c r="D831" s="74" t="s">
         <v>1186</v>
       </c>
@@ -21520,8 +21566,8 @@
       <c r="A832" s="21">
         <v>831</v>
       </c>
-      <c r="B832" s="79"/>
-      <c r="C832" s="80"/>
+      <c r="B832" s="75"/>
+      <c r="C832" s="76"/>
       <c r="D832" s="74" t="s">
         <v>1187</v>
       </c>
@@ -21537,12 +21583,12 @@
       <c r="A833" s="21">
         <v>832</v>
       </c>
-      <c r="B833" s="79"/>
-      <c r="C833" s="80"/>
+      <c r="B833" s="75"/>
+      <c r="C833" s="76"/>
       <c r="D833" s="74" t="s">
         <v>1188</v>
       </c>
-      <c r="E833" s="81"/>
+      <c r="E833" s="78"/>
       <c r="F833" s="25">
         <v>1</v>
       </c>
@@ -21554,12 +21600,12 @@
       <c r="A834" s="21">
         <v>833</v>
       </c>
-      <c r="B834" s="79"/>
-      <c r="C834" s="80"/>
+      <c r="B834" s="75"/>
+      <c r="C834" s="76"/>
       <c r="D834" s="74" t="s">
         <v>1189</v>
       </c>
-      <c r="E834" s="81"/>
+      <c r="E834" s="78"/>
       <c r="F834" s="25">
         <v>1</v>
       </c>
@@ -21571,12 +21617,12 @@
       <c r="A835" s="21">
         <v>834</v>
       </c>
-      <c r="B835" s="79"/>
-      <c r="C835" s="80"/>
+      <c r="B835" s="75"/>
+      <c r="C835" s="76"/>
       <c r="D835" s="74" t="s">
         <v>1190</v>
       </c>
-      <c r="E835" s="81"/>
+      <c r="E835" s="78"/>
       <c r="F835" s="25">
         <v>1</v>
       </c>
@@ -21588,12 +21634,12 @@
       <c r="A836" s="21">
         <v>835</v>
       </c>
-      <c r="B836" s="79"/>
-      <c r="C836" s="80"/>
+      <c r="B836" s="75"/>
+      <c r="C836" s="76"/>
       <c r="D836" s="74" t="s">
         <v>1191</v>
       </c>
-      <c r="E836" s="81"/>
+      <c r="E836" s="78"/>
       <c r="F836" s="25">
         <v>1</v>
       </c>
@@ -21605,12 +21651,12 @@
       <c r="A837" s="21">
         <v>836</v>
       </c>
-      <c r="B837" s="79"/>
-      <c r="C837" s="80"/>
+      <c r="B837" s="75"/>
+      <c r="C837" s="76"/>
       <c r="D837" s="74" t="s">
         <v>1192</v>
       </c>
-      <c r="E837" s="81"/>
+      <c r="E837" s="78"/>
       <c r="F837" s="25">
         <v>1</v>
       </c>
@@ -21622,12 +21668,12 @@
       <c r="A838" s="21">
         <v>837</v>
       </c>
-      <c r="B838" s="79"/>
-      <c r="C838" s="80"/>
+      <c r="B838" s="75"/>
+      <c r="C838" s="76"/>
       <c r="D838" s="74" t="s">
         <v>1193</v>
       </c>
-      <c r="E838" s="81"/>
+      <c r="E838" s="78"/>
       <c r="F838" s="25">
         <v>1</v>
       </c>
@@ -21639,12 +21685,12 @@
       <c r="A839" s="21">
         <v>838</v>
       </c>
-      <c r="B839" s="79"/>
-      <c r="C839" s="80"/>
+      <c r="B839" s="75"/>
+      <c r="C839" s="76"/>
       <c r="D839" s="74" t="s">
         <v>1194</v>
       </c>
-      <c r="E839" s="81"/>
+      <c r="E839" s="78"/>
       <c r="F839" s="25">
         <v>1</v>
       </c>
@@ -21656,12 +21702,12 @@
       <c r="A840" s="21">
         <v>839</v>
       </c>
-      <c r="B840" s="79"/>
-      <c r="C840" s="80"/>
+      <c r="B840" s="75"/>
+      <c r="C840" s="76"/>
       <c r="D840" s="74" t="s">
         <v>1195</v>
       </c>
-      <c r="E840" s="81"/>
+      <c r="E840" s="78"/>
       <c r="F840" s="25">
         <v>1</v>
       </c>
@@ -21673,12 +21719,12 @@
       <c r="A841" s="21">
         <v>840</v>
       </c>
-      <c r="B841" s="79"/>
-      <c r="C841" s="80"/>
+      <c r="B841" s="75"/>
+      <c r="C841" s="76"/>
       <c r="D841" s="74" t="s">
         <v>1196</v>
       </c>
-      <c r="E841" s="81"/>
+      <c r="E841" s="78"/>
       <c r="F841" s="25">
         <v>1</v>
       </c>
@@ -21690,12 +21736,12 @@
       <c r="A842" s="21">
         <v>841</v>
       </c>
-      <c r="B842" s="79"/>
-      <c r="C842" s="80"/>
+      <c r="B842" s="75"/>
+      <c r="C842" s="76"/>
       <c r="D842" s="74" t="s">
         <v>1197</v>
       </c>
-      <c r="E842" s="81"/>
+      <c r="E842" s="78"/>
       <c r="F842" s="25">
         <v>1</v>
       </c>
@@ -21707,12 +21753,12 @@
       <c r="A843" s="21">
         <v>842</v>
       </c>
-      <c r="B843" s="79"/>
-      <c r="C843" s="80"/>
+      <c r="B843" s="75"/>
+      <c r="C843" s="76"/>
       <c r="D843" s="74" t="s">
         <v>1198</v>
       </c>
-      <c r="E843" s="81"/>
+      <c r="E843" s="78"/>
       <c r="F843" s="25">
         <v>1</v>
       </c>
@@ -21724,12 +21770,12 @@
       <c r="A844" s="21">
         <v>843</v>
       </c>
-      <c r="B844" s="79"/>
-      <c r="C844" s="80"/>
+      <c r="B844" s="75"/>
+      <c r="C844" s="76"/>
       <c r="D844" s="74" t="s">
         <v>1199</v>
       </c>
-      <c r="E844" s="81"/>
+      <c r="E844" s="78"/>
       <c r="F844" s="25">
         <v>1</v>
       </c>
@@ -21741,12 +21787,12 @@
       <c r="A845" s="21">
         <v>844</v>
       </c>
-      <c r="B845" s="79"/>
-      <c r="C845" s="80"/>
+      <c r="B845" s="75"/>
+      <c r="C845" s="76"/>
       <c r="D845" s="74" t="s">
         <v>1200</v>
       </c>
-      <c r="E845" s="81"/>
+      <c r="E845" s="78"/>
       <c r="F845" s="25">
         <v>1</v>
       </c>
@@ -21758,12 +21804,12 @@
       <c r="A846" s="21">
         <v>845</v>
       </c>
-      <c r="B846" s="79"/>
-      <c r="C846" s="80"/>
+      <c r="B846" s="75"/>
+      <c r="C846" s="76"/>
       <c r="D846" s="74" t="s">
         <v>1201</v>
       </c>
-      <c r="E846" s="81"/>
+      <c r="E846" s="78"/>
       <c r="F846" s="25">
         <v>1</v>
       </c>
@@ -21775,12 +21821,12 @@
       <c r="A847" s="21">
         <v>846</v>
       </c>
-      <c r="B847" s="79"/>
-      <c r="C847" s="80"/>
+      <c r="B847" s="75"/>
+      <c r="C847" s="76"/>
       <c r="D847" s="74" t="s">
         <v>1202</v>
       </c>
-      <c r="E847" s="81"/>
+      <c r="E847" s="78"/>
       <c r="F847" s="25">
         <v>1</v>
       </c>
@@ -21792,8 +21838,8 @@
       <c r="A848" s="21">
         <v>847</v>
       </c>
-      <c r="B848" s="79"/>
-      <c r="C848" s="80"/>
+      <c r="B848" s="75"/>
+      <c r="C848" s="76"/>
       <c r="D848" s="74" t="s">
         <v>1203</v>
       </c>
@@ -21809,12 +21855,12 @@
       <c r="A849" s="21">
         <v>848</v>
       </c>
-      <c r="B849" s="79"/>
-      <c r="C849" s="80"/>
+      <c r="B849" s="75"/>
+      <c r="C849" s="76"/>
       <c r="D849" s="74" t="s">
         <v>1204</v>
       </c>
-      <c r="E849" s="81"/>
+      <c r="E849" s="78"/>
       <c r="F849" s="25">
         <v>1</v>
       </c>
@@ -21826,12 +21872,12 @@
       <c r="A850" s="21">
         <v>849</v>
       </c>
-      <c r="B850" s="79"/>
-      <c r="C850" s="80"/>
+      <c r="B850" s="75"/>
+      <c r="C850" s="76"/>
       <c r="D850" s="74" t="s">
         <v>1205</v>
       </c>
-      <c r="E850" s="81"/>
+      <c r="E850" s="78"/>
       <c r="F850" s="25">
         <v>1</v>
       </c>
@@ -21843,12 +21889,12 @@
       <c r="A851" s="21">
         <v>850</v>
       </c>
-      <c r="B851" s="79"/>
-      <c r="C851" s="80"/>
+      <c r="B851" s="75"/>
+      <c r="C851" s="76"/>
       <c r="D851" s="74" t="s">
         <v>1206</v>
       </c>
-      <c r="E851" s="81"/>
+      <c r="E851" s="78"/>
       <c r="F851" s="25">
         <v>1</v>
       </c>
@@ -21860,12 +21906,12 @@
       <c r="A852" s="21">
         <v>851</v>
       </c>
-      <c r="B852" s="79"/>
-      <c r="C852" s="80"/>
+      <c r="B852" s="75"/>
+      <c r="C852" s="76"/>
       <c r="D852" s="74" t="s">
         <v>1207</v>
       </c>
-      <c r="E852" s="81"/>
+      <c r="E852" s="78"/>
       <c r="F852" s="25">
         <v>1</v>
       </c>
@@ -21877,12 +21923,12 @@
       <c r="A853" s="21">
         <v>852</v>
       </c>
-      <c r="B853" s="79"/>
-      <c r="C853" s="80"/>
+      <c r="B853" s="75"/>
+      <c r="C853" s="76"/>
       <c r="D853" s="74" t="s">
         <v>1208</v>
       </c>
-      <c r="E853" s="81"/>
+      <c r="E853" s="78"/>
       <c r="F853" s="25">
         <v>1</v>
       </c>
@@ -21894,12 +21940,12 @@
       <c r="A854" s="21">
         <v>853</v>
       </c>
-      <c r="B854" s="79"/>
-      <c r="C854" s="80"/>
+      <c r="B854" s="75"/>
+      <c r="C854" s="76"/>
       <c r="D854" s="74" t="s">
         <v>1209</v>
       </c>
-      <c r="E854" s="81"/>
+      <c r="E854" s="78"/>
       <c r="F854" s="25">
         <v>1</v>
       </c>
@@ -21911,12 +21957,12 @@
       <c r="A855" s="21">
         <v>854</v>
       </c>
-      <c r="B855" s="79"/>
-      <c r="C855" s="80"/>
+      <c r="B855" s="75"/>
+      <c r="C855" s="76"/>
       <c r="D855" s="74" t="s">
         <v>1210</v>
       </c>
-      <c r="E855" s="81"/>
+      <c r="E855" s="78"/>
       <c r="F855" s="25">
         <v>1</v>
       </c>
@@ -21928,14 +21974,135 @@
       <c r="A856" s="21">
         <v>855</v>
       </c>
-      <c r="B856" s="79"/>
-      <c r="C856" s="80"/>
-      <c r="D856" s="74"/>
-      <c r="E856" s="81"/>
+      <c r="B856" s="75"/>
+      <c r="C856" s="76"/>
+      <c r="D856" s="74" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E856" s="78"/>
       <c r="F856" s="25">
         <v>1</v>
       </c>
       <c r="G856" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="857" customHeight="1" spans="1:7">
+      <c r="A857" s="21">
+        <v>856</v>
+      </c>
+      <c r="B857" s="75"/>
+      <c r="C857" s="76"/>
+      <c r="D857" s="74" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E857" s="78"/>
+      <c r="F857" s="25">
+        <v>1</v>
+      </c>
+      <c r="G857" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="858" customHeight="1" spans="1:7">
+      <c r="A858" s="21">
+        <v>857</v>
+      </c>
+      <c r="B858" s="75"/>
+      <c r="C858" s="76"/>
+      <c r="D858" s="74" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E858" s="78"/>
+      <c r="F858" s="25">
+        <v>1</v>
+      </c>
+      <c r="G858" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="859" customHeight="1" spans="1:7">
+      <c r="A859" s="21">
+        <v>858</v>
+      </c>
+      <c r="B859" s="75"/>
+      <c r="C859" s="76"/>
+      <c r="D859" s="74" t="s">
+        <v>516</v>
+      </c>
+      <c r="E859" s="78"/>
+      <c r="F859" s="25">
+        <v>1</v>
+      </c>
+      <c r="G859" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="860" customHeight="1" spans="1:7">
+      <c r="A860" s="21">
+        <v>859</v>
+      </c>
+      <c r="B860" s="75"/>
+      <c r="C860" s="76"/>
+      <c r="D860" s="74" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E860" s="78"/>
+      <c r="F860" s="25">
+        <v>1</v>
+      </c>
+      <c r="G860" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="861" customHeight="1" spans="1:7">
+      <c r="A861" s="21">
+        <v>860</v>
+      </c>
+      <c r="B861" s="75"/>
+      <c r="C861" s="76"/>
+      <c r="D861" s="74" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E861" s="78"/>
+      <c r="F861" s="25">
+        <v>1</v>
+      </c>
+      <c r="G861" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="862" customHeight="1" spans="1:7">
+      <c r="A862" s="21">
+        <v>861</v>
+      </c>
+      <c r="B862" s="75"/>
+      <c r="C862" s="76"/>
+      <c r="D862" s="74" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E862" s="78"/>
+      <c r="F862" s="25">
+        <v>1</v>
+      </c>
+      <c r="G862" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="863" customHeight="1" spans="1:7">
+      <c r="A863" s="21">
+        <v>862</v>
+      </c>
+      <c r="B863" s="75"/>
+      <c r="C863" s="76"/>
+      <c r="D863" s="74" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E863" s="78"/>
+      <c r="F863" s="25">
+        <v>1</v>
+      </c>
+      <c r="G863" s="25" t="s">
         <v>445</v>
       </c>
     </row>
